--- a/MyST_LAB2_FMHL.xlsx
+++ b/MyST_LAB2_FMHL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ece0d5de62e46ee7/Documents/Semestre 9/Microestructuras y Sistemas de Trading/Laboratorios/Lab 3/MyST_LAB_3_E1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frida\Desktop\ITESO\9NO SEMESTRE\Microestructuras de Trading\MyST_LAB_3_E1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{E0936AC0-F899-4A2B-B65C-0ABAC39D6E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B69ACEB-88A8-4831-8132-F0D2676AA2F1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5830D-1C0F-4EB4-821B-586CE30E3D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="585" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Historico MT5" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="135">
   <si>
     <t xml:space="preserve">Operacion </t>
   </si>
@@ -384,9 +384,6 @@
     <t>2022.09.23 17:17:10</t>
   </si>
   <si>
-    <t>usdchf</t>
-  </si>
-  <si>
     <t>2022.09.23 17:28:26</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>2022.09.23 17:31:30</t>
   </si>
   <si>
-    <t>gbpjpy</t>
-  </si>
-  <si>
     <t>2022.09.26 03:59:23</t>
   </si>
   <si>
@@ -411,9 +405,6 @@
     <t>2022.09.23 17:35:26</t>
   </si>
   <si>
-    <t>eurgbp</t>
-  </si>
-  <si>
     <t>2022.09.26 04:00:05</t>
   </si>
   <si>
@@ -423,16 +414,10 @@
     <t>2022.09.23 18:07:06</t>
   </si>
   <si>
-    <t>usdjpy</t>
-  </si>
-  <si>
     <t>2022.09.23 18:09:24</t>
   </si>
   <si>
     <t>2022.09.26 22:47:29</t>
-  </si>
-  <si>
-    <t>usdcad</t>
   </si>
   <si>
     <t>2022.09.26 22:47:51</t>
@@ -813,23 +798,23 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1053,7 +1038,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1072,43 +1057,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C1" s="49" t="s">
+      <c r="B1" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="42" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="19"/>
@@ -1684,7 +1669,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="30" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B14" s="26">
         <v>78485270</v>
@@ -1830,8 +1815,8 @@
       <c r="B17" s="35">
         <v>78522330</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>116</v>
+      <c r="C17" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="D17" s="36" t="s">
         <v>89</v>
@@ -1849,7 +1834,7 @@
         <v>0.97867999999999999</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J17" s="35">
         <v>0.97865999999999997</v>
@@ -1879,13 +1864,13 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="35">
         <v>78522498</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>116</v>
+      <c r="C18" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="D18" s="36" t="s">
         <v>89</v>
@@ -1903,7 +1888,7 @@
         <v>0.97892000000000001</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="35">
         <v>0.97928999999999999</v>
@@ -1933,13 +1918,13 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="35">
         <v>78523281</v>
       </c>
-      <c r="C19" s="36" t="s">
-        <v>121</v>
+      <c r="C19" s="31" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>92</v>
@@ -1957,7 +1942,7 @@
         <v>157.38800000000001</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J19" s="35">
         <v>150.12200000000001</v>
@@ -1969,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N19" s="39"/>
       <c r="O19" s="37"/>
@@ -1987,13 +1972,13 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" s="35">
         <v>78523405</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>125</v>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>89</v>
@@ -2011,7 +1996,7 @@
         <v>0.88163000000000002</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J20" s="35">
         <v>0.92488000000000004</v>
@@ -2023,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N20" s="39"/>
       <c r="O20" s="37"/>
@@ -2041,13 +2026,13 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="34" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B21" s="35">
         <v>78524915</v>
       </c>
-      <c r="C21" s="36" t="s">
-        <v>129</v>
+      <c r="C21" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>92</v>
@@ -2065,7 +2050,7 @@
         <v>143.18899999999999</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J21" s="35">
         <v>143.18899999999999</v>
@@ -2095,13 +2080,13 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B22" s="35">
         <v>78599112</v>
       </c>
-      <c r="C22" s="36" t="s">
-        <v>132</v>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="D22" s="39" t="s">
         <v>89</v>
@@ -2119,7 +2104,7 @@
         <v>1.3728899999999999</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J22" s="35">
         <v>1.3728899999999999</v>
@@ -2149,13 +2134,13 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="34" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B23" s="35">
         <v>78599447</v>
       </c>
-      <c r="C23" s="36" t="s">
-        <v>125</v>
+      <c r="C23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D23" s="39" t="s">
         <v>89</v>
@@ -2173,7 +2158,7 @@
         <v>0.89770000000000005</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J23" s="35">
         <v>0.90005000000000002</v>
@@ -2203,13 +2188,13 @@
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="34" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B24" s="35">
         <v>78599555</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>116</v>
+      <c r="C24" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="39" t="s">
         <v>92</v>
@@ -2227,7 +2212,7 @@
         <v>0.99321000000000004</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="J24" s="35">
         <v>0.99321000000000004</v>
@@ -2610,7 +2595,7 @@
       <c r="D2" s="4">
         <v>0.87666999999999995</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
@@ -2630,7 +2615,7 @@
       <c r="D3" s="6">
         <v>0.878</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2648,48 +2633,48 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="5"/>
@@ -2702,92 +2687,92 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="15" spans="1:8" ht="12.75">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="12.75">
       <c r="A19" s="8"/>
@@ -2795,51 +2780,51 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="12.75">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
       <c r="J21" s="10">
         <v>110.56402</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="12.75">
       <c r="E24" s="9"/>
@@ -2857,7 +2842,7 @@
       <c r="D25" s="3">
         <v>1.1431899999999999</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="47" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2874,7 +2859,7 @@
       <c r="D26" s="3">
         <v>1.14419</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:10" ht="12.75">
       <c r="A27" s="5"/>
@@ -2889,48 +2874,48 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="12.75">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
       <c r="A32" s="5"/>
@@ -2943,140 +2928,140 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="12.75">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
     </row>
     <row r="38" spans="1:8" ht="12.75">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="12.75">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3091,7 +3076,7 @@
       <c r="D48" s="5">
         <v>0.98380999999999996</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="43" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="11"/>
@@ -3111,7 +3096,7 @@
       <c r="D49" s="5">
         <v>0.98392000000000002</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3129,48 +3114,48 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="12.75">
-      <c r="A51" s="44" t="s">
+      <c r="A51" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
     </row>
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="5"/>
@@ -3183,140 +3168,140 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="12.75">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
     </row>
     <row r="61" spans="1:8" ht="12.75">
-      <c r="A61" s="42" t="s">
+      <c r="A61" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
     </row>
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:8" ht="12.75">
-      <c r="A66" s="42" t="s">
+      <c r="A66" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
@@ -3331,7 +3316,7 @@
       <c r="D71" s="5">
         <v>144.10599999999999</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3348,7 +3333,7 @@
       <c r="D72" s="5">
         <v>144.107</v>
       </c>
-      <c r="E72" s="43"/>
+      <c r="E72" s="44"/>
     </row>
     <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="5"/>
@@ -3363,48 +3348,48 @@
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" ht="12.75">
-      <c r="A74" s="44" t="s">
+      <c r="A74" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="44" t="s">
+      <c r="B74" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="5"/>
@@ -3417,140 +3402,140 @@
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" ht="12.75">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
     </row>
     <row r="84" spans="1:8" ht="12.75">
-      <c r="A84" s="42" t="s">
+      <c r="A84" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="42" t="s">
+      <c r="B84" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
     </row>
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:8" ht="12.75">
-      <c r="A89" s="42" t="s">
+      <c r="A89" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
@@ -3565,7 +3550,7 @@
       <c r="D94" s="5">
         <v>1.12765</v>
       </c>
-      <c r="E94" s="46" t="s">
+      <c r="E94" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3582,7 +3567,7 @@
       <c r="D95" s="5">
         <v>1.1276900000000001</v>
       </c>
-      <c r="E95" s="43"/>
+      <c r="E95" s="44"/>
     </row>
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="5"/>
@@ -3597,48 +3582,48 @@
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" ht="12.75">
-      <c r="A97" s="44" t="s">
+      <c r="A97" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="44" t="s">
+      <c r="B97" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A100" s="43"/>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
     </row>
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="5"/>
@@ -3651,140 +3636,140 @@
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" ht="12.75">
-      <c r="A102" s="42" t="s">
+      <c r="A102" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="44" t="s">
+      <c r="B102" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A103" s="43"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A104" s="43"/>
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
     </row>
     <row r="107" spans="1:8" ht="12.75">
-      <c r="A107" s="42" t="s">
+      <c r="A107" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A108" s="43"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A109" s="43"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A110" s="43"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="43"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
     </row>
     <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:8" ht="12.75">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="42" t="s">
+      <c r="B112" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
+      <c r="A113" s="44"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A114" s="43"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="43"/>
-      <c r="D114" s="43"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
+      <c r="A114" s="44"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A115" s="43"/>
-      <c r="B115" s="43"/>
-      <c r="C115" s="43"/>
-      <c r="D115" s="43"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
+      <c r="A115" s="44"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
@@ -3799,7 +3784,7 @@
       <c r="D117" s="5">
         <v>162.46799999999999</v>
       </c>
-      <c r="E117" s="46" t="s">
+      <c r="E117" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3816,7 +3801,7 @@
       <c r="D118" s="5">
         <v>162.47</v>
       </c>
-      <c r="E118" s="43"/>
+      <c r="E118" s="44"/>
     </row>
     <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="5"/>
@@ -3831,48 +3816,48 @@
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" ht="12.75">
-      <c r="A120" s="44" t="s">
+      <c r="A120" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="44" t="s">
+      <c r="B120" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="43"/>
-      <c r="D120" s="43"/>
-      <c r="E120" s="43"/>
-      <c r="F120" s="43"/>
-      <c r="G120" s="43"/>
-      <c r="H120" s="43"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A122" s="43"/>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
+      <c r="A122" s="44"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A123" s="43"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
     </row>
     <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="5"/>
@@ -3885,140 +3870,140 @@
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" ht="12.75">
-      <c r="A125" s="42" t="s">
+      <c r="A125" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="44" t="s">
+      <c r="B125" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="43"/>
-      <c r="D125" s="43"/>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="43"/>
-      <c r="E126" s="43"/>
-      <c r="F126" s="43"/>
-      <c r="G126" s="43"/>
-      <c r="H126" s="43"/>
+      <c r="A126" s="44"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43"/>
-      <c r="G127" s="43"/>
-      <c r="H127" s="43"/>
+      <c r="A127" s="44"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
     </row>
     <row r="130" spans="1:8" ht="12.75">
-      <c r="A130" s="42" t="s">
+      <c r="A130" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B130" s="42" t="s">
+      <c r="B130" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="43"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="43"/>
-      <c r="H130" s="43"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A131" s="43"/>
-      <c r="B131" s="43"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="43"/>
-      <c r="F131" s="43"/>
-      <c r="G131" s="43"/>
-      <c r="H131" s="43"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A132" s="43"/>
-      <c r="B132" s="43"/>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="43"/>
-      <c r="F132" s="43"/>
-      <c r="G132" s="43"/>
-      <c r="H132" s="43"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="44"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="44"/>
+      <c r="F132" s="44"/>
+      <c r="G132" s="44"/>
+      <c r="H132" s="44"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A133" s="43"/>
-      <c r="B133" s="43"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="43"/>
-      <c r="G133" s="43"/>
-      <c r="H133" s="43"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
     </row>
     <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
     </row>
     <row r="135" spans="1:8" ht="12.75">
-      <c r="A135" s="42" t="s">
+      <c r="A135" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="42" t="s">
+      <c r="B135" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C135" s="43"/>
-      <c r="D135" s="43"/>
-      <c r="E135" s="43"/>
-      <c r="F135" s="43"/>
-      <c r="G135" s="43"/>
-      <c r="H135" s="43"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A136" s="43"/>
-      <c r="B136" s="43"/>
-      <c r="C136" s="43"/>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43"/>
-      <c r="H136" s="43"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A138" s="43"/>
-      <c r="B138" s="43"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="43"/>
-      <c r="E138" s="43"/>
-      <c r="F138" s="43"/>
-      <c r="G138" s="43"/>
-      <c r="H138" s="43"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
@@ -4033,7 +4018,7 @@
       <c r="D140" s="5">
         <v>0.98468999999999995</v>
       </c>
-      <c r="E140" s="46" t="s">
+      <c r="E140" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4050,7 +4035,7 @@
       <c r="D141" s="5">
         <v>0.98470000000000002</v>
       </c>
-      <c r="E141" s="43"/>
+      <c r="E141" s="44"/>
     </row>
     <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="5"/>
@@ -4065,48 +4050,48 @@
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" ht="12.75">
-      <c r="A143" s="44" t="s">
+      <c r="A143" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="44" t="s">
+      <c r="B143" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43"/>
-      <c r="E143" s="43"/>
-      <c r="F143" s="43"/>
-      <c r="G143" s="43"/>
-      <c r="H143" s="43"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="44"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A144" s="43"/>
-      <c r="B144" s="43"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="43"/>
-      <c r="E144" s="43"/>
-      <c r="F144" s="43"/>
-      <c r="G144" s="43"/>
-      <c r="H144" s="43"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="43"/>
-      <c r="E145" s="43"/>
-      <c r="F145" s="43"/>
-      <c r="G145" s="43"/>
-      <c r="H145" s="43"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A146" s="43"/>
-      <c r="B146" s="43"/>
-      <c r="C146" s="43"/>
-      <c r="D146" s="43"/>
-      <c r="E146" s="43"/>
-      <c r="F146" s="43"/>
-      <c r="G146" s="43"/>
-      <c r="H146" s="43"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
     </row>
     <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="5"/>
@@ -4119,140 +4104,140 @@
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" ht="12.75">
-      <c r="A148" s="42" t="s">
+      <c r="A148" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="44" t="s">
+      <c r="B148" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="43"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="43"/>
-      <c r="F148" s="43"/>
-      <c r="G148" s="43"/>
-      <c r="H148" s="43"/>
+      <c r="C148" s="44"/>
+      <c r="D148" s="44"/>
+      <c r="E148" s="44"/>
+      <c r="F148" s="44"/>
+      <c r="G148" s="44"/>
+      <c r="H148" s="44"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A149" s="43"/>
-      <c r="B149" s="43"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="43"/>
-      <c r="E149" s="43"/>
-      <c r="F149" s="43"/>
-      <c r="G149" s="43"/>
-      <c r="H149" s="43"/>
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="44"/>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="44"/>
+      <c r="G149" s="44"/>
+      <c r="H149" s="44"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A150" s="43"/>
-      <c r="B150" s="43"/>
-      <c r="C150" s="43"/>
-      <c r="D150" s="43"/>
-      <c r="E150" s="43"/>
-      <c r="F150" s="43"/>
-      <c r="G150" s="43"/>
-      <c r="H150" s="43"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="44"/>
+      <c r="D150" s="44"/>
+      <c r="E150" s="44"/>
+      <c r="F150" s="44"/>
+      <c r="G150" s="44"/>
+      <c r="H150" s="44"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A151" s="43"/>
-      <c r="B151" s="43"/>
-      <c r="C151" s="43"/>
-      <c r="D151" s="43"/>
-      <c r="E151" s="43"/>
-      <c r="F151" s="43"/>
-      <c r="G151" s="43"/>
-      <c r="H151" s="43"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="44"/>
+      <c r="F151" s="44"/>
+      <c r="G151" s="44"/>
+      <c r="H151" s="44"/>
     </row>
     <row r="153" spans="1:8" ht="12.75">
-      <c r="A153" s="42" t="s">
+      <c r="A153" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B153" s="42" t="s">
+      <c r="B153" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
+      <c r="C153" s="44"/>
+      <c r="D153" s="44"/>
+      <c r="E153" s="44"/>
+      <c r="F153" s="44"/>
+      <c r="G153" s="44"/>
+      <c r="H153" s="44"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A154" s="43"/>
-      <c r="B154" s="43"/>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
-      <c r="E154" s="43"/>
-      <c r="F154" s="43"/>
-      <c r="G154" s="43"/>
-      <c r="H154" s="43"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="44"/>
+      <c r="D154" s="44"/>
+      <c r="E154" s="44"/>
+      <c r="F154" s="44"/>
+      <c r="G154" s="44"/>
+      <c r="H154" s="44"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A155" s="43"/>
-      <c r="B155" s="43"/>
-      <c r="C155" s="43"/>
-      <c r="D155" s="43"/>
-      <c r="E155" s="43"/>
-      <c r="F155" s="43"/>
-      <c r="G155" s="43"/>
-      <c r="H155" s="43"/>
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="44"/>
+      <c r="D155" s="44"/>
+      <c r="E155" s="44"/>
+      <c r="F155" s="44"/>
+      <c r="G155" s="44"/>
+      <c r="H155" s="44"/>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A156" s="43"/>
-      <c r="B156" s="43"/>
-      <c r="C156" s="43"/>
-      <c r="D156" s="43"/>
-      <c r="E156" s="43"/>
-      <c r="F156" s="43"/>
-      <c r="G156" s="43"/>
-      <c r="H156" s="43"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="44"/>
+      <c r="D156" s="44"/>
+      <c r="E156" s="44"/>
+      <c r="F156" s="44"/>
+      <c r="G156" s="44"/>
+      <c r="H156" s="44"/>
     </row>
     <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
     </row>
     <row r="158" spans="1:8" ht="12.75">
-      <c r="A158" s="42" t="s">
+      <c r="A158" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="42" t="s">
+      <c r="B158" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="43"/>
-      <c r="D158" s="43"/>
-      <c r="E158" s="43"/>
-      <c r="F158" s="43"/>
-      <c r="G158" s="43"/>
-      <c r="H158" s="43"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="44"/>
+      <c r="H158" s="44"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A159" s="43"/>
-      <c r="B159" s="43"/>
-      <c r="C159" s="43"/>
-      <c r="D159" s="43"/>
-      <c r="E159" s="43"/>
-      <c r="F159" s="43"/>
-      <c r="G159" s="43"/>
-      <c r="H159" s="43"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="44"/>
+      <c r="D159" s="44"/>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44"/>
+      <c r="G159" s="44"/>
+      <c r="H159" s="44"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A160" s="43"/>
-      <c r="B160" s="43"/>
-      <c r="C160" s="43"/>
-      <c r="D160" s="43"/>
-      <c r="E160" s="43"/>
-      <c r="F160" s="43"/>
-      <c r="G160" s="43"/>
-      <c r="H160" s="43"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="44"/>
+      <c r="D160" s="44"/>
+      <c r="E160" s="44"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="44"/>
+      <c r="H160" s="44"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="43"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="44"/>
+      <c r="D161" s="44"/>
+      <c r="E161" s="44"/>
+      <c r="F161" s="44"/>
+      <c r="G161" s="44"/>
+      <c r="H161" s="44"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
@@ -4267,7 +4252,7 @@
       <c r="D163" s="5">
         <v>0.97848000000000002</v>
       </c>
-      <c r="E163" s="46" t="s">
+      <c r="E163" s="45" t="s">
         <v>25</v>
       </c>
       <c r="F163" s="12"/>
@@ -4285,7 +4270,7 @@
       <c r="D164" s="5">
         <v>0.97843000000000002</v>
       </c>
-      <c r="E164" s="43"/>
+      <c r="E164" s="44"/>
     </row>
     <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="5"/>
@@ -4300,48 +4285,48 @@
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" ht="12.75">
-      <c r="A166" s="44" t="s">
+      <c r="A166" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B166" s="44" t="s">
+      <c r="B166" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="43"/>
-      <c r="D166" s="43"/>
-      <c r="E166" s="43"/>
-      <c r="F166" s="43"/>
-      <c r="G166" s="43"/>
-      <c r="H166" s="43"/>
+      <c r="C166" s="44"/>
+      <c r="D166" s="44"/>
+      <c r="E166" s="44"/>
+      <c r="F166" s="44"/>
+      <c r="G166" s="44"/>
+      <c r="H166" s="44"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A167" s="43"/>
-      <c r="B167" s="43"/>
-      <c r="C167" s="43"/>
-      <c r="D167" s="43"/>
-      <c r="E167" s="43"/>
-      <c r="F167" s="43"/>
-      <c r="G167" s="43"/>
-      <c r="H167" s="43"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="44"/>
+      <c r="D167" s="44"/>
+      <c r="E167" s="44"/>
+      <c r="F167" s="44"/>
+      <c r="G167" s="44"/>
+      <c r="H167" s="44"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A168" s="43"/>
-      <c r="B168" s="43"/>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
-      <c r="E168" s="43"/>
-      <c r="F168" s="43"/>
-      <c r="G168" s="43"/>
-      <c r="H168" s="43"/>
+      <c r="A168" s="44"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="44"/>
+      <c r="D168" s="44"/>
+      <c r="E168" s="44"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="44"/>
+      <c r="H168" s="44"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
+      <c r="A169" s="44"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="44"/>
+      <c r="E169" s="44"/>
+      <c r="F169" s="44"/>
+      <c r="G169" s="44"/>
+      <c r="H169" s="44"/>
     </row>
     <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="5"/>
@@ -4354,140 +4339,140 @@
       <c r="H170" s="5"/>
     </row>
     <row r="171" spans="1:8" ht="12.75">
-      <c r="A171" s="42" t="s">
+      <c r="A171" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="44" t="s">
+      <c r="B171" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C171" s="43"/>
-      <c r="D171" s="43"/>
-      <c r="E171" s="43"/>
-      <c r="F171" s="43"/>
-      <c r="G171" s="43"/>
-      <c r="H171" s="43"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="44"/>
+      <c r="E171" s="44"/>
+      <c r="F171" s="44"/>
+      <c r="G171" s="44"/>
+      <c r="H171" s="44"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A172" s="43"/>
-      <c r="B172" s="43"/>
-      <c r="C172" s="43"/>
-      <c r="D172" s="43"/>
-      <c r="E172" s="43"/>
-      <c r="F172" s="43"/>
-      <c r="G172" s="43"/>
-      <c r="H172" s="43"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="44"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="44"/>
+      <c r="F172" s="44"/>
+      <c r="G172" s="44"/>
+      <c r="H172" s="44"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A173" s="43"/>
-      <c r="B173" s="43"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="43"/>
-      <c r="E173" s="43"/>
-      <c r="F173" s="43"/>
-      <c r="G173" s="43"/>
-      <c r="H173" s="43"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
+      <c r="C173" s="44"/>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="44"/>
+      <c r="G173" s="44"/>
+      <c r="H173" s="44"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A174" s="43"/>
-      <c r="B174" s="43"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="43"/>
-      <c r="F174" s="43"/>
-      <c r="G174" s="43"/>
-      <c r="H174" s="43"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="44"/>
+      <c r="C174" s="44"/>
+      <c r="D174" s="44"/>
+      <c r="E174" s="44"/>
+      <c r="F174" s="44"/>
+      <c r="G174" s="44"/>
+      <c r="H174" s="44"/>
     </row>
     <row r="176" spans="1:8" ht="12.75">
-      <c r="A176" s="42" t="s">
+      <c r="A176" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B176" s="42" t="s">
+      <c r="B176" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="43"/>
-      <c r="D176" s="43"/>
-      <c r="E176" s="43"/>
-      <c r="F176" s="43"/>
-      <c r="G176" s="43"/>
-      <c r="H176" s="43"/>
+      <c r="C176" s="44"/>
+      <c r="D176" s="44"/>
+      <c r="E176" s="44"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="44"/>
+      <c r="H176" s="44"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A177" s="43"/>
-      <c r="B177" s="43"/>
-      <c r="C177" s="43"/>
-      <c r="D177" s="43"/>
-      <c r="E177" s="43"/>
-      <c r="F177" s="43"/>
-      <c r="G177" s="43"/>
-      <c r="H177" s="43"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="44"/>
+      <c r="C177" s="44"/>
+      <c r="D177" s="44"/>
+      <c r="E177" s="44"/>
+      <c r="F177" s="44"/>
+      <c r="G177" s="44"/>
+      <c r="H177" s="44"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A178" s="43"/>
-      <c r="B178" s="43"/>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
-      <c r="E178" s="43"/>
-      <c r="F178" s="43"/>
-      <c r="G178" s="43"/>
-      <c r="H178" s="43"/>
+      <c r="A178" s="44"/>
+      <c r="B178" s="44"/>
+      <c r="C178" s="44"/>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="44"/>
+      <c r="H178" s="44"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A179" s="43"/>
-      <c r="B179" s="43"/>
-      <c r="C179" s="43"/>
-      <c r="D179" s="43"/>
-      <c r="E179" s="43"/>
-      <c r="F179" s="43"/>
-      <c r="G179" s="43"/>
-      <c r="H179" s="43"/>
+      <c r="A179" s="44"/>
+      <c r="B179" s="44"/>
+      <c r="C179" s="44"/>
+      <c r="D179" s="44"/>
+      <c r="E179" s="44"/>
+      <c r="F179" s="44"/>
+      <c r="G179" s="44"/>
+      <c r="H179" s="44"/>
     </row>
     <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
     </row>
     <row r="181" spans="1:8" ht="12.75">
-      <c r="A181" s="42" t="s">
+      <c r="A181" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B181" s="42" t="s">
+      <c r="B181" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C181" s="43"/>
-      <c r="D181" s="43"/>
-      <c r="E181" s="43"/>
-      <c r="F181" s="43"/>
-      <c r="G181" s="43"/>
-      <c r="H181" s="43"/>
+      <c r="C181" s="44"/>
+      <c r="D181" s="44"/>
+      <c r="E181" s="44"/>
+      <c r="F181" s="44"/>
+      <c r="G181" s="44"/>
+      <c r="H181" s="44"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A182" s="43"/>
-      <c r="B182" s="43"/>
-      <c r="C182" s="43"/>
-      <c r="D182" s="43"/>
-      <c r="E182" s="43"/>
-      <c r="F182" s="43"/>
-      <c r="G182" s="43"/>
-      <c r="H182" s="43"/>
+      <c r="A182" s="44"/>
+      <c r="B182" s="44"/>
+      <c r="C182" s="44"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="44"/>
+      <c r="F182" s="44"/>
+      <c r="G182" s="44"/>
+      <c r="H182" s="44"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A183" s="43"/>
-      <c r="B183" s="43"/>
-      <c r="C183" s="43"/>
-      <c r="D183" s="43"/>
-      <c r="E183" s="43"/>
-      <c r="F183" s="43"/>
-      <c r="G183" s="43"/>
-      <c r="H183" s="43"/>
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
+      <c r="C183" s="44"/>
+      <c r="D183" s="44"/>
+      <c r="E183" s="44"/>
+      <c r="F183" s="44"/>
+      <c r="G183" s="44"/>
+      <c r="H183" s="44"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A184" s="43"/>
-      <c r="B184" s="43"/>
-      <c r="C184" s="43"/>
-      <c r="D184" s="43"/>
-      <c r="E184" s="43"/>
-      <c r="F184" s="43"/>
-      <c r="G184" s="43"/>
-      <c r="H184" s="43"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="44"/>
+      <c r="C184" s="44"/>
+      <c r="D184" s="44"/>
+      <c r="E184" s="44"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="44"/>
+      <c r="H184" s="44"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
@@ -4502,7 +4487,7 @@
       <c r="D186" s="5">
         <v>160.19399999999999</v>
       </c>
-      <c r="E186" s="46" t="s">
+      <c r="E186" s="45" t="s">
         <v>25</v>
       </c>
       <c r="F186" s="9"/>
@@ -4520,7 +4505,7 @@
       <c r="D187" s="5">
         <v>160.19200000000001</v>
       </c>
-      <c r="E187" s="43"/>
+      <c r="E187" s="44"/>
     </row>
     <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="5"/>
@@ -4535,48 +4520,48 @@
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="12.75">
-      <c r="A189" s="44" t="s">
+      <c r="A189" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B189" s="44" t="s">
+      <c r="B189" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C189" s="43"/>
-      <c r="D189" s="43"/>
-      <c r="E189" s="43"/>
-      <c r="F189" s="43"/>
-      <c r="G189" s="43"/>
-      <c r="H189" s="43"/>
+      <c r="C189" s="44"/>
+      <c r="D189" s="44"/>
+      <c r="E189" s="44"/>
+      <c r="F189" s="44"/>
+      <c r="G189" s="44"/>
+      <c r="H189" s="44"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A190" s="43"/>
-      <c r="B190" s="43"/>
-      <c r="C190" s="43"/>
-      <c r="D190" s="43"/>
-      <c r="E190" s="43"/>
-      <c r="F190" s="43"/>
-      <c r="G190" s="43"/>
-      <c r="H190" s="43"/>
+      <c r="A190" s="44"/>
+      <c r="B190" s="44"/>
+      <c r="C190" s="44"/>
+      <c r="D190" s="44"/>
+      <c r="E190" s="44"/>
+      <c r="F190" s="44"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="44"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A191" s="43"/>
-      <c r="B191" s="43"/>
-      <c r="C191" s="43"/>
-      <c r="D191" s="43"/>
-      <c r="E191" s="43"/>
-      <c r="F191" s="43"/>
-      <c r="G191" s="43"/>
-      <c r="H191" s="43"/>
+      <c r="A191" s="44"/>
+      <c r="B191" s="44"/>
+      <c r="C191" s="44"/>
+      <c r="D191" s="44"/>
+      <c r="E191" s="44"/>
+      <c r="F191" s="44"/>
+      <c r="G191" s="44"/>
+      <c r="H191" s="44"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A192" s="43"/>
-      <c r="B192" s="43"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="43"/>
-      <c r="E192" s="43"/>
-      <c r="F192" s="43"/>
-      <c r="G192" s="43"/>
-      <c r="H192" s="43"/>
+      <c r="A192" s="44"/>
+      <c r="B192" s="44"/>
+      <c r="C192" s="44"/>
+      <c r="D192" s="44"/>
+      <c r="E192" s="44"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="44"/>
+      <c r="H192" s="44"/>
     </row>
     <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="5"/>
@@ -4589,140 +4574,140 @@
       <c r="H193" s="5"/>
     </row>
     <row r="194" spans="1:8" ht="12.75">
-      <c r="A194" s="42" t="s">
+      <c r="A194" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B194" s="44" t="s">
+      <c r="B194" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C194" s="43"/>
-      <c r="D194" s="43"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="43"/>
-      <c r="G194" s="43"/>
-      <c r="H194" s="43"/>
+      <c r="C194" s="44"/>
+      <c r="D194" s="44"/>
+      <c r="E194" s="44"/>
+      <c r="F194" s="44"/>
+      <c r="G194" s="44"/>
+      <c r="H194" s="44"/>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A195" s="43"/>
-      <c r="B195" s="43"/>
-      <c r="C195" s="43"/>
-      <c r="D195" s="43"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="43"/>
-      <c r="G195" s="43"/>
-      <c r="H195" s="43"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="44"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="44"/>
+      <c r="E195" s="44"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="44"/>
+      <c r="H195" s="44"/>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A196" s="43"/>
-      <c r="B196" s="43"/>
-      <c r="C196" s="43"/>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="43"/>
-      <c r="G196" s="43"/>
-      <c r="H196" s="43"/>
+      <c r="A196" s="44"/>
+      <c r="B196" s="44"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="44"/>
+      <c r="E196" s="44"/>
+      <c r="F196" s="44"/>
+      <c r="G196" s="44"/>
+      <c r="H196" s="44"/>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A197" s="43"/>
-      <c r="B197" s="43"/>
-      <c r="C197" s="43"/>
-      <c r="D197" s="43"/>
-      <c r="E197" s="43"/>
-      <c r="F197" s="43"/>
-      <c r="G197" s="43"/>
-      <c r="H197" s="43"/>
+      <c r="A197" s="44"/>
+      <c r="B197" s="44"/>
+      <c r="C197" s="44"/>
+      <c r="D197" s="44"/>
+      <c r="E197" s="44"/>
+      <c r="F197" s="44"/>
+      <c r="G197" s="44"/>
+      <c r="H197" s="44"/>
     </row>
     <row r="199" spans="1:8" ht="12.75">
-      <c r="A199" s="42" t="s">
+      <c r="A199" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B199" s="42" t="s">
+      <c r="B199" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C199" s="43"/>
-      <c r="D199" s="43"/>
-      <c r="E199" s="43"/>
-      <c r="F199" s="43"/>
-      <c r="G199" s="43"/>
-      <c r="H199" s="43"/>
+      <c r="C199" s="44"/>
+      <c r="D199" s="44"/>
+      <c r="E199" s="44"/>
+      <c r="F199" s="44"/>
+      <c r="G199" s="44"/>
+      <c r="H199" s="44"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A200" s="43"/>
-      <c r="B200" s="43"/>
-      <c r="C200" s="43"/>
-      <c r="D200" s="43"/>
-      <c r="E200" s="43"/>
-      <c r="F200" s="43"/>
-      <c r="G200" s="43"/>
-      <c r="H200" s="43"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="44"/>
+      <c r="C200" s="44"/>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44"/>
+      <c r="H200" s="44"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A201" s="43"/>
-      <c r="B201" s="43"/>
-      <c r="C201" s="43"/>
-      <c r="D201" s="43"/>
-      <c r="E201" s="43"/>
-      <c r="F201" s="43"/>
-      <c r="G201" s="43"/>
-      <c r="H201" s="43"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="44"/>
+      <c r="C201" s="44"/>
+      <c r="D201" s="44"/>
+      <c r="E201" s="44"/>
+      <c r="F201" s="44"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="44"/>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A202" s="43"/>
-      <c r="B202" s="43"/>
-      <c r="C202" s="43"/>
-      <c r="D202" s="43"/>
-      <c r="E202" s="43"/>
-      <c r="F202" s="43"/>
-      <c r="G202" s="43"/>
-      <c r="H202" s="43"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="44"/>
+      <c r="C202" s="44"/>
+      <c r="D202" s="44"/>
+      <c r="E202" s="44"/>
+      <c r="F202" s="44"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="44"/>
     </row>
     <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
     </row>
     <row r="204" spans="1:8" ht="12.75">
-      <c r="A204" s="42" t="s">
+      <c r="A204" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B204" s="42" t="s">
+      <c r="B204" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C204" s="43"/>
-      <c r="D204" s="43"/>
-      <c r="E204" s="43"/>
-      <c r="F204" s="43"/>
-      <c r="G204" s="43"/>
-      <c r="H204" s="43"/>
+      <c r="C204" s="44"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="44"/>
+      <c r="F204" s="44"/>
+      <c r="G204" s="44"/>
+      <c r="H204" s="44"/>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A205" s="43"/>
-      <c r="B205" s="43"/>
-      <c r="C205" s="43"/>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="43"/>
-      <c r="H205" s="43"/>
+      <c r="A205" s="44"/>
+      <c r="B205" s="44"/>
+      <c r="C205" s="44"/>
+      <c r="D205" s="44"/>
+      <c r="E205" s="44"/>
+      <c r="F205" s="44"/>
+      <c r="G205" s="44"/>
+      <c r="H205" s="44"/>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A206" s="43"/>
-      <c r="B206" s="43"/>
-      <c r="C206" s="43"/>
-      <c r="D206" s="43"/>
-      <c r="E206" s="43"/>
-      <c r="F206" s="43"/>
-      <c r="G206" s="43"/>
-      <c r="H206" s="43"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="44"/>
+      <c r="C206" s="44"/>
+      <c r="D206" s="44"/>
+      <c r="E206" s="44"/>
+      <c r="F206" s="44"/>
+      <c r="G206" s="44"/>
+      <c r="H206" s="44"/>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A207" s="43"/>
-      <c r="B207" s="43"/>
-      <c r="C207" s="43"/>
-      <c r="D207" s="43"/>
-      <c r="E207" s="43"/>
-      <c r="F207" s="43"/>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="44"/>
+      <c r="D207" s="44"/>
+      <c r="E207" s="44"/>
+      <c r="F207" s="44"/>
+      <c r="G207" s="44"/>
+      <c r="H207" s="44"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
@@ -4737,7 +4722,7 @@
       <c r="D209" s="5">
         <v>0.97775999999999996</v>
       </c>
-      <c r="E209" s="46" t="s">
+      <c r="E209" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4754,7 +4739,7 @@
       <c r="D210" s="5">
         <v>0.97865999999999997</v>
       </c>
-      <c r="E210" s="43"/>
+      <c r="E210" s="44"/>
     </row>
     <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="5"/>
@@ -4769,48 +4754,48 @@
       <c r="H211" s="5"/>
     </row>
     <row r="212" spans="1:8" ht="12.75">
-      <c r="A212" s="44" t="s">
+      <c r="A212" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B212" s="44" t="s">
+      <c r="B212" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C212" s="43"/>
-      <c r="D212" s="43"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="43"/>
-      <c r="H212" s="43"/>
+      <c r="C212" s="44"/>
+      <c r="D212" s="44"/>
+      <c r="E212" s="44"/>
+      <c r="F212" s="44"/>
+      <c r="G212" s="44"/>
+      <c r="H212" s="44"/>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A213" s="43"/>
-      <c r="B213" s="43"/>
-      <c r="C213" s="43"/>
-      <c r="D213" s="43"/>
-      <c r="E213" s="43"/>
-      <c r="F213" s="43"/>
-      <c r="G213" s="43"/>
-      <c r="H213" s="43"/>
+      <c r="A213" s="44"/>
+      <c r="B213" s="44"/>
+      <c r="C213" s="44"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="44"/>
+      <c r="F213" s="44"/>
+      <c r="G213" s="44"/>
+      <c r="H213" s="44"/>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A214" s="43"/>
-      <c r="B214" s="43"/>
-      <c r="C214" s="43"/>
-      <c r="D214" s="43"/>
-      <c r="E214" s="43"/>
-      <c r="F214" s="43"/>
-      <c r="G214" s="43"/>
-      <c r="H214" s="43"/>
+      <c r="A214" s="44"/>
+      <c r="B214" s="44"/>
+      <c r="C214" s="44"/>
+      <c r="D214" s="44"/>
+      <c r="E214" s="44"/>
+      <c r="F214" s="44"/>
+      <c r="G214" s="44"/>
+      <c r="H214" s="44"/>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A215" s="43"/>
-      <c r="B215" s="43"/>
-      <c r="C215" s="43"/>
-      <c r="D215" s="43"/>
-      <c r="E215" s="43"/>
-      <c r="F215" s="43"/>
-      <c r="G215" s="43"/>
-      <c r="H215" s="43"/>
+      <c r="A215" s="44"/>
+      <c r="B215" s="44"/>
+      <c r="C215" s="44"/>
+      <c r="D215" s="44"/>
+      <c r="E215" s="44"/>
+      <c r="F215" s="44"/>
+      <c r="G215" s="44"/>
+      <c r="H215" s="44"/>
     </row>
     <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="5"/>
@@ -4823,140 +4808,140 @@
       <c r="H216" s="5"/>
     </row>
     <row r="217" spans="1:8" ht="12.75">
-      <c r="A217" s="42" t="s">
+      <c r="A217" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B217" s="44" t="s">
+      <c r="B217" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C217" s="43"/>
-      <c r="D217" s="43"/>
-      <c r="E217" s="43"/>
-      <c r="F217" s="43"/>
-      <c r="G217" s="43"/>
-      <c r="H217" s="43"/>
+      <c r="C217" s="44"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="44"/>
+      <c r="F217" s="44"/>
+      <c r="G217" s="44"/>
+      <c r="H217" s="44"/>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A218" s="43"/>
-      <c r="B218" s="43"/>
-      <c r="C218" s="43"/>
-      <c r="D218" s="43"/>
-      <c r="E218" s="43"/>
-      <c r="F218" s="43"/>
-      <c r="G218" s="43"/>
-      <c r="H218" s="43"/>
+      <c r="A218" s="44"/>
+      <c r="B218" s="44"/>
+      <c r="C218" s="44"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="44"/>
+      <c r="F218" s="44"/>
+      <c r="G218" s="44"/>
+      <c r="H218" s="44"/>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A219" s="43"/>
-      <c r="B219" s="43"/>
-      <c r="C219" s="43"/>
-      <c r="D219" s="43"/>
-      <c r="E219" s="43"/>
-      <c r="F219" s="43"/>
-      <c r="G219" s="43"/>
-      <c r="H219" s="43"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="44"/>
+      <c r="C219" s="44"/>
+      <c r="D219" s="44"/>
+      <c r="E219" s="44"/>
+      <c r="F219" s="44"/>
+      <c r="G219" s="44"/>
+      <c r="H219" s="44"/>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A220" s="43"/>
-      <c r="B220" s="43"/>
-      <c r="C220" s="43"/>
-      <c r="D220" s="43"/>
-      <c r="E220" s="43"/>
-      <c r="F220" s="43"/>
-      <c r="G220" s="43"/>
-      <c r="H220" s="43"/>
+      <c r="A220" s="44"/>
+      <c r="B220" s="44"/>
+      <c r="C220" s="44"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="44"/>
+      <c r="F220" s="44"/>
+      <c r="G220" s="44"/>
+      <c r="H220" s="44"/>
     </row>
     <row r="222" spans="1:8" ht="12.75">
-      <c r="A222" s="42" t="s">
+      <c r="A222" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B222" s="42" t="s">
+      <c r="B222" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C222" s="43"/>
-      <c r="D222" s="43"/>
-      <c r="E222" s="43"/>
-      <c r="F222" s="43"/>
-      <c r="G222" s="43"/>
-      <c r="H222" s="43"/>
+      <c r="C222" s="44"/>
+      <c r="D222" s="44"/>
+      <c r="E222" s="44"/>
+      <c r="F222" s="44"/>
+      <c r="G222" s="44"/>
+      <c r="H222" s="44"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A223" s="43"/>
-      <c r="B223" s="43"/>
-      <c r="C223" s="43"/>
-      <c r="D223" s="43"/>
-      <c r="E223" s="43"/>
-      <c r="F223" s="43"/>
-      <c r="G223" s="43"/>
-      <c r="H223" s="43"/>
+      <c r="A223" s="44"/>
+      <c r="B223" s="44"/>
+      <c r="C223" s="44"/>
+      <c r="D223" s="44"/>
+      <c r="E223" s="44"/>
+      <c r="F223" s="44"/>
+      <c r="G223" s="44"/>
+      <c r="H223" s="44"/>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A224" s="43"/>
-      <c r="B224" s="43"/>
-      <c r="C224" s="43"/>
-      <c r="D224" s="43"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="43"/>
-      <c r="H224" s="43"/>
+      <c r="A224" s="44"/>
+      <c r="B224" s="44"/>
+      <c r="C224" s="44"/>
+      <c r="D224" s="44"/>
+      <c r="E224" s="44"/>
+      <c r="F224" s="44"/>
+      <c r="G224" s="44"/>
+      <c r="H224" s="44"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A225" s="43"/>
-      <c r="B225" s="43"/>
-      <c r="C225" s="43"/>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="43"/>
-      <c r="H225" s="43"/>
+      <c r="A225" s="44"/>
+      <c r="B225" s="44"/>
+      <c r="C225" s="44"/>
+      <c r="D225" s="44"/>
+      <c r="E225" s="44"/>
+      <c r="F225" s="44"/>
+      <c r="G225" s="44"/>
+      <c r="H225" s="44"/>
     </row>
     <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
     </row>
     <row r="227" spans="1:8" ht="12.75">
-      <c r="A227" s="42" t="s">
+      <c r="A227" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B227" s="42" t="s">
+      <c r="B227" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C227" s="43"/>
-      <c r="D227" s="43"/>
-      <c r="E227" s="43"/>
-      <c r="F227" s="43"/>
-      <c r="G227" s="43"/>
-      <c r="H227" s="43"/>
+      <c r="C227" s="44"/>
+      <c r="D227" s="44"/>
+      <c r="E227" s="44"/>
+      <c r="F227" s="44"/>
+      <c r="G227" s="44"/>
+      <c r="H227" s="44"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A228" s="43"/>
-      <c r="B228" s="43"/>
-      <c r="C228" s="43"/>
-      <c r="D228" s="43"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="43"/>
-      <c r="G228" s="43"/>
-      <c r="H228" s="43"/>
+      <c r="A228" s="44"/>
+      <c r="B228" s="44"/>
+      <c r="C228" s="44"/>
+      <c r="D228" s="44"/>
+      <c r="E228" s="44"/>
+      <c r="F228" s="44"/>
+      <c r="G228" s="44"/>
+      <c r="H228" s="44"/>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A229" s="43"/>
-      <c r="B229" s="43"/>
-      <c r="C229" s="43"/>
-      <c r="D229" s="43"/>
-      <c r="E229" s="43"/>
-      <c r="F229" s="43"/>
-      <c r="G229" s="43"/>
-      <c r="H229" s="43"/>
+      <c r="A229" s="44"/>
+      <c r="B229" s="44"/>
+      <c r="C229" s="44"/>
+      <c r="D229" s="44"/>
+      <c r="E229" s="44"/>
+      <c r="F229" s="44"/>
+      <c r="G229" s="44"/>
+      <c r="H229" s="44"/>
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A230" s="43"/>
-      <c r="B230" s="43"/>
-      <c r="C230" s="43"/>
-      <c r="D230" s="43"/>
-      <c r="E230" s="43"/>
-      <c r="F230" s="43"/>
-      <c r="G230" s="43"/>
-      <c r="H230" s="43"/>
+      <c r="A230" s="44"/>
+      <c r="B230" s="44"/>
+      <c r="C230" s="44"/>
+      <c r="D230" s="44"/>
+      <c r="E230" s="44"/>
+      <c r="F230" s="44"/>
+      <c r="G230" s="44"/>
+      <c r="H230" s="44"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
@@ -4971,7 +4956,7 @@
       <c r="D232" s="5">
         <v>0.97797000000000001</v>
       </c>
-      <c r="E232" s="46" t="s">
+      <c r="E232" s="45" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="3" t="s">
@@ -4991,7 +4976,7 @@
       <c r="D233" s="5">
         <v>0.97928999999999999</v>
       </c>
-      <c r="E233" s="43"/>
+      <c r="E233" s="44"/>
     </row>
     <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="5"/>
@@ -5006,48 +4991,48 @@
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:8" ht="12.75">
-      <c r="A235" s="44" t="s">
+      <c r="A235" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B235" s="44" t="s">
+      <c r="B235" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="C235" s="43"/>
-      <c r="D235" s="43"/>
-      <c r="E235" s="43"/>
-      <c r="F235" s="43"/>
-      <c r="G235" s="43"/>
-      <c r="H235" s="43"/>
+      <c r="C235" s="44"/>
+      <c r="D235" s="44"/>
+      <c r="E235" s="44"/>
+      <c r="F235" s="44"/>
+      <c r="G235" s="44"/>
+      <c r="H235" s="44"/>
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A236" s="43"/>
-      <c r="B236" s="43"/>
-      <c r="C236" s="43"/>
-      <c r="D236" s="43"/>
-      <c r="E236" s="43"/>
-      <c r="F236" s="43"/>
-      <c r="G236" s="43"/>
-      <c r="H236" s="43"/>
+      <c r="A236" s="44"/>
+      <c r="B236" s="44"/>
+      <c r="C236" s="44"/>
+      <c r="D236" s="44"/>
+      <c r="E236" s="44"/>
+      <c r="F236" s="44"/>
+      <c r="G236" s="44"/>
+      <c r="H236" s="44"/>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A237" s="43"/>
-      <c r="B237" s="43"/>
-      <c r="C237" s="43"/>
-      <c r="D237" s="43"/>
-      <c r="E237" s="43"/>
-      <c r="F237" s="43"/>
-      <c r="G237" s="43"/>
-      <c r="H237" s="43"/>
+      <c r="A237" s="44"/>
+      <c r="B237" s="44"/>
+      <c r="C237" s="44"/>
+      <c r="D237" s="44"/>
+      <c r="E237" s="44"/>
+      <c r="F237" s="44"/>
+      <c r="G237" s="44"/>
+      <c r="H237" s="44"/>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A238" s="43"/>
-      <c r="B238" s="43"/>
-      <c r="C238" s="43"/>
-      <c r="D238" s="43"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="43"/>
-      <c r="G238" s="43"/>
-      <c r="H238" s="43"/>
+      <c r="A238" s="44"/>
+      <c r="B238" s="44"/>
+      <c r="C238" s="44"/>
+      <c r="D238" s="44"/>
+      <c r="E238" s="44"/>
+      <c r="F238" s="44"/>
+      <c r="G238" s="44"/>
+      <c r="H238" s="44"/>
     </row>
     <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="5"/>
@@ -5060,140 +5045,140 @@
       <c r="H239" s="5"/>
     </row>
     <row r="240" spans="1:8" ht="12.75">
-      <c r="A240" s="42" t="s">
+      <c r="A240" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B240" s="44" t="s">
+      <c r="B240" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C240" s="43"/>
-      <c r="D240" s="43"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="43"/>
-      <c r="G240" s="43"/>
-      <c r="H240" s="43"/>
+      <c r="C240" s="44"/>
+      <c r="D240" s="44"/>
+      <c r="E240" s="44"/>
+      <c r="F240" s="44"/>
+      <c r="G240" s="44"/>
+      <c r="H240" s="44"/>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A241" s="43"/>
-      <c r="B241" s="43"/>
-      <c r="C241" s="43"/>
-      <c r="D241" s="43"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="43"/>
-      <c r="G241" s="43"/>
-      <c r="H241" s="43"/>
+      <c r="A241" s="44"/>
+      <c r="B241" s="44"/>
+      <c r="C241" s="44"/>
+      <c r="D241" s="44"/>
+      <c r="E241" s="44"/>
+      <c r="F241" s="44"/>
+      <c r="G241" s="44"/>
+      <c r="H241" s="44"/>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A242" s="43"/>
-      <c r="B242" s="43"/>
-      <c r="C242" s="43"/>
-      <c r="D242" s="43"/>
-      <c r="E242" s="43"/>
-      <c r="F242" s="43"/>
-      <c r="G242" s="43"/>
-      <c r="H242" s="43"/>
+      <c r="A242" s="44"/>
+      <c r="B242" s="44"/>
+      <c r="C242" s="44"/>
+      <c r="D242" s="44"/>
+      <c r="E242" s="44"/>
+      <c r="F242" s="44"/>
+      <c r="G242" s="44"/>
+      <c r="H242" s="44"/>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A243" s="43"/>
-      <c r="B243" s="43"/>
-      <c r="C243" s="43"/>
-      <c r="D243" s="43"/>
-      <c r="E243" s="43"/>
-      <c r="F243" s="43"/>
-      <c r="G243" s="43"/>
-      <c r="H243" s="43"/>
+      <c r="A243" s="44"/>
+      <c r="B243" s="44"/>
+      <c r="C243" s="44"/>
+      <c r="D243" s="44"/>
+      <c r="E243" s="44"/>
+      <c r="F243" s="44"/>
+      <c r="G243" s="44"/>
+      <c r="H243" s="44"/>
     </row>
     <row r="245" spans="1:8" ht="12.75">
-      <c r="A245" s="42" t="s">
+      <c r="A245" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B245" s="42" t="s">
+      <c r="B245" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C245" s="43"/>
-      <c r="D245" s="43"/>
-      <c r="E245" s="43"/>
-      <c r="F245" s="43"/>
-      <c r="G245" s="43"/>
-      <c r="H245" s="43"/>
+      <c r="C245" s="44"/>
+      <c r="D245" s="44"/>
+      <c r="E245" s="44"/>
+      <c r="F245" s="44"/>
+      <c r="G245" s="44"/>
+      <c r="H245" s="44"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A246" s="43"/>
-      <c r="B246" s="43"/>
-      <c r="C246" s="43"/>
-      <c r="D246" s="43"/>
-      <c r="E246" s="43"/>
-      <c r="F246" s="43"/>
-      <c r="G246" s="43"/>
-      <c r="H246" s="43"/>
+      <c r="A246" s="44"/>
+      <c r="B246" s="44"/>
+      <c r="C246" s="44"/>
+      <c r="D246" s="44"/>
+      <c r="E246" s="44"/>
+      <c r="F246" s="44"/>
+      <c r="G246" s="44"/>
+      <c r="H246" s="44"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A247" s="43"/>
-      <c r="B247" s="43"/>
-      <c r="C247" s="43"/>
-      <c r="D247" s="43"/>
-      <c r="E247" s="43"/>
-      <c r="F247" s="43"/>
-      <c r="G247" s="43"/>
-      <c r="H247" s="43"/>
+      <c r="A247" s="44"/>
+      <c r="B247" s="44"/>
+      <c r="C247" s="44"/>
+      <c r="D247" s="44"/>
+      <c r="E247" s="44"/>
+      <c r="F247" s="44"/>
+      <c r="G247" s="44"/>
+      <c r="H247" s="44"/>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A248" s="43"/>
-      <c r="B248" s="43"/>
-      <c r="C248" s="43"/>
-      <c r="D248" s="43"/>
-      <c r="E248" s="43"/>
-      <c r="F248" s="43"/>
-      <c r="G248" s="43"/>
-      <c r="H248" s="43"/>
+      <c r="A248" s="44"/>
+      <c r="B248" s="44"/>
+      <c r="C248" s="44"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="44"/>
+      <c r="F248" s="44"/>
+      <c r="G248" s="44"/>
+      <c r="H248" s="44"/>
     </row>
     <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
     </row>
     <row r="250" spans="1:8" ht="12.75">
-      <c r="A250" s="42" t="s">
+      <c r="A250" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B250" s="42" t="s">
+      <c r="B250" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C250" s="43"/>
-      <c r="D250" s="43"/>
-      <c r="E250" s="43"/>
-      <c r="F250" s="43"/>
-      <c r="G250" s="43"/>
-      <c r="H250" s="43"/>
+      <c r="C250" s="44"/>
+      <c r="D250" s="44"/>
+      <c r="E250" s="44"/>
+      <c r="F250" s="44"/>
+      <c r="G250" s="44"/>
+      <c r="H250" s="44"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A251" s="43"/>
-      <c r="B251" s="43"/>
-      <c r="C251" s="43"/>
-      <c r="D251" s="43"/>
-      <c r="E251" s="43"/>
-      <c r="F251" s="43"/>
-      <c r="G251" s="43"/>
-      <c r="H251" s="43"/>
+      <c r="A251" s="44"/>
+      <c r="B251" s="44"/>
+      <c r="C251" s="44"/>
+      <c r="D251" s="44"/>
+      <c r="E251" s="44"/>
+      <c r="F251" s="44"/>
+      <c r="G251" s="44"/>
+      <c r="H251" s="44"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A252" s="43"/>
-      <c r="B252" s="43"/>
-      <c r="C252" s="43"/>
-      <c r="D252" s="43"/>
-      <c r="E252" s="43"/>
-      <c r="F252" s="43"/>
-      <c r="G252" s="43"/>
-      <c r="H252" s="43"/>
+      <c r="A252" s="44"/>
+      <c r="B252" s="44"/>
+      <c r="C252" s="44"/>
+      <c r="D252" s="44"/>
+      <c r="E252" s="44"/>
+      <c r="F252" s="44"/>
+      <c r="G252" s="44"/>
+      <c r="H252" s="44"/>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A253" s="43"/>
-      <c r="B253" s="43"/>
-      <c r="C253" s="43"/>
-      <c r="D253" s="43"/>
-      <c r="E253" s="43"/>
-      <c r="F253" s="43"/>
-      <c r="G253" s="43"/>
-      <c r="H253" s="43"/>
+      <c r="A253" s="44"/>
+      <c r="B253" s="44"/>
+      <c r="C253" s="44"/>
+      <c r="D253" s="44"/>
+      <c r="E253" s="44"/>
+      <c r="F253" s="44"/>
+      <c r="G253" s="44"/>
+      <c r="H253" s="44"/>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
@@ -5208,7 +5193,7 @@
       <c r="D255" s="5">
         <v>143.184</v>
       </c>
-      <c r="E255" s="46" t="s">
+      <c r="E255" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5225,7 +5210,7 @@
       <c r="D256" s="5">
         <v>143.18899999999999</v>
       </c>
-      <c r="E256" s="43"/>
+      <c r="E256" s="44"/>
     </row>
     <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="5"/>
@@ -5240,48 +5225,48 @@
       <c r="H257" s="5"/>
     </row>
     <row r="258" spans="1:8" ht="12.75">
-      <c r="A258" s="44" t="s">
+      <c r="A258" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B258" s="44" t="s">
+      <c r="B258" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C258" s="43"/>
-      <c r="D258" s="43"/>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
-      <c r="G258" s="43"/>
-      <c r="H258" s="43"/>
+      <c r="C258" s="44"/>
+      <c r="D258" s="44"/>
+      <c r="E258" s="44"/>
+      <c r="F258" s="44"/>
+      <c r="G258" s="44"/>
+      <c r="H258" s="44"/>
     </row>
     <row r="259" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A259" s="43"/>
-      <c r="B259" s="43"/>
-      <c r="C259" s="43"/>
-      <c r="D259" s="43"/>
-      <c r="E259" s="43"/>
-      <c r="F259" s="43"/>
-      <c r="G259" s="43"/>
-      <c r="H259" s="43"/>
+      <c r="A259" s="44"/>
+      <c r="B259" s="44"/>
+      <c r="C259" s="44"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="44"/>
+      <c r="F259" s="44"/>
+      <c r="G259" s="44"/>
+      <c r="H259" s="44"/>
     </row>
     <row r="260" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A260" s="43"/>
-      <c r="B260" s="43"/>
-      <c r="C260" s="43"/>
-      <c r="D260" s="43"/>
-      <c r="E260" s="43"/>
-      <c r="F260" s="43"/>
-      <c r="G260" s="43"/>
-      <c r="H260" s="43"/>
+      <c r="A260" s="44"/>
+      <c r="B260" s="44"/>
+      <c r="C260" s="44"/>
+      <c r="D260" s="44"/>
+      <c r="E260" s="44"/>
+      <c r="F260" s="44"/>
+      <c r="G260" s="44"/>
+      <c r="H260" s="44"/>
     </row>
     <row r="261" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A261" s="43"/>
-      <c r="B261" s="43"/>
-      <c r="C261" s="43"/>
-      <c r="D261" s="43"/>
-      <c r="E261" s="43"/>
-      <c r="F261" s="43"/>
-      <c r="G261" s="43"/>
-      <c r="H261" s="43"/>
+      <c r="A261" s="44"/>
+      <c r="B261" s="44"/>
+      <c r="C261" s="44"/>
+      <c r="D261" s="44"/>
+      <c r="E261" s="44"/>
+      <c r="F261" s="44"/>
+      <c r="G261" s="44"/>
+      <c r="H261" s="44"/>
     </row>
     <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="5"/>
@@ -5294,140 +5279,140 @@
       <c r="H262" s="5"/>
     </row>
     <row r="263" spans="1:8" ht="12.75">
-      <c r="A263" s="42" t="s">
+      <c r="A263" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B263" s="44" t="s">
+      <c r="B263" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C263" s="43"/>
-      <c r="D263" s="43"/>
-      <c r="E263" s="43"/>
-      <c r="F263" s="43"/>
-      <c r="G263" s="43"/>
-      <c r="H263" s="43"/>
+      <c r="C263" s="44"/>
+      <c r="D263" s="44"/>
+      <c r="E263" s="44"/>
+      <c r="F263" s="44"/>
+      <c r="G263" s="44"/>
+      <c r="H263" s="44"/>
     </row>
     <row r="264" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A264" s="43"/>
-      <c r="B264" s="43"/>
-      <c r="C264" s="43"/>
-      <c r="D264" s="43"/>
-      <c r="E264" s="43"/>
-      <c r="F264" s="43"/>
-      <c r="G264" s="43"/>
-      <c r="H264" s="43"/>
+      <c r="A264" s="44"/>
+      <c r="B264" s="44"/>
+      <c r="C264" s="44"/>
+      <c r="D264" s="44"/>
+      <c r="E264" s="44"/>
+      <c r="F264" s="44"/>
+      <c r="G264" s="44"/>
+      <c r="H264" s="44"/>
     </row>
     <row r="265" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A265" s="43"/>
-      <c r="B265" s="43"/>
-      <c r="C265" s="43"/>
-      <c r="D265" s="43"/>
-      <c r="E265" s="43"/>
-      <c r="F265" s="43"/>
-      <c r="G265" s="43"/>
-      <c r="H265" s="43"/>
+      <c r="A265" s="44"/>
+      <c r="B265" s="44"/>
+      <c r="C265" s="44"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="44"/>
+      <c r="F265" s="44"/>
+      <c r="G265" s="44"/>
+      <c r="H265" s="44"/>
     </row>
     <row r="266" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A266" s="43"/>
-      <c r="B266" s="43"/>
-      <c r="C266" s="43"/>
-      <c r="D266" s="43"/>
-      <c r="E266" s="43"/>
-      <c r="F266" s="43"/>
-      <c r="G266" s="43"/>
-      <c r="H266" s="43"/>
+      <c r="A266" s="44"/>
+      <c r="B266" s="44"/>
+      <c r="C266" s="44"/>
+      <c r="D266" s="44"/>
+      <c r="E266" s="44"/>
+      <c r="F266" s="44"/>
+      <c r="G266" s="44"/>
+      <c r="H266" s="44"/>
     </row>
     <row r="268" spans="1:8" ht="12.75">
-      <c r="A268" s="42" t="s">
+      <c r="A268" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="42" t="s">
+      <c r="B268" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C268" s="43"/>
-      <c r="D268" s="43"/>
-      <c r="E268" s="43"/>
-      <c r="F268" s="43"/>
-      <c r="G268" s="43"/>
-      <c r="H268" s="43"/>
+      <c r="C268" s="44"/>
+      <c r="D268" s="44"/>
+      <c r="E268" s="44"/>
+      <c r="F268" s="44"/>
+      <c r="G268" s="44"/>
+      <c r="H268" s="44"/>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A269" s="43"/>
-      <c r="B269" s="43"/>
-      <c r="C269" s="43"/>
-      <c r="D269" s="43"/>
-      <c r="E269" s="43"/>
-      <c r="F269" s="43"/>
-      <c r="G269" s="43"/>
-      <c r="H269" s="43"/>
+      <c r="A269" s="44"/>
+      <c r="B269" s="44"/>
+      <c r="C269" s="44"/>
+      <c r="D269" s="44"/>
+      <c r="E269" s="44"/>
+      <c r="F269" s="44"/>
+      <c r="G269" s="44"/>
+      <c r="H269" s="44"/>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A270" s="43"/>
-      <c r="B270" s="43"/>
-      <c r="C270" s="43"/>
-      <c r="D270" s="43"/>
-      <c r="E270" s="43"/>
-      <c r="F270" s="43"/>
-      <c r="G270" s="43"/>
-      <c r="H270" s="43"/>
+      <c r="A270" s="44"/>
+      <c r="B270" s="44"/>
+      <c r="C270" s="44"/>
+      <c r="D270" s="44"/>
+      <c r="E270" s="44"/>
+      <c r="F270" s="44"/>
+      <c r="G270" s="44"/>
+      <c r="H270" s="44"/>
     </row>
     <row r="271" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A271" s="43"/>
-      <c r="B271" s="43"/>
-      <c r="C271" s="43"/>
-      <c r="D271" s="43"/>
-      <c r="E271" s="43"/>
-      <c r="F271" s="43"/>
-      <c r="G271" s="43"/>
-      <c r="H271" s="43"/>
+      <c r="A271" s="44"/>
+      <c r="B271" s="44"/>
+      <c r="C271" s="44"/>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44"/>
+      <c r="F271" s="44"/>
+      <c r="G271" s="44"/>
+      <c r="H271" s="44"/>
     </row>
     <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
     </row>
     <row r="273" spans="1:8" ht="12.75">
-      <c r="A273" s="42" t="s">
+      <c r="A273" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B273" s="42" t="s">
+      <c r="B273" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C273" s="43"/>
-      <c r="D273" s="43"/>
-      <c r="E273" s="43"/>
-      <c r="F273" s="43"/>
-      <c r="G273" s="43"/>
-      <c r="H273" s="43"/>
+      <c r="C273" s="44"/>
+      <c r="D273" s="44"/>
+      <c r="E273" s="44"/>
+      <c r="F273" s="44"/>
+      <c r="G273" s="44"/>
+      <c r="H273" s="44"/>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A274" s="43"/>
-      <c r="B274" s="43"/>
-      <c r="C274" s="43"/>
-      <c r="D274" s="43"/>
-      <c r="E274" s="43"/>
-      <c r="F274" s="43"/>
-      <c r="G274" s="43"/>
-      <c r="H274" s="43"/>
+      <c r="A274" s="44"/>
+      <c r="B274" s="44"/>
+      <c r="C274" s="44"/>
+      <c r="D274" s="44"/>
+      <c r="E274" s="44"/>
+      <c r="F274" s="44"/>
+      <c r="G274" s="44"/>
+      <c r="H274" s="44"/>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A275" s="43"/>
-      <c r="B275" s="43"/>
-      <c r="C275" s="43"/>
-      <c r="D275" s="43"/>
-      <c r="E275" s="43"/>
-      <c r="F275" s="43"/>
-      <c r="G275" s="43"/>
-      <c r="H275" s="43"/>
+      <c r="A275" s="44"/>
+      <c r="B275" s="44"/>
+      <c r="C275" s="44"/>
+      <c r="D275" s="44"/>
+      <c r="E275" s="44"/>
+      <c r="F275" s="44"/>
+      <c r="G275" s="44"/>
+      <c r="H275" s="44"/>
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A276" s="43"/>
-      <c r="B276" s="43"/>
-      <c r="C276" s="43"/>
-      <c r="D276" s="43"/>
-      <c r="E276" s="43"/>
-      <c r="F276" s="43"/>
-      <c r="G276" s="43"/>
-      <c r="H276" s="43"/>
+      <c r="A276" s="44"/>
+      <c r="B276" s="44"/>
+      <c r="C276" s="44"/>
+      <c r="D276" s="44"/>
+      <c r="E276" s="44"/>
+      <c r="F276" s="44"/>
+      <c r="G276" s="44"/>
+      <c r="H276" s="44"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
@@ -5442,7 +5427,7 @@
       <c r="D278" s="5">
         <v>1.3729100000000001</v>
       </c>
-      <c r="E278" s="46" t="s">
+      <c r="E278" s="45" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5459,7 +5444,7 @@
       <c r="D279" s="5">
         <v>1.3728899999999999</v>
       </c>
-      <c r="E279" s="43"/>
+      <c r="E279" s="44"/>
     </row>
     <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="5"/>
@@ -5474,48 +5459,48 @@
       <c r="H280" s="5"/>
     </row>
     <row r="281" spans="1:8" ht="12.75">
-      <c r="A281" s="44" t="s">
+      <c r="A281" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B281" s="44" t="s">
+      <c r="B281" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="C281" s="43"/>
-      <c r="D281" s="43"/>
-      <c r="E281" s="43"/>
-      <c r="F281" s="43"/>
-      <c r="G281" s="43"/>
-      <c r="H281" s="43"/>
+      <c r="C281" s="44"/>
+      <c r="D281" s="44"/>
+      <c r="E281" s="44"/>
+      <c r="F281" s="44"/>
+      <c r="G281" s="44"/>
+      <c r="H281" s="44"/>
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A282" s="43"/>
-      <c r="B282" s="43"/>
-      <c r="C282" s="43"/>
-      <c r="D282" s="43"/>
-      <c r="E282" s="43"/>
-      <c r="F282" s="43"/>
-      <c r="G282" s="43"/>
-      <c r="H282" s="43"/>
+      <c r="A282" s="44"/>
+      <c r="B282" s="44"/>
+      <c r="C282" s="44"/>
+      <c r="D282" s="44"/>
+      <c r="E282" s="44"/>
+      <c r="F282" s="44"/>
+      <c r="G282" s="44"/>
+      <c r="H282" s="44"/>
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A283" s="43"/>
-      <c r="B283" s="43"/>
-      <c r="C283" s="43"/>
-      <c r="D283" s="43"/>
-      <c r="E283" s="43"/>
-      <c r="F283" s="43"/>
-      <c r="G283" s="43"/>
-      <c r="H283" s="43"/>
+      <c r="A283" s="44"/>
+      <c r="B283" s="44"/>
+      <c r="C283" s="44"/>
+      <c r="D283" s="44"/>
+      <c r="E283" s="44"/>
+      <c r="F283" s="44"/>
+      <c r="G283" s="44"/>
+      <c r="H283" s="44"/>
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A284" s="43"/>
-      <c r="B284" s="43"/>
-      <c r="C284" s="43"/>
-      <c r="D284" s="43"/>
-      <c r="E284" s="43"/>
-      <c r="F284" s="43"/>
-      <c r="G284" s="43"/>
-      <c r="H284" s="43"/>
+      <c r="A284" s="44"/>
+      <c r="B284" s="44"/>
+      <c r="C284" s="44"/>
+      <c r="D284" s="44"/>
+      <c r="E284" s="44"/>
+      <c r="F284" s="44"/>
+      <c r="G284" s="44"/>
+      <c r="H284" s="44"/>
     </row>
     <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="5"/>
@@ -5528,140 +5513,140 @@
       <c r="H285" s="5"/>
     </row>
     <row r="286" spans="1:8" ht="12.75">
-      <c r="A286" s="42" t="s">
+      <c r="A286" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B286" s="44" t="s">
+      <c r="B286" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C286" s="43"/>
-      <c r="D286" s="43"/>
-      <c r="E286" s="43"/>
-      <c r="F286" s="43"/>
-      <c r="G286" s="43"/>
-      <c r="H286" s="43"/>
+      <c r="C286" s="44"/>
+      <c r="D286" s="44"/>
+      <c r="E286" s="44"/>
+      <c r="F286" s="44"/>
+      <c r="G286" s="44"/>
+      <c r="H286" s="44"/>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A287" s="43"/>
-      <c r="B287" s="43"/>
-      <c r="C287" s="43"/>
-      <c r="D287" s="43"/>
-      <c r="E287" s="43"/>
-      <c r="F287" s="43"/>
-      <c r="G287" s="43"/>
-      <c r="H287" s="43"/>
+      <c r="A287" s="44"/>
+      <c r="B287" s="44"/>
+      <c r="C287" s="44"/>
+      <c r="D287" s="44"/>
+      <c r="E287" s="44"/>
+      <c r="F287" s="44"/>
+      <c r="G287" s="44"/>
+      <c r="H287" s="44"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A288" s="43"/>
-      <c r="B288" s="43"/>
-      <c r="C288" s="43"/>
-      <c r="D288" s="43"/>
-      <c r="E288" s="43"/>
-      <c r="F288" s="43"/>
-      <c r="G288" s="43"/>
-      <c r="H288" s="43"/>
+      <c r="A288" s="44"/>
+      <c r="B288" s="44"/>
+      <c r="C288" s="44"/>
+      <c r="D288" s="44"/>
+      <c r="E288" s="44"/>
+      <c r="F288" s="44"/>
+      <c r="G288" s="44"/>
+      <c r="H288" s="44"/>
     </row>
     <row r="289" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A289" s="43"/>
-      <c r="B289" s="43"/>
-      <c r="C289" s="43"/>
-      <c r="D289" s="43"/>
-      <c r="E289" s="43"/>
-      <c r="F289" s="43"/>
-      <c r="G289" s="43"/>
-      <c r="H289" s="43"/>
+      <c r="A289" s="44"/>
+      <c r="B289" s="44"/>
+      <c r="C289" s="44"/>
+      <c r="D289" s="44"/>
+      <c r="E289" s="44"/>
+      <c r="F289" s="44"/>
+      <c r="G289" s="44"/>
+      <c r="H289" s="44"/>
     </row>
     <row r="291" spans="1:25" ht="12.75">
-      <c r="A291" s="42" t="s">
+      <c r="A291" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B291" s="42" t="s">
+      <c r="B291" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C291" s="43"/>
-      <c r="D291" s="43"/>
-      <c r="E291" s="43"/>
-      <c r="F291" s="43"/>
-      <c r="G291" s="43"/>
-      <c r="H291" s="43"/>
+      <c r="C291" s="44"/>
+      <c r="D291" s="44"/>
+      <c r="E291" s="44"/>
+      <c r="F291" s="44"/>
+      <c r="G291" s="44"/>
+      <c r="H291" s="44"/>
     </row>
     <row r="292" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A292" s="43"/>
-      <c r="B292" s="43"/>
-      <c r="C292" s="43"/>
-      <c r="D292" s="43"/>
-      <c r="E292" s="43"/>
-      <c r="F292" s="43"/>
-      <c r="G292" s="43"/>
-      <c r="H292" s="43"/>
+      <c r="A292" s="44"/>
+      <c r="B292" s="44"/>
+      <c r="C292" s="44"/>
+      <c r="D292" s="44"/>
+      <c r="E292" s="44"/>
+      <c r="F292" s="44"/>
+      <c r="G292" s="44"/>
+      <c r="H292" s="44"/>
     </row>
     <row r="293" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A293" s="43"/>
-      <c r="B293" s="43"/>
-      <c r="C293" s="43"/>
-      <c r="D293" s="43"/>
-      <c r="E293" s="43"/>
-      <c r="F293" s="43"/>
-      <c r="G293" s="43"/>
-      <c r="H293" s="43"/>
+      <c r="A293" s="44"/>
+      <c r="B293" s="44"/>
+      <c r="C293" s="44"/>
+      <c r="D293" s="44"/>
+      <c r="E293" s="44"/>
+      <c r="F293" s="44"/>
+      <c r="G293" s="44"/>
+      <c r="H293" s="44"/>
     </row>
     <row r="294" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A294" s="43"/>
-      <c r="B294" s="43"/>
-      <c r="C294" s="43"/>
-      <c r="D294" s="43"/>
-      <c r="E294" s="43"/>
-      <c r="F294" s="43"/>
-      <c r="G294" s="43"/>
-      <c r="H294" s="43"/>
+      <c r="A294" s="44"/>
+      <c r="B294" s="44"/>
+      <c r="C294" s="44"/>
+      <c r="D294" s="44"/>
+      <c r="E294" s="44"/>
+      <c r="F294" s="44"/>
+      <c r="G294" s="44"/>
+      <c r="H294" s="44"/>
     </row>
     <row r="295" spans="1:25" ht="12.75">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
     </row>
     <row r="296" spans="1:25" ht="12.75">
-      <c r="A296" s="42" t="s">
+      <c r="A296" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B296" s="42" t="s">
+      <c r="B296" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C296" s="43"/>
-      <c r="D296" s="43"/>
-      <c r="E296" s="43"/>
-      <c r="F296" s="43"/>
-      <c r="G296" s="43"/>
-      <c r="H296" s="43"/>
+      <c r="C296" s="44"/>
+      <c r="D296" s="44"/>
+      <c r="E296" s="44"/>
+      <c r="F296" s="44"/>
+      <c r="G296" s="44"/>
+      <c r="H296" s="44"/>
     </row>
     <row r="297" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A297" s="43"/>
-      <c r="B297" s="43"/>
-      <c r="C297" s="43"/>
-      <c r="D297" s="43"/>
-      <c r="E297" s="43"/>
-      <c r="F297" s="43"/>
-      <c r="G297" s="43"/>
-      <c r="H297" s="43"/>
+      <c r="A297" s="44"/>
+      <c r="B297" s="44"/>
+      <c r="C297" s="44"/>
+      <c r="D297" s="44"/>
+      <c r="E297" s="44"/>
+      <c r="F297" s="44"/>
+      <c r="G297" s="44"/>
+      <c r="H297" s="44"/>
     </row>
     <row r="298" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A298" s="43"/>
-      <c r="B298" s="43"/>
-      <c r="C298" s="43"/>
-      <c r="D298" s="43"/>
-      <c r="E298" s="43"/>
-      <c r="F298" s="43"/>
-      <c r="G298" s="43"/>
-      <c r="H298" s="43"/>
+      <c r="A298" s="44"/>
+      <c r="B298" s="44"/>
+      <c r="C298" s="44"/>
+      <c r="D298" s="44"/>
+      <c r="E298" s="44"/>
+      <c r="F298" s="44"/>
+      <c r="G298" s="44"/>
+      <c r="H298" s="44"/>
     </row>
     <row r="299" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A299" s="43"/>
-      <c r="B299" s="43"/>
-      <c r="C299" s="43"/>
-      <c r="D299" s="43"/>
-      <c r="E299" s="43"/>
-      <c r="F299" s="43"/>
-      <c r="G299" s="43"/>
-      <c r="H299" s="43"/>
+      <c r="A299" s="44"/>
+      <c r="B299" s="44"/>
+      <c r="C299" s="44"/>
+      <c r="D299" s="44"/>
+      <c r="E299" s="44"/>
+      <c r="F299" s="44"/>
+      <c r="G299" s="44"/>
+      <c r="H299" s="44"/>
     </row>
     <row r="301" spans="1:25">
       <c r="A301" s="13" t="s">
@@ -5676,7 +5661,7 @@
       <c r="D301" s="16">
         <v>0.89771000000000001</v>
       </c>
-      <c r="E301" s="47" t="s">
+      <c r="E301" s="48" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="15"/>
@@ -5713,7 +5698,7 @@
       <c r="D302" s="16">
         <v>0.90005000000000002</v>
       </c>
-      <c r="E302" s="43"/>
+      <c r="E302" s="44"/>
       <c r="F302" s="15"/>
       <c r="G302" s="15"/>
       <c r="H302" s="15"/>
@@ -5765,18 +5750,18 @@
       <c r="Y303" s="15"/>
     </row>
     <row r="304" spans="1:25" ht="12.75">
-      <c r="A304" s="45" t="s">
+      <c r="A304" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B304" s="45" t="s">
+      <c r="B304" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C304" s="43"/>
-      <c r="D304" s="43"/>
-      <c r="E304" s="43"/>
-      <c r="F304" s="43"/>
-      <c r="G304" s="43"/>
-      <c r="H304" s="43"/>
+      <c r="C304" s="44"/>
+      <c r="D304" s="44"/>
+      <c r="E304" s="44"/>
+      <c r="F304" s="44"/>
+      <c r="G304" s="44"/>
+      <c r="H304" s="44"/>
       <c r="I304" s="15"/>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
@@ -5796,14 +5781,14 @@
       <c r="Y304" s="15"/>
     </row>
     <row r="305" spans="1:25" ht="12.75">
-      <c r="A305" s="43"/>
-      <c r="B305" s="43"/>
-      <c r="C305" s="43"/>
-      <c r="D305" s="43"/>
-      <c r="E305" s="43"/>
-      <c r="F305" s="43"/>
-      <c r="G305" s="43"/>
-      <c r="H305" s="43"/>
+      <c r="A305" s="44"/>
+      <c r="B305" s="44"/>
+      <c r="C305" s="44"/>
+      <c r="D305" s="44"/>
+      <c r="E305" s="44"/>
+      <c r="F305" s="44"/>
+      <c r="G305" s="44"/>
+      <c r="H305" s="44"/>
       <c r="I305" s="15"/>
       <c r="J305" s="15"/>
       <c r="K305" s="15"/>
@@ -5823,14 +5808,14 @@
       <c r="Y305" s="15"/>
     </row>
     <row r="306" spans="1:25" ht="12.75">
-      <c r="A306" s="43"/>
-      <c r="B306" s="43"/>
-      <c r="C306" s="43"/>
-      <c r="D306" s="43"/>
-      <c r="E306" s="43"/>
-      <c r="F306" s="43"/>
-      <c r="G306" s="43"/>
-      <c r="H306" s="43"/>
+      <c r="A306" s="44"/>
+      <c r="B306" s="44"/>
+      <c r="C306" s="44"/>
+      <c r="D306" s="44"/>
+      <c r="E306" s="44"/>
+      <c r="F306" s="44"/>
+      <c r="G306" s="44"/>
+      <c r="H306" s="44"/>
       <c r="I306" s="15"/>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
@@ -5850,14 +5835,14 @@
       <c r="Y306" s="15"/>
     </row>
     <row r="307" spans="1:25" ht="12.75">
-      <c r="A307" s="43"/>
-      <c r="B307" s="43"/>
-      <c r="C307" s="43"/>
-      <c r="D307" s="43"/>
-      <c r="E307" s="43"/>
-      <c r="F307" s="43"/>
-      <c r="G307" s="43"/>
-      <c r="H307" s="43"/>
+      <c r="A307" s="44"/>
+      <c r="B307" s="44"/>
+      <c r="C307" s="44"/>
+      <c r="D307" s="44"/>
+      <c r="E307" s="44"/>
+      <c r="F307" s="44"/>
+      <c r="G307" s="44"/>
+      <c r="H307" s="44"/>
       <c r="I307" s="15"/>
       <c r="J307" s="15"/>
       <c r="K307" s="15"/>
@@ -5904,18 +5889,18 @@
       <c r="Y308" s="15"/>
     </row>
     <row r="309" spans="1:25" ht="12.75">
-      <c r="A309" s="45" t="s">
+      <c r="A309" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B309" s="45" t="s">
+      <c r="B309" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="43"/>
-      <c r="D309" s="43"/>
-      <c r="E309" s="43"/>
-      <c r="F309" s="43"/>
-      <c r="G309" s="43"/>
-      <c r="H309" s="43"/>
+      <c r="C309" s="44"/>
+      <c r="D309" s="44"/>
+      <c r="E309" s="44"/>
+      <c r="F309" s="44"/>
+      <c r="G309" s="44"/>
+      <c r="H309" s="44"/>
       <c r="I309" s="15"/>
       <c r="J309" s="15"/>
       <c r="K309" s="15"/>
@@ -5935,14 +5920,14 @@
       <c r="Y309" s="15"/>
     </row>
     <row r="310" spans="1:25" ht="12.75">
-      <c r="A310" s="43"/>
-      <c r="B310" s="43"/>
-      <c r="C310" s="43"/>
-      <c r="D310" s="43"/>
-      <c r="E310" s="43"/>
-      <c r="F310" s="43"/>
-      <c r="G310" s="43"/>
-      <c r="H310" s="43"/>
+      <c r="A310" s="44"/>
+      <c r="B310" s="44"/>
+      <c r="C310" s="44"/>
+      <c r="D310" s="44"/>
+      <c r="E310" s="44"/>
+      <c r="F310" s="44"/>
+      <c r="G310" s="44"/>
+      <c r="H310" s="44"/>
       <c r="I310" s="15"/>
       <c r="J310" s="15"/>
       <c r="K310" s="15"/>
@@ -5962,14 +5947,14 @@
       <c r="Y310" s="15"/>
     </row>
     <row r="311" spans="1:25" ht="12.75">
-      <c r="A311" s="43"/>
-      <c r="B311" s="43"/>
-      <c r="C311" s="43"/>
-      <c r="D311" s="43"/>
-      <c r="E311" s="43"/>
-      <c r="F311" s="43"/>
-      <c r="G311" s="43"/>
-      <c r="H311" s="43"/>
+      <c r="A311" s="44"/>
+      <c r="B311" s="44"/>
+      <c r="C311" s="44"/>
+      <c r="D311" s="44"/>
+      <c r="E311" s="44"/>
+      <c r="F311" s="44"/>
+      <c r="G311" s="44"/>
+      <c r="H311" s="44"/>
       <c r="I311" s="15"/>
       <c r="J311" s="15"/>
       <c r="K311" s="15"/>
@@ -5989,14 +5974,14 @@
       <c r="Y311" s="15"/>
     </row>
     <row r="312" spans="1:25" ht="12.75">
-      <c r="A312" s="43"/>
-      <c r="B312" s="43"/>
-      <c r="C312" s="43"/>
-      <c r="D312" s="43"/>
-      <c r="E312" s="43"/>
-      <c r="F312" s="43"/>
-      <c r="G312" s="43"/>
-      <c r="H312" s="43"/>
+      <c r="A312" s="44"/>
+      <c r="B312" s="44"/>
+      <c r="C312" s="44"/>
+      <c r="D312" s="44"/>
+      <c r="E312" s="44"/>
+      <c r="F312" s="44"/>
+      <c r="G312" s="44"/>
+      <c r="H312" s="44"/>
       <c r="I312" s="15"/>
       <c r="J312" s="15"/>
       <c r="K312" s="15"/>
@@ -6043,18 +6028,18 @@
       <c r="Y313" s="15"/>
     </row>
     <row r="314" spans="1:25" ht="12.75">
-      <c r="A314" s="45" t="s">
+      <c r="A314" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B314" s="45" t="s">
+      <c r="B314" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C314" s="43"/>
-      <c r="D314" s="43"/>
-      <c r="E314" s="43"/>
-      <c r="F314" s="43"/>
-      <c r="G314" s="43"/>
-      <c r="H314" s="43"/>
+      <c r="C314" s="44"/>
+      <c r="D314" s="44"/>
+      <c r="E314" s="44"/>
+      <c r="F314" s="44"/>
+      <c r="G314" s="44"/>
+      <c r="H314" s="44"/>
       <c r="I314" s="15"/>
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
@@ -6074,14 +6059,14 @@
       <c r="Y314" s="15"/>
     </row>
     <row r="315" spans="1:25" ht="12.75">
-      <c r="A315" s="43"/>
-      <c r="B315" s="43"/>
-      <c r="C315" s="43"/>
-      <c r="D315" s="43"/>
-      <c r="E315" s="43"/>
-      <c r="F315" s="43"/>
-      <c r="G315" s="43"/>
-      <c r="H315" s="43"/>
+      <c r="A315" s="44"/>
+      <c r="B315" s="44"/>
+      <c r="C315" s="44"/>
+      <c r="D315" s="44"/>
+      <c r="E315" s="44"/>
+      <c r="F315" s="44"/>
+      <c r="G315" s="44"/>
+      <c r="H315" s="44"/>
       <c r="I315" s="15"/>
       <c r="J315" s="15"/>
       <c r="K315" s="15"/>
@@ -6101,14 +6086,14 @@
       <c r="Y315" s="15"/>
     </row>
     <row r="316" spans="1:25" ht="12.75">
-      <c r="A316" s="43"/>
-      <c r="B316" s="43"/>
-      <c r="C316" s="43"/>
-      <c r="D316" s="43"/>
-      <c r="E316" s="43"/>
-      <c r="F316" s="43"/>
-      <c r="G316" s="43"/>
-      <c r="H316" s="43"/>
+      <c r="A316" s="44"/>
+      <c r="B316" s="44"/>
+      <c r="C316" s="44"/>
+      <c r="D316" s="44"/>
+      <c r="E316" s="44"/>
+      <c r="F316" s="44"/>
+      <c r="G316" s="44"/>
+      <c r="H316" s="44"/>
       <c r="I316" s="15"/>
       <c r="J316" s="15"/>
       <c r="K316" s="15"/>
@@ -6128,14 +6113,14 @@
       <c r="Y316" s="15"/>
     </row>
     <row r="317" spans="1:25" ht="12.75">
-      <c r="A317" s="43"/>
-      <c r="B317" s="43"/>
-      <c r="C317" s="43"/>
-      <c r="D317" s="43"/>
-      <c r="E317" s="43"/>
-      <c r="F317" s="43"/>
-      <c r="G317" s="43"/>
-      <c r="H317" s="43"/>
+      <c r="A317" s="44"/>
+      <c r="B317" s="44"/>
+      <c r="C317" s="44"/>
+      <c r="D317" s="44"/>
+      <c r="E317" s="44"/>
+      <c r="F317" s="44"/>
+      <c r="G317" s="44"/>
+      <c r="H317" s="44"/>
       <c r="I317" s="15"/>
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
@@ -6182,18 +6167,18 @@
       <c r="Y318" s="15"/>
     </row>
     <row r="319" spans="1:25" ht="12.75">
-      <c r="A319" s="45" t="s">
+      <c r="A319" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B319" s="45" t="s">
+      <c r="B319" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C319" s="43"/>
-      <c r="D319" s="43"/>
-      <c r="E319" s="43"/>
-      <c r="F319" s="43"/>
-      <c r="G319" s="43"/>
-      <c r="H319" s="43"/>
+      <c r="C319" s="44"/>
+      <c r="D319" s="44"/>
+      <c r="E319" s="44"/>
+      <c r="F319" s="44"/>
+      <c r="G319" s="44"/>
+      <c r="H319" s="44"/>
       <c r="I319" s="15"/>
       <c r="J319" s="15"/>
       <c r="K319" s="15"/>
@@ -6213,14 +6198,14 @@
       <c r="Y319" s="15"/>
     </row>
     <row r="320" spans="1:25" ht="12.75">
-      <c r="A320" s="43"/>
-      <c r="B320" s="43"/>
-      <c r="C320" s="43"/>
-      <c r="D320" s="43"/>
-      <c r="E320" s="43"/>
-      <c r="F320" s="43"/>
-      <c r="G320" s="43"/>
-      <c r="H320" s="43"/>
+      <c r="A320" s="44"/>
+      <c r="B320" s="44"/>
+      <c r="C320" s="44"/>
+      <c r="D320" s="44"/>
+      <c r="E320" s="44"/>
+      <c r="F320" s="44"/>
+      <c r="G320" s="44"/>
+      <c r="H320" s="44"/>
       <c r="I320" s="15"/>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
@@ -6240,14 +6225,14 @@
       <c r="Y320" s="15"/>
     </row>
     <row r="321" spans="1:25" ht="12.75">
-      <c r="A321" s="43"/>
-      <c r="B321" s="43"/>
-      <c r="C321" s="43"/>
-      <c r="D321" s="43"/>
-      <c r="E321" s="43"/>
-      <c r="F321" s="43"/>
-      <c r="G321" s="43"/>
-      <c r="H321" s="43"/>
+      <c r="A321" s="44"/>
+      <c r="B321" s="44"/>
+      <c r="C321" s="44"/>
+      <c r="D321" s="44"/>
+      <c r="E321" s="44"/>
+      <c r="F321" s="44"/>
+      <c r="G321" s="44"/>
+      <c r="H321" s="44"/>
       <c r="I321" s="15"/>
       <c r="J321" s="15"/>
       <c r="K321" s="15"/>
@@ -6267,14 +6252,14 @@
       <c r="Y321" s="15"/>
     </row>
     <row r="322" spans="1:25" ht="12.75">
-      <c r="A322" s="43"/>
-      <c r="B322" s="43"/>
-      <c r="C322" s="43"/>
-      <c r="D322" s="43"/>
-      <c r="E322" s="43"/>
-      <c r="F322" s="43"/>
-      <c r="G322" s="43"/>
-      <c r="H322" s="43"/>
+      <c r="A322" s="44"/>
+      <c r="B322" s="44"/>
+      <c r="C322" s="44"/>
+      <c r="D322" s="44"/>
+      <c r="E322" s="44"/>
+      <c r="F322" s="44"/>
+      <c r="G322" s="44"/>
+      <c r="H322" s="44"/>
       <c r="I322" s="15"/>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
@@ -6306,7 +6291,7 @@
       <c r="D324" s="16">
         <v>0.99319999999999997</v>
       </c>
-      <c r="E324" s="47" t="s">
+      <c r="E324" s="48" t="s">
         <v>25</v>
       </c>
       <c r="F324" s="15"/>
@@ -6343,7 +6328,7 @@
       <c r="D325" s="16">
         <v>0.99321000000000004</v>
       </c>
-      <c r="E325" s="43"/>
+      <c r="E325" s="44"/>
       <c r="F325" s="15"/>
       <c r="G325" s="15"/>
       <c r="H325" s="15"/>
@@ -6395,18 +6380,18 @@
       <c r="Y326" s="15"/>
     </row>
     <row r="327" spans="1:25" ht="12.75">
-      <c r="A327" s="45" t="s">
+      <c r="A327" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B327" s="45" t="s">
+      <c r="B327" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C327" s="43"/>
-      <c r="D327" s="43"/>
-      <c r="E327" s="43"/>
-      <c r="F327" s="43"/>
-      <c r="G327" s="43"/>
-      <c r="H327" s="43"/>
+      <c r="C327" s="44"/>
+      <c r="D327" s="44"/>
+      <c r="E327" s="44"/>
+      <c r="F327" s="44"/>
+      <c r="G327" s="44"/>
+      <c r="H327" s="44"/>
       <c r="I327" s="15"/>
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
@@ -6426,14 +6411,14 @@
       <c r="Y327" s="15"/>
     </row>
     <row r="328" spans="1:25" ht="12.75">
-      <c r="A328" s="43"/>
-      <c r="B328" s="43"/>
-      <c r="C328" s="43"/>
-      <c r="D328" s="43"/>
-      <c r="E328" s="43"/>
-      <c r="F328" s="43"/>
-      <c r="G328" s="43"/>
-      <c r="H328" s="43"/>
+      <c r="A328" s="44"/>
+      <c r="B328" s="44"/>
+      <c r="C328" s="44"/>
+      <c r="D328" s="44"/>
+      <c r="E328" s="44"/>
+      <c r="F328" s="44"/>
+      <c r="G328" s="44"/>
+      <c r="H328" s="44"/>
       <c r="I328" s="15"/>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
@@ -6453,14 +6438,14 @@
       <c r="Y328" s="15"/>
     </row>
     <row r="329" spans="1:25" ht="12.75">
-      <c r="A329" s="43"/>
-      <c r="B329" s="43"/>
-      <c r="C329" s="43"/>
-      <c r="D329" s="43"/>
-      <c r="E329" s="43"/>
-      <c r="F329" s="43"/>
-      <c r="G329" s="43"/>
-      <c r="H329" s="43"/>
+      <c r="A329" s="44"/>
+      <c r="B329" s="44"/>
+      <c r="C329" s="44"/>
+      <c r="D329" s="44"/>
+      <c r="E329" s="44"/>
+      <c r="F329" s="44"/>
+      <c r="G329" s="44"/>
+      <c r="H329" s="44"/>
       <c r="I329" s="15"/>
       <c r="J329" s="15"/>
       <c r="K329" s="15"/>
@@ -6480,14 +6465,14 @@
       <c r="Y329" s="15"/>
     </row>
     <row r="330" spans="1:25" ht="12.75">
-      <c r="A330" s="43"/>
-      <c r="B330" s="43"/>
-      <c r="C330" s="43"/>
-      <c r="D330" s="43"/>
-      <c r="E330" s="43"/>
-      <c r="F330" s="43"/>
-      <c r="G330" s="43"/>
-      <c r="H330" s="43"/>
+      <c r="A330" s="44"/>
+      <c r="B330" s="44"/>
+      <c r="C330" s="44"/>
+      <c r="D330" s="44"/>
+      <c r="E330" s="44"/>
+      <c r="F330" s="44"/>
+      <c r="G330" s="44"/>
+      <c r="H330" s="44"/>
       <c r="I330" s="15"/>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
@@ -6534,18 +6519,18 @@
       <c r="Y331" s="15"/>
     </row>
     <row r="332" spans="1:25" ht="12.75">
-      <c r="A332" s="45" t="s">
+      <c r="A332" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B332" s="45" t="s">
+      <c r="B332" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C332" s="43"/>
-      <c r="D332" s="43"/>
-      <c r="E332" s="43"/>
-      <c r="F332" s="43"/>
-      <c r="G332" s="43"/>
-      <c r="H332" s="43"/>
+      <c r="C332" s="44"/>
+      <c r="D332" s="44"/>
+      <c r="E332" s="44"/>
+      <c r="F332" s="44"/>
+      <c r="G332" s="44"/>
+      <c r="H332" s="44"/>
       <c r="I332" s="15"/>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
@@ -6565,14 +6550,14 @@
       <c r="Y332" s="15"/>
     </row>
     <row r="333" spans="1:25" ht="12.75">
-      <c r="A333" s="43"/>
-      <c r="B333" s="43"/>
-      <c r="C333" s="43"/>
-      <c r="D333" s="43"/>
-      <c r="E333" s="43"/>
-      <c r="F333" s="43"/>
-      <c r="G333" s="43"/>
-      <c r="H333" s="43"/>
+      <c r="A333" s="44"/>
+      <c r="B333" s="44"/>
+      <c r="C333" s="44"/>
+      <c r="D333" s="44"/>
+      <c r="E333" s="44"/>
+      <c r="F333" s="44"/>
+      <c r="G333" s="44"/>
+      <c r="H333" s="44"/>
       <c r="I333" s="15"/>
       <c r="J333" s="15"/>
       <c r="K333" s="15"/>
@@ -6592,14 +6577,14 @@
       <c r="Y333" s="15"/>
     </row>
     <row r="334" spans="1:25" ht="12.75">
-      <c r="A334" s="43"/>
-      <c r="B334" s="43"/>
-      <c r="C334" s="43"/>
-      <c r="D334" s="43"/>
-      <c r="E334" s="43"/>
-      <c r="F334" s="43"/>
-      <c r="G334" s="43"/>
-      <c r="H334" s="43"/>
+      <c r="A334" s="44"/>
+      <c r="B334" s="44"/>
+      <c r="C334" s="44"/>
+      <c r="D334" s="44"/>
+      <c r="E334" s="44"/>
+      <c r="F334" s="44"/>
+      <c r="G334" s="44"/>
+      <c r="H334" s="44"/>
       <c r="I334" s="15"/>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
@@ -6619,14 +6604,14 @@
       <c r="Y334" s="15"/>
     </row>
     <row r="335" spans="1:25" ht="12.75">
-      <c r="A335" s="43"/>
-      <c r="B335" s="43"/>
-      <c r="C335" s="43"/>
-      <c r="D335" s="43"/>
-      <c r="E335" s="43"/>
-      <c r="F335" s="43"/>
-      <c r="G335" s="43"/>
-      <c r="H335" s="43"/>
+      <c r="A335" s="44"/>
+      <c r="B335" s="44"/>
+      <c r="C335" s="44"/>
+      <c r="D335" s="44"/>
+      <c r="E335" s="44"/>
+      <c r="F335" s="44"/>
+      <c r="G335" s="44"/>
+      <c r="H335" s="44"/>
       <c r="I335" s="15"/>
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
@@ -6673,18 +6658,18 @@
       <c r="Y336" s="15"/>
     </row>
     <row r="337" spans="1:25" ht="12.75">
-      <c r="A337" s="45" t="s">
+      <c r="A337" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B337" s="45" t="s">
+      <c r="B337" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C337" s="43"/>
-      <c r="D337" s="43"/>
-      <c r="E337" s="43"/>
-      <c r="F337" s="43"/>
-      <c r="G337" s="43"/>
-      <c r="H337" s="43"/>
+      <c r="C337" s="44"/>
+      <c r="D337" s="44"/>
+      <c r="E337" s="44"/>
+      <c r="F337" s="44"/>
+      <c r="G337" s="44"/>
+      <c r="H337" s="44"/>
       <c r="I337" s="15"/>
       <c r="J337" s="15"/>
       <c r="K337" s="15"/>
@@ -6704,14 +6689,14 @@
       <c r="Y337" s="15"/>
     </row>
     <row r="338" spans="1:25" ht="12.75">
-      <c r="A338" s="43"/>
-      <c r="B338" s="43"/>
-      <c r="C338" s="43"/>
-      <c r="D338" s="43"/>
-      <c r="E338" s="43"/>
-      <c r="F338" s="43"/>
-      <c r="G338" s="43"/>
-      <c r="H338" s="43"/>
+      <c r="A338" s="44"/>
+      <c r="B338" s="44"/>
+      <c r="C338" s="44"/>
+      <c r="D338" s="44"/>
+      <c r="E338" s="44"/>
+      <c r="F338" s="44"/>
+      <c r="G338" s="44"/>
+      <c r="H338" s="44"/>
       <c r="I338" s="15"/>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
@@ -6731,14 +6716,14 @@
       <c r="Y338" s="15"/>
     </row>
     <row r="339" spans="1:25" ht="12.75">
-      <c r="A339" s="43"/>
-      <c r="B339" s="43"/>
-      <c r="C339" s="43"/>
-      <c r="D339" s="43"/>
-      <c r="E339" s="43"/>
-      <c r="F339" s="43"/>
-      <c r="G339" s="43"/>
-      <c r="H339" s="43"/>
+      <c r="A339" s="44"/>
+      <c r="B339" s="44"/>
+      <c r="C339" s="44"/>
+      <c r="D339" s="44"/>
+      <c r="E339" s="44"/>
+      <c r="F339" s="44"/>
+      <c r="G339" s="44"/>
+      <c r="H339" s="44"/>
       <c r="I339" s="15"/>
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
@@ -6758,14 +6743,14 @@
       <c r="Y339" s="15"/>
     </row>
     <row r="340" spans="1:25" ht="12.75">
-      <c r="A340" s="43"/>
-      <c r="B340" s="43"/>
-      <c r="C340" s="43"/>
-      <c r="D340" s="43"/>
-      <c r="E340" s="43"/>
-      <c r="F340" s="43"/>
-      <c r="G340" s="43"/>
-      <c r="H340" s="43"/>
+      <c r="A340" s="44"/>
+      <c r="B340" s="44"/>
+      <c r="C340" s="44"/>
+      <c r="D340" s="44"/>
+      <c r="E340" s="44"/>
+      <c r="F340" s="44"/>
+      <c r="G340" s="44"/>
+      <c r="H340" s="44"/>
       <c r="I340" s="15"/>
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
@@ -6812,18 +6797,18 @@
       <c r="Y341" s="15"/>
     </row>
     <row r="342" spans="1:25" ht="12.75">
-      <c r="A342" s="45" t="s">
+      <c r="A342" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B342" s="45" t="s">
+      <c r="B342" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C342" s="43"/>
-      <c r="D342" s="43"/>
-      <c r="E342" s="43"/>
-      <c r="F342" s="43"/>
-      <c r="G342" s="43"/>
-      <c r="H342" s="43"/>
+      <c r="C342" s="44"/>
+      <c r="D342" s="44"/>
+      <c r="E342" s="44"/>
+      <c r="F342" s="44"/>
+      <c r="G342" s="44"/>
+      <c r="H342" s="44"/>
       <c r="I342" s="15"/>
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
@@ -6843,14 +6828,14 @@
       <c r="Y342" s="15"/>
     </row>
     <row r="343" spans="1:25" ht="12.75">
-      <c r="A343" s="43"/>
-      <c r="B343" s="43"/>
-      <c r="C343" s="43"/>
-      <c r="D343" s="43"/>
-      <c r="E343" s="43"/>
-      <c r="F343" s="43"/>
-      <c r="G343" s="43"/>
-      <c r="H343" s="43"/>
+      <c r="A343" s="44"/>
+      <c r="B343" s="44"/>
+      <c r="C343" s="44"/>
+      <c r="D343" s="44"/>
+      <c r="E343" s="44"/>
+      <c r="F343" s="44"/>
+      <c r="G343" s="44"/>
+      <c r="H343" s="44"/>
       <c r="I343" s="15"/>
       <c r="J343" s="15"/>
       <c r="K343" s="15"/>
@@ -6870,14 +6855,14 @@
       <c r="Y343" s="15"/>
     </row>
     <row r="344" spans="1:25" ht="12.75">
-      <c r="A344" s="43"/>
-      <c r="B344" s="43"/>
-      <c r="C344" s="43"/>
-      <c r="D344" s="43"/>
-      <c r="E344" s="43"/>
-      <c r="F344" s="43"/>
-      <c r="G344" s="43"/>
-      <c r="H344" s="43"/>
+      <c r="A344" s="44"/>
+      <c r="B344" s="44"/>
+      <c r="C344" s="44"/>
+      <c r="D344" s="44"/>
+      <c r="E344" s="44"/>
+      <c r="F344" s="44"/>
+      <c r="G344" s="44"/>
+      <c r="H344" s="44"/>
       <c r="I344" s="15"/>
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
@@ -6897,14 +6882,14 @@
       <c r="Y344" s="15"/>
     </row>
     <row r="345" spans="1:25" ht="12.75">
-      <c r="A345" s="43"/>
-      <c r="B345" s="43"/>
-      <c r="C345" s="43"/>
-      <c r="D345" s="43"/>
-      <c r="E345" s="43"/>
-      <c r="F345" s="43"/>
-      <c r="G345" s="43"/>
-      <c r="H345" s="43"/>
+      <c r="A345" s="44"/>
+      <c r="B345" s="44"/>
+      <c r="C345" s="44"/>
+      <c r="D345" s="44"/>
+      <c r="E345" s="44"/>
+      <c r="F345" s="44"/>
+      <c r="G345" s="44"/>
+      <c r="H345" s="44"/>
       <c r="I345" s="15"/>
       <c r="J345" s="15"/>
       <c r="K345" s="15"/>
@@ -6925,6 +6910,118 @@
     </row>
   </sheetData>
   <mergeCells count="135">
+    <mergeCell ref="A176:A179"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A199:A202"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A112:A115"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="A135:A138"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A240:A243"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="A263:A266"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="A273:A276"/>
+    <mergeCell ref="A319:A322"/>
+    <mergeCell ref="A327:A330"/>
+    <mergeCell ref="A332:A335"/>
+    <mergeCell ref="A337:A340"/>
+    <mergeCell ref="A342:A345"/>
+    <mergeCell ref="A281:A284"/>
+    <mergeCell ref="A286:A289"/>
+    <mergeCell ref="A291:A294"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="A309:A312"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B176:H179"/>
+    <mergeCell ref="B181:H184"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="B189:H192"/>
+    <mergeCell ref="B194:H197"/>
+    <mergeCell ref="B199:H202"/>
+    <mergeCell ref="B204:H207"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="B212:H215"/>
+    <mergeCell ref="B217:H220"/>
+    <mergeCell ref="B222:H225"/>
+    <mergeCell ref="B227:H230"/>
+    <mergeCell ref="E232:E233"/>
+    <mergeCell ref="B235:H238"/>
+    <mergeCell ref="B240:H243"/>
+    <mergeCell ref="B245:H248"/>
+    <mergeCell ref="B250:H253"/>
+    <mergeCell ref="E255:E256"/>
+    <mergeCell ref="B258:H261"/>
+    <mergeCell ref="B263:H266"/>
+    <mergeCell ref="B268:H271"/>
+    <mergeCell ref="B273:H276"/>
+    <mergeCell ref="E278:E279"/>
+    <mergeCell ref="B281:H284"/>
+    <mergeCell ref="B286:H289"/>
+    <mergeCell ref="B291:H294"/>
+    <mergeCell ref="B296:H299"/>
+    <mergeCell ref="E301:E302"/>
+    <mergeCell ref="B337:H340"/>
+    <mergeCell ref="B342:H345"/>
+    <mergeCell ref="B304:H307"/>
+    <mergeCell ref="B309:H312"/>
+    <mergeCell ref="B314:H317"/>
+    <mergeCell ref="B319:H322"/>
+    <mergeCell ref="E324:E325"/>
+    <mergeCell ref="B327:H330"/>
+    <mergeCell ref="B332:H335"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="B5:H8"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:H13"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B15:H18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:H23"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:H31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:H36"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:H41"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:H46"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:H54"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B56:H59"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B61:H64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:H69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:H77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:H82"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:H87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="B89:H92"/>
     <mergeCell ref="B158:H161"/>
     <mergeCell ref="E163:E164"/>
     <mergeCell ref="B166:H169"/>
@@ -6948,118 +7045,6 @@
     <mergeCell ref="B130:H133"/>
     <mergeCell ref="B135:H138"/>
     <mergeCell ref="E140:E141"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:H77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:H82"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:H87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="B89:H92"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="B51:H54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:H59"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="B61:H64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:H69"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:H31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:H36"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:H41"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:H46"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="B5:H8"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:H13"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B15:H18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:H23"/>
-    <mergeCell ref="E301:E302"/>
-    <mergeCell ref="B337:H340"/>
-    <mergeCell ref="B342:H345"/>
-    <mergeCell ref="B304:H307"/>
-    <mergeCell ref="B309:H312"/>
-    <mergeCell ref="B314:H317"/>
-    <mergeCell ref="B319:H322"/>
-    <mergeCell ref="E324:E325"/>
-    <mergeCell ref="B327:H330"/>
-    <mergeCell ref="B332:H335"/>
-    <mergeCell ref="B258:H261"/>
-    <mergeCell ref="B263:H266"/>
-    <mergeCell ref="B268:H271"/>
-    <mergeCell ref="B273:H276"/>
-    <mergeCell ref="E278:E279"/>
-    <mergeCell ref="B281:H284"/>
-    <mergeCell ref="B286:H289"/>
-    <mergeCell ref="B291:H294"/>
-    <mergeCell ref="B296:H299"/>
-    <mergeCell ref="B217:H220"/>
-    <mergeCell ref="B222:H225"/>
-    <mergeCell ref="B227:H230"/>
-    <mergeCell ref="E232:E233"/>
-    <mergeCell ref="B235:H238"/>
-    <mergeCell ref="B240:H243"/>
-    <mergeCell ref="B245:H248"/>
-    <mergeCell ref="B250:H253"/>
-    <mergeCell ref="E255:E256"/>
-    <mergeCell ref="B176:H179"/>
-    <mergeCell ref="B181:H184"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="B189:H192"/>
-    <mergeCell ref="B194:H197"/>
-    <mergeCell ref="B199:H202"/>
-    <mergeCell ref="B204:H207"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="B212:H215"/>
-    <mergeCell ref="A273:A276"/>
-    <mergeCell ref="A319:A322"/>
-    <mergeCell ref="A327:A330"/>
-    <mergeCell ref="A332:A335"/>
-    <mergeCell ref="A337:A340"/>
-    <mergeCell ref="A342:A345"/>
-    <mergeCell ref="A281:A284"/>
-    <mergeCell ref="A286:A289"/>
-    <mergeCell ref="A291:A294"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="A304:A307"/>
-    <mergeCell ref="A309:A312"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="A227:A230"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A240:A243"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A250:A253"/>
-    <mergeCell ref="A258:A261"/>
-    <mergeCell ref="A263:A266"/>
-    <mergeCell ref="A268:A271"/>
-    <mergeCell ref="A176:A179"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A199:A202"/>
-    <mergeCell ref="A204:A207"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A112:A115"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="A166:A169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MyST_LAB2_FMHL.xlsx
+++ b/MyST_LAB2_FMHL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frida\Desktop\ITESO\9NO SEMESTRE\Microestructuras de Trading\MyST_LAB_3_E1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frida\Desktop\ITESO\9NO SEMESTRE\Microestructuras de Trading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F5830D-1C0F-4EB4-821B-586CE30E3D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F247BA1E-DD5D-427F-81BB-27F19CD5DDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="133">
   <si>
     <t xml:space="preserve">Operacion </t>
   </si>
@@ -369,15 +369,9 @@
     <t>2022.09.22 20:52:57</t>
   </si>
   <si>
-    <t>2022:09:22 21:01:36</t>
-  </si>
-  <si>
     <t>2022.09.22 21:28:13</t>
   </si>
   <si>
-    <t>2022:09:22 21:12:43</t>
-  </si>
-  <si>
     <t>2022.09.22 21:15:16</t>
   </si>
   <si>
@@ -399,18 +393,12 @@
     <t>2022.09.26 03:59:23</t>
   </si>
   <si>
-    <t>-50 483.64</t>
-  </si>
-  <si>
     <t>2022.09.23 17:35:26</t>
   </si>
   <si>
     <t>2022.09.26 04:00:05</t>
   </si>
   <si>
-    <t>-40 154.40</t>
-  </si>
-  <si>
     <t>2022.09.23 18:07:06</t>
   </si>
   <si>
@@ -439,6 +427,12 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>2022.09.22 21:01:36</t>
+  </si>
+  <si>
+    <t>2022.09.22 21:12:43</t>
   </si>
 </sst>
 </file>
@@ -695,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -773,9 +767,6 @@
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -788,9 +779,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -800,6 +788,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -815,6 +806,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1037,8 +1034,8 @@
   </sheetPr>
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1057,43 +1054,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="N1" s="19"/>
@@ -1504,7 +1501,7 @@
       <c r="H10" s="32">
         <v>0.98399999999999999</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="41" t="s">
         <v>103</v>
       </c>
       <c r="J10" s="28">
@@ -1551,7 +1548,7 @@
       <c r="H11" s="32">
         <v>144.107</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="41" t="s">
         <v>105</v>
       </c>
       <c r="J11" s="28">
@@ -1598,7 +1595,7 @@
       <c r="H12" s="32">
         <v>1.1276600000000001</v>
       </c>
-      <c r="I12" s="33" t="s">
+      <c r="I12" s="41" t="s">
         <v>107</v>
       </c>
       <c r="J12" s="28">
@@ -1645,7 +1642,7 @@
       <c r="H13" s="32">
         <v>162.46899999999999</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="41" t="s">
         <v>109</v>
       </c>
       <c r="J13" s="28">
@@ -1669,7 +1666,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B14" s="26">
         <v>78485270</v>
@@ -1692,7 +1689,7 @@
       <c r="H14" s="32">
         <v>0.98470000000000002</v>
       </c>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="41" t="s">
         <v>110</v>
       </c>
       <c r="J14" s="28">
@@ -1716,7 +1713,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="30" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B15" s="26">
         <v>78486054</v>
@@ -1739,8 +1736,8 @@
       <c r="H15" s="32">
         <v>0.97843000000000002</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>112</v>
+      <c r="I15" s="41" t="s">
+        <v>111</v>
       </c>
       <c r="J15" s="28">
         <v>0.97843000000000002</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="30" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B16" s="26">
         <v>78486421</v>
@@ -1786,8 +1783,8 @@
       <c r="H16" s="32">
         <v>160.19200000000001</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>114</v>
+      <c r="I16" s="41" t="s">
+        <v>112</v>
       </c>
       <c r="J16" s="28">
         <v>160.19200000000001</v>
@@ -1809,440 +1806,440 @@
       <c r="S16" s="19"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="35">
+      <c r="A17" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="34">
         <v>78522330</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="34">
         <v>2</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>0.97775999999999996</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>0</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>0.97867999999999999</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="35">
+      <c r="I17" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17" s="34">
         <v>0.97865999999999997</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="34">
         <v>0</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="34">
         <v>0</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="49">
         <v>-183.92</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="35">
+      <c r="A18" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="34">
         <v>78522498</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="34">
         <v>5</v>
       </c>
-      <c r="F18" s="35">
+      <c r="F18" s="34">
         <v>0.97797000000000001</v>
       </c>
-      <c r="G18" s="35">
+      <c r="G18" s="34">
         <v>0.97928999999999999</v>
       </c>
-      <c r="H18" s="35">
+      <c r="H18" s="34">
         <v>0.97892000000000001</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="35">
+      <c r="I18" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="34">
         <v>0.97928999999999999</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="34">
         <v>0</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18" s="34">
         <v>0</v>
       </c>
-      <c r="M18" s="35">
+      <c r="M18" s="49">
         <v>-673.96</v>
       </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="A19" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="34">
         <v>78523281</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="34">
         <v>10</v>
       </c>
-      <c r="F19" s="35">
+      <c r="F19" s="34">
         <v>157.387</v>
       </c>
-      <c r="G19" s="35">
+      <c r="G19" s="34">
         <v>0</v>
       </c>
-      <c r="H19" s="35">
+      <c r="H19" s="34">
         <v>157.38800000000001</v>
       </c>
-      <c r="I19" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="J19" s="35">
+      <c r="I19" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="34">
         <v>150.12200000000001</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="34">
         <v>0</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19" s="34">
         <v>0</v>
       </c>
-      <c r="M19" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="39"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
+      <c r="M19" s="50">
+        <v>-50483.64</v>
+      </c>
+      <c r="N19" s="37"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="35">
+      <c r="A20" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="34">
         <v>78523405</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>10</v>
       </c>
-      <c r="F20" s="35">
+      <c r="F20" s="34">
         <v>0.88614000000000004</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="34">
         <v>0</v>
       </c>
-      <c r="H20" s="35">
+      <c r="H20" s="34">
         <v>0.88163000000000002</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="35">
+      <c r="I20" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="34">
         <v>0.92488000000000004</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <v>0</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20" s="34">
         <v>0</v>
       </c>
-      <c r="M20" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="N20" s="39"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
+      <c r="M20" s="50">
+        <v>-40154.400000000001</v>
+      </c>
+      <c r="N20" s="37"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="35">
+      <c r="A21" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="34">
         <v>78524915</v>
       </c>
       <c r="C21" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>1</v>
       </c>
-      <c r="F21" s="35">
+      <c r="F21" s="34">
         <v>143.184</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="34">
         <v>0</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="34">
         <v>143.18899999999999</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J21" s="35">
+      <c r="I21" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="34">
         <v>143.18899999999999</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="34">
         <v>0</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21" s="34">
         <v>0</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="49">
         <v>3.49</v>
       </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="B22" s="35">
+      <c r="A22" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="34">
         <v>78599112</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>1</v>
       </c>
-      <c r="F22" s="35">
+      <c r="F22" s="34">
         <v>1.3729100000000001</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="34">
         <v>0</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <v>1.3728899999999999</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" s="35">
+      <c r="I22" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" s="34">
         <v>1.3728899999999999</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22" s="34">
         <v>0</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22" s="34">
         <v>0</v>
       </c>
-      <c r="M22" s="35">
+      <c r="M22" s="49">
         <v>1.46</v>
       </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="35">
+      <c r="A23" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="34">
         <v>78599447</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>1</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="34">
         <v>0.89771000000000001</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="34">
         <v>0.9</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="34">
         <v>0.89770000000000005</v>
       </c>
-      <c r="I23" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J23" s="35">
+      <c r="I23" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" s="34">
         <v>0.90005000000000002</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23" s="34">
         <v>0</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23" s="34">
         <v>0</v>
       </c>
-      <c r="M23" s="35">
+      <c r="M23" s="49">
         <v>-250.22</v>
       </c>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="37"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="35">
+      <c r="A24" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" s="34">
         <v>78599555</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>1</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="34">
         <v>0.99319999999999997</v>
       </c>
-      <c r="G24" s="35">
+      <c r="G24" s="34">
         <v>0</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H24" s="34">
         <v>0.99321000000000004</v>
       </c>
-      <c r="I24" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="J24" s="35">
+      <c r="I24" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="34">
         <v>0.99321000000000004</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24" s="34">
         <v>0</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24" s="34">
         <v>0</v>
       </c>
-      <c r="M24" s="35">
+      <c r="M24" s="49">
         <v>1.01</v>
       </c>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="37"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="27"/>
-      <c r="B25" s="40"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
@@ -2311,7 +2308,7 @@
       <c r="S27" s="19"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="41"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
@@ -2595,7 +2592,7 @@
       <c r="D2" s="4">
         <v>0.87666999999999995</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="5"/>
@@ -2615,7 +2612,7 @@
       <c r="D3" s="6">
         <v>0.878</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2633,48 +2630,48 @@
       <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="12.75">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="5"/>
@@ -2687,92 +2684,92 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" ht="12.75">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="15" spans="1:8" ht="12.75">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="12.75">
       <c r="A19" s="8"/>
@@ -2780,51 +2777,51 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" ht="12.75">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="J21" s="10">
         <v>110.56402</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="12.75">
       <c r="E24" s="9"/>
@@ -2842,7 +2839,7 @@
       <c r="D25" s="3">
         <v>1.1431899999999999</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="46" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2859,7 +2856,7 @@
       <c r="D26" s="3">
         <v>1.14419</v>
       </c>
-      <c r="E26" s="44"/>
+      <c r="E26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="12.75">
       <c r="A27" s="5"/>
@@ -2874,48 +2871,48 @@
       <c r="H27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="12.75">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
     </row>
     <row r="32" spans="1:10" ht="12.75">
       <c r="A32" s="5"/>
@@ -2928,140 +2925,140 @@
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" ht="12.75">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
     </row>
     <row r="38" spans="1:8" ht="12.75">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="44"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="44"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
     </row>
     <row r="43" spans="1:8" ht="12.75">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -3076,7 +3073,7 @@
       <c r="D48" s="5">
         <v>0.98380999999999996</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="42" t="s">
         <v>25</v>
       </c>
       <c r="F48" s="11"/>
@@ -3096,7 +3093,7 @@
       <c r="D49" s="5">
         <v>0.98392000000000002</v>
       </c>
-      <c r="E49" s="44"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3114,48 +3111,48 @@
       <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" ht="12.75">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="44"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="44"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="44"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="5"/>
@@ -3168,140 +3165,140 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="12.75">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="46" t="s">
+      <c r="B56" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="44"/>
-      <c r="H56" s="44"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="44"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
     </row>
     <row r="61" spans="1:8" ht="12.75">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="44"/>
-      <c r="H61" s="44"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="44"/>
-      <c r="H63" s="44"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
     </row>
     <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
     </row>
     <row r="66" spans="1:8" ht="12.75">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
@@ -3316,7 +3313,7 @@
       <c r="D71" s="5">
         <v>144.10599999999999</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3333,7 +3330,7 @@
       <c r="D72" s="5">
         <v>144.107</v>
       </c>
-      <c r="E72" s="44"/>
+      <c r="E72" s="43"/>
     </row>
     <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="5"/>
@@ -3348,48 +3345,48 @@
       <c r="H73" s="5"/>
     </row>
     <row r="74" spans="1:8" ht="12.75">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B74" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="44"/>
-      <c r="H74" s="44"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
     </row>
     <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="5"/>
@@ -3402,140 +3399,140 @@
       <c r="H78" s="5"/>
     </row>
     <row r="79" spans="1:8" ht="12.75">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B79" s="46" t="s">
+      <c r="B79" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="44"/>
-      <c r="D79" s="44"/>
-      <c r="E79" s="44"/>
-      <c r="F79" s="44"/>
-      <c r="G79" s="44"/>
-      <c r="H79" s="44"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
-      <c r="F80" s="44"/>
-      <c r="G80" s="44"/>
-      <c r="H80" s="44"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-      <c r="G81" s="44"/>
-      <c r="H81" s="44"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
     </row>
     <row r="84" spans="1:8" ht="12.75">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
     </row>
     <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="8"/>
       <c r="B88" s="8"/>
     </row>
     <row r="89" spans="1:8" ht="12.75">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="44"/>
-      <c r="H89" s="44"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="44"/>
-      <c r="E90" s="44"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="44"/>
-      <c r="H90" s="44"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
-      <c r="F91" s="44"/>
-      <c r="G91" s="44"/>
-      <c r="H91" s="44"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
@@ -3550,7 +3547,7 @@
       <c r="D94" s="5">
         <v>1.12765</v>
       </c>
-      <c r="E94" s="45" t="s">
+      <c r="E94" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3567,7 +3564,7 @@
       <c r="D95" s="5">
         <v>1.1276900000000001</v>
       </c>
-      <c r="E95" s="44"/>
+      <c r="E95" s="43"/>
     </row>
     <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="5"/>
@@ -3582,48 +3579,48 @@
       <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" ht="12.75">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="44"/>
-      <c r="D97" s="44"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44"/>
-      <c r="G97" s="44"/>
-      <c r="H97" s="44"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="44"/>
-      <c r="E98" s="44"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="44"/>
-      <c r="H98" s="44"/>
+      <c r="A98" s="43"/>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="44"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="44"/>
-      <c r="G99" s="44"/>
-      <c r="H99" s="44"/>
+      <c r="A99" s="43"/>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="44"/>
-      <c r="E100" s="44"/>
-      <c r="F100" s="44"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="44"/>
+      <c r="A100" s="43"/>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
     </row>
     <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="5"/>
@@ -3636,140 +3633,140 @@
       <c r="H101" s="5"/>
     </row>
     <row r="102" spans="1:8" ht="12.75">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
+      <c r="E102" s="43"/>
+      <c r="F102" s="43"/>
+      <c r="G102" s="43"/>
+      <c r="H102" s="43"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44"/>
-      <c r="G103" s="44"/>
-      <c r="H103" s="44"/>
+      <c r="A103" s="43"/>
+      <c r="B103" s="43"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="43"/>
+      <c r="G103" s="43"/>
+      <c r="H103" s="43"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A104" s="44"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
+      <c r="A104" s="43"/>
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43"/>
+      <c r="F104" s="43"/>
+      <c r="G104" s="43"/>
+      <c r="H104" s="43"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="44"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="44"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="44"/>
+      <c r="A105" s="43"/>
+      <c r="B105" s="43"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="43"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="43"/>
     </row>
     <row r="107" spans="1:8" ht="12.75">
-      <c r="A107" s="43" t="s">
+      <c r="A107" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="44"/>
-      <c r="D107" s="44"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="44"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="43"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="44"/>
-      <c r="E108" s="44"/>
-      <c r="F108" s="44"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="44"/>
+      <c r="A108" s="43"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="43"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="44"/>
-      <c r="F109" s="44"/>
-      <c r="G109" s="44"/>
-      <c r="H109" s="44"/>
+      <c r="A109" s="43"/>
+      <c r="B109" s="43"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
+      <c r="E109" s="43"/>
+      <c r="F109" s="43"/>
+      <c r="G109" s="43"/>
+      <c r="H109" s="43"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="44"/>
-      <c r="H110" s="44"/>
+      <c r="A110" s="43"/>
+      <c r="B110" s="43"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
     </row>
     <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="8"/>
       <c r="B111" s="8"/>
     </row>
     <row r="112" spans="1:8" ht="12.75">
-      <c r="A112" s="43" t="s">
+      <c r="A112" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C112" s="44"/>
-      <c r="D112" s="44"/>
-      <c r="E112" s="44"/>
-      <c r="F112" s="44"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="44"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
+      <c r="E112" s="43"/>
+      <c r="F112" s="43"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="43"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="44"/>
-      <c r="E113" s="44"/>
-      <c r="F113" s="44"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="44"/>
+      <c r="A113" s="43"/>
+      <c r="B113" s="43"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="43"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="43"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A114" s="44"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="44"/>
-      <c r="E114" s="44"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="44"/>
-      <c r="H114" s="44"/>
+      <c r="A114" s="43"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A115" s="44"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
+      <c r="A115" s="43"/>
+      <c r="B115" s="43"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="43"/>
+      <c r="H115" s="43"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1" t="s">
@@ -3784,7 +3781,7 @@
       <c r="D117" s="5">
         <v>162.46799999999999</v>
       </c>
-      <c r="E117" s="45" t="s">
+      <c r="E117" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3801,7 +3798,7 @@
       <c r="D118" s="5">
         <v>162.47</v>
       </c>
-      <c r="E118" s="44"/>
+      <c r="E118" s="43"/>
     </row>
     <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="5"/>
@@ -3816,48 +3813,48 @@
       <c r="H119" s="5"/>
     </row>
     <row r="120" spans="1:8" ht="12.75">
-      <c r="A120" s="46" t="s">
+      <c r="A120" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="44"/>
-      <c r="D120" s="44"/>
-      <c r="E120" s="44"/>
-      <c r="F120" s="44"/>
-      <c r="G120" s="44"/>
-      <c r="H120" s="44"/>
+      <c r="C120" s="43"/>
+      <c r="D120" s="43"/>
+      <c r="E120" s="43"/>
+      <c r="F120" s="43"/>
+      <c r="G120" s="43"/>
+      <c r="H120" s="43"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A121" s="44"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="44"/>
-      <c r="D121" s="44"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
+      <c r="A121" s="43"/>
+      <c r="B121" s="43"/>
+      <c r="C121" s="43"/>
+      <c r="D121" s="43"/>
+      <c r="E121" s="43"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="43"/>
+      <c r="H121" s="43"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A122" s="44"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="44"/>
-      <c r="D122" s="44"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="44"/>
-      <c r="H122" s="44"/>
+      <c r="A122" s="43"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="43"/>
+      <c r="H122" s="43"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A123" s="44"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="44"/>
-      <c r="G123" s="44"/>
-      <c r="H123" s="44"/>
+      <c r="A123" s="43"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="43"/>
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
     </row>
     <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="5"/>
@@ -3870,140 +3867,140 @@
       <c r="H124" s="5"/>
     </row>
     <row r="125" spans="1:8" ht="12.75">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B125" s="46" t="s">
+      <c r="B125" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C125" s="44"/>
-      <c r="D125" s="44"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="44"/>
-      <c r="H125" s="44"/>
+      <c r="C125" s="43"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="43"/>
+      <c r="F125" s="43"/>
+      <c r="G125" s="43"/>
+      <c r="H125" s="43"/>
     </row>
     <row r="126" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A126" s="44"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
-      <c r="D126" s="44"/>
-      <c r="E126" s="44"/>
-      <c r="F126" s="44"/>
-      <c r="G126" s="44"/>
-      <c r="H126" s="44"/>
+      <c r="A126" s="43"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="43"/>
+      <c r="D126" s="43"/>
+      <c r="E126" s="43"/>
+      <c r="F126" s="43"/>
+      <c r="G126" s="43"/>
+      <c r="H126" s="43"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A127" s="44"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="44"/>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="44"/>
-      <c r="H127" s="44"/>
+      <c r="A127" s="43"/>
+      <c r="B127" s="43"/>
+      <c r="C127" s="43"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43"/>
+      <c r="G127" s="43"/>
+      <c r="H127" s="43"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A128" s="44"/>
-      <c r="B128" s="44"/>
-      <c r="C128" s="44"/>
-      <c r="D128" s="44"/>
-      <c r="E128" s="44"/>
-      <c r="F128" s="44"/>
-      <c r="G128" s="44"/>
-      <c r="H128" s="44"/>
+      <c r="A128" s="43"/>
+      <c r="B128" s="43"/>
+      <c r="C128" s="43"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43"/>
+      <c r="G128" s="43"/>
+      <c r="H128" s="43"/>
     </row>
     <row r="130" spans="1:8" ht="12.75">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B130" s="43" t="s">
+      <c r="B130" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="44"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="44"/>
+      <c r="C130" s="43"/>
+      <c r="D130" s="43"/>
+      <c r="E130" s="43"/>
+      <c r="F130" s="43"/>
+      <c r="G130" s="43"/>
+      <c r="H130" s="43"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="44"/>
-      <c r="E131" s="44"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="44"/>
+      <c r="A131" s="43"/>
+      <c r="B131" s="43"/>
+      <c r="C131" s="43"/>
+      <c r="D131" s="43"/>
+      <c r="E131" s="43"/>
+      <c r="F131" s="43"/>
+      <c r="G131" s="43"/>
+      <c r="H131" s="43"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="44"/>
-      <c r="E132" s="44"/>
-      <c r="F132" s="44"/>
-      <c r="G132" s="44"/>
-      <c r="H132" s="44"/>
+      <c r="A132" s="43"/>
+      <c r="B132" s="43"/>
+      <c r="C132" s="43"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="43"/>
+      <c r="G132" s="43"/>
+      <c r="H132" s="43"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
-      <c r="C133" s="44"/>
-      <c r="D133" s="44"/>
-      <c r="E133" s="44"/>
-      <c r="F133" s="44"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
+      <c r="A133" s="43"/>
+      <c r="B133" s="43"/>
+      <c r="C133" s="43"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="43"/>
+      <c r="F133" s="43"/>
+      <c r="G133" s="43"/>
+      <c r="H133" s="43"/>
     </row>
     <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="8"/>
       <c r="B134" s="8"/>
     </row>
     <row r="135" spans="1:8" ht="12.75">
-      <c r="A135" s="43" t="s">
+      <c r="A135" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B135" s="43" t="s">
+      <c r="B135" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C135" s="44"/>
-      <c r="D135" s="44"/>
-      <c r="E135" s="44"/>
-      <c r="F135" s="44"/>
-      <c r="G135" s="44"/>
-      <c r="H135" s="44"/>
+      <c r="C135" s="43"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="43"/>
+      <c r="G135" s="43"/>
+      <c r="H135" s="43"/>
     </row>
     <row r="136" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="44"/>
-      <c r="E136" s="44"/>
-      <c r="F136" s="44"/>
-      <c r="G136" s="44"/>
-      <c r="H136" s="44"/>
+      <c r="A136" s="43"/>
+      <c r="B136" s="43"/>
+      <c r="C136" s="43"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43"/>
+      <c r="H136" s="43"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="44"/>
-      <c r="F137" s="44"/>
-      <c r="G137" s="44"/>
-      <c r="H137" s="44"/>
+      <c r="A137" s="43"/>
+      <c r="B137" s="43"/>
+      <c r="C137" s="43"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="43"/>
+      <c r="F137" s="43"/>
+      <c r="G137" s="43"/>
+      <c r="H137" s="43"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="44"/>
-      <c r="D138" s="44"/>
-      <c r="E138" s="44"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
+      <c r="A138" s="43"/>
+      <c r="B138" s="43"/>
+      <c r="C138" s="43"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="43"/>
+      <c r="F138" s="43"/>
+      <c r="G138" s="43"/>
+      <c r="H138" s="43"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="1" t="s">
@@ -4018,7 +4015,7 @@
       <c r="D140" s="5">
         <v>0.98468999999999995</v>
       </c>
-      <c r="E140" s="45" t="s">
+      <c r="E140" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4035,7 +4032,7 @@
       <c r="D141" s="5">
         <v>0.98470000000000002</v>
       </c>
-      <c r="E141" s="44"/>
+      <c r="E141" s="43"/>
     </row>
     <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="5"/>
@@ -4050,48 +4047,48 @@
       <c r="H142" s="5"/>
     </row>
     <row r="143" spans="1:8" ht="12.75">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="46" t="s">
+      <c r="B143" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C143" s="44"/>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
+      <c r="C143" s="43"/>
+      <c r="D143" s="43"/>
+      <c r="E143" s="43"/>
+      <c r="F143" s="43"/>
+      <c r="G143" s="43"/>
+      <c r="H143" s="43"/>
     </row>
     <row r="144" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="44"/>
-      <c r="F144" s="44"/>
-      <c r="G144" s="44"/>
-      <c r="H144" s="44"/>
+      <c r="A144" s="43"/>
+      <c r="B144" s="43"/>
+      <c r="C144" s="43"/>
+      <c r="D144" s="43"/>
+      <c r="E144" s="43"/>
+      <c r="F144" s="43"/>
+      <c r="G144" s="43"/>
+      <c r="H144" s="43"/>
     </row>
     <row r="145" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="44"/>
-      <c r="D145" s="44"/>
-      <c r="E145" s="44"/>
-      <c r="F145" s="44"/>
-      <c r="G145" s="44"/>
-      <c r="H145" s="44"/>
+      <c r="A145" s="43"/>
+      <c r="B145" s="43"/>
+      <c r="C145" s="43"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="43"/>
+      <c r="F145" s="43"/>
+      <c r="G145" s="43"/>
+      <c r="H145" s="43"/>
     </row>
     <row r="146" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="44"/>
-      <c r="D146" s="44"/>
-      <c r="E146" s="44"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="44"/>
-      <c r="H146" s="44"/>
+      <c r="A146" s="43"/>
+      <c r="B146" s="43"/>
+      <c r="C146" s="43"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="43"/>
+      <c r="F146" s="43"/>
+      <c r="G146" s="43"/>
+      <c r="H146" s="43"/>
     </row>
     <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="5"/>
@@ -4104,140 +4101,140 @@
       <c r="H147" s="5"/>
     </row>
     <row r="148" spans="1:8" ht="12.75">
-      <c r="A148" s="43" t="s">
+      <c r="A148" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B148" s="46" t="s">
+      <c r="B148" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C148" s="44"/>
-      <c r="D148" s="44"/>
-      <c r="E148" s="44"/>
-      <c r="F148" s="44"/>
-      <c r="G148" s="44"/>
-      <c r="H148" s="44"/>
+      <c r="C148" s="43"/>
+      <c r="D148" s="43"/>
+      <c r="E148" s="43"/>
+      <c r="F148" s="43"/>
+      <c r="G148" s="43"/>
+      <c r="H148" s="43"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="44"/>
-      <c r="D149" s="44"/>
-      <c r="E149" s="44"/>
-      <c r="F149" s="44"/>
-      <c r="G149" s="44"/>
-      <c r="H149" s="44"/>
+      <c r="A149" s="43"/>
+      <c r="B149" s="43"/>
+      <c r="C149" s="43"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="44"/>
-      <c r="D150" s="44"/>
-      <c r="E150" s="44"/>
-      <c r="F150" s="44"/>
-      <c r="G150" s="44"/>
-      <c r="H150" s="44"/>
+      <c r="A150" s="43"/>
+      <c r="B150" s="43"/>
+      <c r="C150" s="43"/>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="44"/>
-      <c r="E151" s="44"/>
-      <c r="F151" s="44"/>
-      <c r="G151" s="44"/>
-      <c r="H151" s="44"/>
+      <c r="A151" s="43"/>
+      <c r="B151" s="43"/>
+      <c r="C151" s="43"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
     </row>
     <row r="153" spans="1:8" ht="12.75">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C153" s="44"/>
-      <c r="D153" s="44"/>
-      <c r="E153" s="44"/>
-      <c r="F153" s="44"/>
-      <c r="G153" s="44"/>
-      <c r="H153" s="44"/>
+      <c r="C153" s="43"/>
+      <c r="D153" s="43"/>
+      <c r="E153" s="43"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="43"/>
+      <c r="H153" s="43"/>
     </row>
     <row r="154" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="44"/>
-      <c r="E154" s="44"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="44"/>
+      <c r="A154" s="43"/>
+      <c r="B154" s="43"/>
+      <c r="C154" s="43"/>
+      <c r="D154" s="43"/>
+      <c r="E154" s="43"/>
+      <c r="F154" s="43"/>
+      <c r="G154" s="43"/>
+      <c r="H154" s="43"/>
     </row>
     <row r="155" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="44"/>
-      <c r="E155" s="44"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="44"/>
+      <c r="A155" s="43"/>
+      <c r="B155" s="43"/>
+      <c r="C155" s="43"/>
+      <c r="D155" s="43"/>
+      <c r="E155" s="43"/>
+      <c r="F155" s="43"/>
+      <c r="G155" s="43"/>
+      <c r="H155" s="43"/>
     </row>
     <row r="156" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A156" s="44"/>
-      <c r="B156" s="44"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="44"/>
-      <c r="E156" s="44"/>
-      <c r="F156" s="44"/>
-      <c r="G156" s="44"/>
-      <c r="H156" s="44"/>
+      <c r="A156" s="43"/>
+      <c r="B156" s="43"/>
+      <c r="C156" s="43"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="43"/>
+      <c r="F156" s="43"/>
+      <c r="G156" s="43"/>
+      <c r="H156" s="43"/>
     </row>
     <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="8"/>
       <c r="B157" s="8"/>
     </row>
     <row r="158" spans="1:8" ht="12.75">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C158" s="44"/>
-      <c r="D158" s="44"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="44"/>
-      <c r="H158" s="44"/>
+      <c r="C158" s="43"/>
+      <c r="D158" s="43"/>
+      <c r="E158" s="43"/>
+      <c r="F158" s="43"/>
+      <c r="G158" s="43"/>
+      <c r="H158" s="43"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A159" s="44"/>
-      <c r="B159" s="44"/>
-      <c r="C159" s="44"/>
-      <c r="D159" s="44"/>
-      <c r="E159" s="44"/>
-      <c r="F159" s="44"/>
-      <c r="G159" s="44"/>
-      <c r="H159" s="44"/>
+      <c r="A159" s="43"/>
+      <c r="B159" s="43"/>
+      <c r="C159" s="43"/>
+      <c r="D159" s="43"/>
+      <c r="E159" s="43"/>
+      <c r="F159" s="43"/>
+      <c r="G159" s="43"/>
+      <c r="H159" s="43"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A160" s="44"/>
-      <c r="B160" s="44"/>
-      <c r="C160" s="44"/>
-      <c r="D160" s="44"/>
-      <c r="E160" s="44"/>
-      <c r="F160" s="44"/>
-      <c r="G160" s="44"/>
-      <c r="H160" s="44"/>
+      <c r="A160" s="43"/>
+      <c r="B160" s="43"/>
+      <c r="C160" s="43"/>
+      <c r="D160" s="43"/>
+      <c r="E160" s="43"/>
+      <c r="F160" s="43"/>
+      <c r="G160" s="43"/>
+      <c r="H160" s="43"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
-      <c r="C161" s="44"/>
-      <c r="D161" s="44"/>
-      <c r="E161" s="44"/>
-      <c r="F161" s="44"/>
-      <c r="G161" s="44"/>
-      <c r="H161" s="44"/>
+      <c r="A161" s="43"/>
+      <c r="B161" s="43"/>
+      <c r="C161" s="43"/>
+      <c r="D161" s="43"/>
+      <c r="E161" s="43"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="43"/>
+      <c r="H161" s="43"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="1" t="s">
@@ -4252,7 +4249,7 @@
       <c r="D163" s="5">
         <v>0.97848000000000002</v>
       </c>
-      <c r="E163" s="45" t="s">
+      <c r="E163" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F163" s="12"/>
@@ -4270,7 +4267,7 @@
       <c r="D164" s="5">
         <v>0.97843000000000002</v>
       </c>
-      <c r="E164" s="44"/>
+      <c r="E164" s="43"/>
     </row>
     <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="5"/>
@@ -4285,48 +4282,48 @@
       <c r="H165" s="5"/>
     </row>
     <row r="166" spans="1:8" ht="12.75">
-      <c r="A166" s="46" t="s">
+      <c r="A166" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B166" s="46" t="s">
+      <c r="B166" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C166" s="44"/>
-      <c r="D166" s="44"/>
-      <c r="E166" s="44"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="44"/>
+      <c r="C166" s="43"/>
+      <c r="D166" s="43"/>
+      <c r="E166" s="43"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="43"/>
+      <c r="H166" s="43"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A167" s="44"/>
-      <c r="B167" s="44"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="44"/>
-      <c r="E167" s="44"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="44"/>
+      <c r="A167" s="43"/>
+      <c r="B167" s="43"/>
+      <c r="C167" s="43"/>
+      <c r="D167" s="43"/>
+      <c r="E167" s="43"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="43"/>
+      <c r="H167" s="43"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A168" s="44"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="44"/>
-      <c r="E168" s="44"/>
-      <c r="F168" s="44"/>
-      <c r="G168" s="44"/>
-      <c r="H168" s="44"/>
+      <c r="A168" s="43"/>
+      <c r="B168" s="43"/>
+      <c r="C168" s="43"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="43"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="43"/>
+      <c r="H168" s="43"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A169" s="44"/>
-      <c r="B169" s="44"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="44"/>
-      <c r="E169" s="44"/>
-      <c r="F169" s="44"/>
-      <c r="G169" s="44"/>
-      <c r="H169" s="44"/>
+      <c r="A169" s="43"/>
+      <c r="B169" s="43"/>
+      <c r="C169" s="43"/>
+      <c r="D169" s="43"/>
+      <c r="E169" s="43"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="43"/>
+      <c r="H169" s="43"/>
     </row>
     <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="5"/>
@@ -4339,140 +4336,140 @@
       <c r="H170" s="5"/>
     </row>
     <row r="171" spans="1:8" ht="12.75">
-      <c r="A171" s="43" t="s">
+      <c r="A171" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B171" s="46" t="s">
+      <c r="B171" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C171" s="44"/>
-      <c r="D171" s="44"/>
-      <c r="E171" s="44"/>
-      <c r="F171" s="44"/>
-      <c r="G171" s="44"/>
-      <c r="H171" s="44"/>
+      <c r="C171" s="43"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="43"/>
+      <c r="F171" s="43"/>
+      <c r="G171" s="43"/>
+      <c r="H171" s="43"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A172" s="44"/>
-      <c r="B172" s="44"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="44"/>
-      <c r="E172" s="44"/>
-      <c r="F172" s="44"/>
-      <c r="G172" s="44"/>
-      <c r="H172" s="44"/>
+      <c r="A172" s="43"/>
+      <c r="B172" s="43"/>
+      <c r="C172" s="43"/>
+      <c r="D172" s="43"/>
+      <c r="E172" s="43"/>
+      <c r="F172" s="43"/>
+      <c r="G172" s="43"/>
+      <c r="H172" s="43"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A173" s="44"/>
-      <c r="B173" s="44"/>
-      <c r="C173" s="44"/>
-      <c r="D173" s="44"/>
-      <c r="E173" s="44"/>
-      <c r="F173" s="44"/>
-      <c r="G173" s="44"/>
-      <c r="H173" s="44"/>
+      <c r="A173" s="43"/>
+      <c r="B173" s="43"/>
+      <c r="C173" s="43"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="43"/>
+      <c r="F173" s="43"/>
+      <c r="G173" s="43"/>
+      <c r="H173" s="43"/>
     </row>
     <row r="174" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A174" s="44"/>
-      <c r="B174" s="44"/>
-      <c r="C174" s="44"/>
-      <c r="D174" s="44"/>
-      <c r="E174" s="44"/>
-      <c r="F174" s="44"/>
-      <c r="G174" s="44"/>
-      <c r="H174" s="44"/>
+      <c r="A174" s="43"/>
+      <c r="B174" s="43"/>
+      <c r="C174" s="43"/>
+      <c r="D174" s="43"/>
+      <c r="E174" s="43"/>
+      <c r="F174" s="43"/>
+      <c r="G174" s="43"/>
+      <c r="H174" s="43"/>
     </row>
     <row r="176" spans="1:8" ht="12.75">
-      <c r="A176" s="43" t="s">
+      <c r="A176" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="C176" s="44"/>
-      <c r="D176" s="44"/>
-      <c r="E176" s="44"/>
-      <c r="F176" s="44"/>
-      <c r="G176" s="44"/>
-      <c r="H176" s="44"/>
+      <c r="C176" s="43"/>
+      <c r="D176" s="43"/>
+      <c r="E176" s="43"/>
+      <c r="F176" s="43"/>
+      <c r="G176" s="43"/>
+      <c r="H176" s="43"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A177" s="44"/>
-      <c r="B177" s="44"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="44"/>
-      <c r="E177" s="44"/>
-      <c r="F177" s="44"/>
-      <c r="G177" s="44"/>
-      <c r="H177" s="44"/>
+      <c r="A177" s="43"/>
+      <c r="B177" s="43"/>
+      <c r="C177" s="43"/>
+      <c r="D177" s="43"/>
+      <c r="E177" s="43"/>
+      <c r="F177" s="43"/>
+      <c r="G177" s="43"/>
+      <c r="H177" s="43"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A178" s="44"/>
-      <c r="B178" s="44"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="44"/>
+      <c r="A178" s="43"/>
+      <c r="B178" s="43"/>
+      <c r="C178" s="43"/>
+      <c r="D178" s="43"/>
+      <c r="E178" s="43"/>
+      <c r="F178" s="43"/>
+      <c r="G178" s="43"/>
+      <c r="H178" s="43"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A179" s="44"/>
-      <c r="B179" s="44"/>
-      <c r="C179" s="44"/>
-      <c r="D179" s="44"/>
-      <c r="E179" s="44"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="44"/>
+      <c r="A179" s="43"/>
+      <c r="B179" s="43"/>
+      <c r="C179" s="43"/>
+      <c r="D179" s="43"/>
+      <c r="E179" s="43"/>
+      <c r="F179" s="43"/>
+      <c r="G179" s="43"/>
+      <c r="H179" s="43"/>
     </row>
     <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="8"/>
       <c r="B180" s="8"/>
     </row>
     <row r="181" spans="1:8" ht="12.75">
-      <c r="A181" s="43" t="s">
+      <c r="A181" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B181" s="43" t="s">
+      <c r="B181" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C181" s="44"/>
-      <c r="D181" s="44"/>
-      <c r="E181" s="44"/>
-      <c r="F181" s="44"/>
-      <c r="G181" s="44"/>
-      <c r="H181" s="44"/>
+      <c r="C181" s="43"/>
+      <c r="D181" s="43"/>
+      <c r="E181" s="43"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="43"/>
+      <c r="H181" s="43"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A182" s="44"/>
-      <c r="B182" s="44"/>
-      <c r="C182" s="44"/>
-      <c r="D182" s="44"/>
-      <c r="E182" s="44"/>
-      <c r="F182" s="44"/>
-      <c r="G182" s="44"/>
-      <c r="H182" s="44"/>
+      <c r="A182" s="43"/>
+      <c r="B182" s="43"/>
+      <c r="C182" s="43"/>
+      <c r="D182" s="43"/>
+      <c r="E182" s="43"/>
+      <c r="F182" s="43"/>
+      <c r="G182" s="43"/>
+      <c r="H182" s="43"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A183" s="44"/>
-      <c r="B183" s="44"/>
-      <c r="C183" s="44"/>
-      <c r="D183" s="44"/>
-      <c r="E183" s="44"/>
-      <c r="F183" s="44"/>
-      <c r="G183" s="44"/>
-      <c r="H183" s="44"/>
+      <c r="A183" s="43"/>
+      <c r="B183" s="43"/>
+      <c r="C183" s="43"/>
+      <c r="D183" s="43"/>
+      <c r="E183" s="43"/>
+      <c r="F183" s="43"/>
+      <c r="G183" s="43"/>
+      <c r="H183" s="43"/>
     </row>
     <row r="184" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A184" s="44"/>
-      <c r="B184" s="44"/>
-      <c r="C184" s="44"/>
-      <c r="D184" s="44"/>
-      <c r="E184" s="44"/>
-      <c r="F184" s="44"/>
-      <c r="G184" s="44"/>
-      <c r="H184" s="44"/>
+      <c r="A184" s="43"/>
+      <c r="B184" s="43"/>
+      <c r="C184" s="43"/>
+      <c r="D184" s="43"/>
+      <c r="E184" s="43"/>
+      <c r="F184" s="43"/>
+      <c r="G184" s="43"/>
+      <c r="H184" s="43"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="1" t="s">
@@ -4487,7 +4484,7 @@
       <c r="D186" s="5">
         <v>160.19399999999999</v>
       </c>
-      <c r="E186" s="45" t="s">
+      <c r="E186" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F186" s="9"/>
@@ -4505,7 +4502,7 @@
       <c r="D187" s="5">
         <v>160.19200000000001</v>
       </c>
-      <c r="E187" s="44"/>
+      <c r="E187" s="43"/>
     </row>
     <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="5"/>
@@ -4520,48 +4517,48 @@
       <c r="H188" s="5"/>
     </row>
     <row r="189" spans="1:8" ht="12.75">
-      <c r="A189" s="46" t="s">
+      <c r="A189" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B189" s="46" t="s">
+      <c r="B189" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C189" s="44"/>
-      <c r="D189" s="44"/>
-      <c r="E189" s="44"/>
-      <c r="F189" s="44"/>
-      <c r="G189" s="44"/>
-      <c r="H189" s="44"/>
+      <c r="C189" s="43"/>
+      <c r="D189" s="43"/>
+      <c r="E189" s="43"/>
+      <c r="F189" s="43"/>
+      <c r="G189" s="43"/>
+      <c r="H189" s="43"/>
     </row>
     <row r="190" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A190" s="44"/>
-      <c r="B190" s="44"/>
-      <c r="C190" s="44"/>
-      <c r="D190" s="44"/>
-      <c r="E190" s="44"/>
-      <c r="F190" s="44"/>
-      <c r="G190" s="44"/>
-      <c r="H190" s="44"/>
+      <c r="A190" s="43"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="43"/>
+      <c r="D190" s="43"/>
+      <c r="E190" s="43"/>
+      <c r="F190" s="43"/>
+      <c r="G190" s="43"/>
+      <c r="H190" s="43"/>
     </row>
     <row r="191" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A191" s="44"/>
-      <c r="B191" s="44"/>
-      <c r="C191" s="44"/>
-      <c r="D191" s="44"/>
-      <c r="E191" s="44"/>
-      <c r="F191" s="44"/>
-      <c r="G191" s="44"/>
-      <c r="H191" s="44"/>
+      <c r="A191" s="43"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="43"/>
+      <c r="D191" s="43"/>
+      <c r="E191" s="43"/>
+      <c r="F191" s="43"/>
+      <c r="G191" s="43"/>
+      <c r="H191" s="43"/>
     </row>
     <row r="192" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A192" s="44"/>
-      <c r="B192" s="44"/>
-      <c r="C192" s="44"/>
-      <c r="D192" s="44"/>
-      <c r="E192" s="44"/>
-      <c r="F192" s="44"/>
-      <c r="G192" s="44"/>
-      <c r="H192" s="44"/>
+      <c r="A192" s="43"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="43"/>
+      <c r="D192" s="43"/>
+      <c r="E192" s="43"/>
+      <c r="F192" s="43"/>
+      <c r="G192" s="43"/>
+      <c r="H192" s="43"/>
     </row>
     <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="5"/>
@@ -4574,140 +4571,140 @@
       <c r="H193" s="5"/>
     </row>
     <row r="194" spans="1:8" ht="12.75">
-      <c r="A194" s="43" t="s">
+      <c r="A194" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="B194" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C194" s="44"/>
-      <c r="D194" s="44"/>
-      <c r="E194" s="44"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="44"/>
-      <c r="H194" s="44"/>
+      <c r="C194" s="43"/>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="43"/>
+      <c r="H194" s="43"/>
     </row>
     <row r="195" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A195" s="44"/>
-      <c r="B195" s="44"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="44"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="44"/>
-      <c r="H195" s="44"/>
+      <c r="A195" s="43"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="43"/>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="43"/>
+      <c r="H195" s="43"/>
     </row>
     <row r="196" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A196" s="44"/>
-      <c r="B196" s="44"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="44"/>
-      <c r="E196" s="44"/>
-      <c r="F196" s="44"/>
-      <c r="G196" s="44"/>
-      <c r="H196" s="44"/>
+      <c r="A196" s="43"/>
+      <c r="B196" s="43"/>
+      <c r="C196" s="43"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="43"/>
+      <c r="H196" s="43"/>
     </row>
     <row r="197" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A197" s="44"/>
-      <c r="B197" s="44"/>
-      <c r="C197" s="44"/>
-      <c r="D197" s="44"/>
-      <c r="E197" s="44"/>
-      <c r="F197" s="44"/>
-      <c r="G197" s="44"/>
-      <c r="H197" s="44"/>
+      <c r="A197" s="43"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="43"/>
+      <c r="D197" s="43"/>
+      <c r="E197" s="43"/>
+      <c r="F197" s="43"/>
+      <c r="G197" s="43"/>
+      <c r="H197" s="43"/>
     </row>
     <row r="199" spans="1:8" ht="12.75">
-      <c r="A199" s="43" t="s">
+      <c r="A199" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B199" s="43" t="s">
+      <c r="B199" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C199" s="44"/>
-      <c r="D199" s="44"/>
-      <c r="E199" s="44"/>
-      <c r="F199" s="44"/>
-      <c r="G199" s="44"/>
-      <c r="H199" s="44"/>
+      <c r="C199" s="43"/>
+      <c r="D199" s="43"/>
+      <c r="E199" s="43"/>
+      <c r="F199" s="43"/>
+      <c r="G199" s="43"/>
+      <c r="H199" s="43"/>
     </row>
     <row r="200" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A200" s="44"/>
-      <c r="B200" s="44"/>
-      <c r="C200" s="44"/>
-      <c r="D200" s="44"/>
-      <c r="E200" s="44"/>
-      <c r="F200" s="44"/>
-      <c r="G200" s="44"/>
-      <c r="H200" s="44"/>
+      <c r="A200" s="43"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="43"/>
+      <c r="D200" s="43"/>
+      <c r="E200" s="43"/>
+      <c r="F200" s="43"/>
+      <c r="G200" s="43"/>
+      <c r="H200" s="43"/>
     </row>
     <row r="201" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A201" s="44"/>
-      <c r="B201" s="44"/>
-      <c r="C201" s="44"/>
-      <c r="D201" s="44"/>
-      <c r="E201" s="44"/>
-      <c r="F201" s="44"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="44"/>
+      <c r="A201" s="43"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="43"/>
+      <c r="D201" s="43"/>
+      <c r="E201" s="43"/>
+      <c r="F201" s="43"/>
+      <c r="G201" s="43"/>
+      <c r="H201" s="43"/>
     </row>
     <row r="202" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A202" s="44"/>
-      <c r="B202" s="44"/>
-      <c r="C202" s="44"/>
-      <c r="D202" s="44"/>
-      <c r="E202" s="44"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="44"/>
-      <c r="H202" s="44"/>
+      <c r="A202" s="43"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="43"/>
+      <c r="D202" s="43"/>
+      <c r="E202" s="43"/>
+      <c r="F202" s="43"/>
+      <c r="G202" s="43"/>
+      <c r="H202" s="43"/>
     </row>
     <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="8"/>
       <c r="B203" s="8"/>
     </row>
     <row r="204" spans="1:8" ht="12.75">
-      <c r="A204" s="43" t="s">
+      <c r="A204" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B204" s="43" t="s">
+      <c r="B204" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C204" s="44"/>
-      <c r="D204" s="44"/>
-      <c r="E204" s="44"/>
-      <c r="F204" s="44"/>
-      <c r="G204" s="44"/>
-      <c r="H204" s="44"/>
+      <c r="C204" s="43"/>
+      <c r="D204" s="43"/>
+      <c r="E204" s="43"/>
+      <c r="F204" s="43"/>
+      <c r="G204" s="43"/>
+      <c r="H204" s="43"/>
     </row>
     <row r="205" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A205" s="44"/>
-      <c r="B205" s="44"/>
-      <c r="C205" s="44"/>
-      <c r="D205" s="44"/>
-      <c r="E205" s="44"/>
-      <c r="F205" s="44"/>
-      <c r="G205" s="44"/>
-      <c r="H205" s="44"/>
+      <c r="A205" s="43"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="43"/>
+      <c r="D205" s="43"/>
+      <c r="E205" s="43"/>
+      <c r="F205" s="43"/>
+      <c r="G205" s="43"/>
+      <c r="H205" s="43"/>
     </row>
     <row r="206" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A206" s="44"/>
-      <c r="B206" s="44"/>
-      <c r="C206" s="44"/>
-      <c r="D206" s="44"/>
-      <c r="E206" s="44"/>
-      <c r="F206" s="44"/>
-      <c r="G206" s="44"/>
-      <c r="H206" s="44"/>
+      <c r="A206" s="43"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="43"/>
+      <c r="D206" s="43"/>
+      <c r="E206" s="43"/>
+      <c r="F206" s="43"/>
+      <c r="G206" s="43"/>
+      <c r="H206" s="43"/>
     </row>
     <row r="207" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A207" s="44"/>
-      <c r="B207" s="44"/>
-      <c r="C207" s="44"/>
-      <c r="D207" s="44"/>
-      <c r="E207" s="44"/>
-      <c r="F207" s="44"/>
-      <c r="G207" s="44"/>
-      <c r="H207" s="44"/>
+      <c r="A207" s="43"/>
+      <c r="B207" s="43"/>
+      <c r="C207" s="43"/>
+      <c r="D207" s="43"/>
+      <c r="E207" s="43"/>
+      <c r="F207" s="43"/>
+      <c r="G207" s="43"/>
+      <c r="H207" s="43"/>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="1" t="s">
@@ -4722,7 +4719,7 @@
       <c r="D209" s="5">
         <v>0.97775999999999996</v>
       </c>
-      <c r="E209" s="45" t="s">
+      <c r="E209" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4739,7 +4736,7 @@
       <c r="D210" s="5">
         <v>0.97865999999999997</v>
       </c>
-      <c r="E210" s="44"/>
+      <c r="E210" s="43"/>
     </row>
     <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="5"/>
@@ -4754,48 +4751,48 @@
       <c r="H211" s="5"/>
     </row>
     <row r="212" spans="1:8" ht="12.75">
-      <c r="A212" s="46" t="s">
+      <c r="A212" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B212" s="46" t="s">
+      <c r="B212" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C212" s="44"/>
-      <c r="D212" s="44"/>
-      <c r="E212" s="44"/>
-      <c r="F212" s="44"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="44"/>
+      <c r="C212" s="43"/>
+      <c r="D212" s="43"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="43"/>
+      <c r="H212" s="43"/>
     </row>
     <row r="213" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A213" s="44"/>
-      <c r="B213" s="44"/>
-      <c r="C213" s="44"/>
-      <c r="D213" s="44"/>
-      <c r="E213" s="44"/>
-      <c r="F213" s="44"/>
-      <c r="G213" s="44"/>
-      <c r="H213" s="44"/>
+      <c r="A213" s="43"/>
+      <c r="B213" s="43"/>
+      <c r="C213" s="43"/>
+      <c r="D213" s="43"/>
+      <c r="E213" s="43"/>
+      <c r="F213" s="43"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
     </row>
     <row r="214" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A214" s="44"/>
-      <c r="B214" s="44"/>
-      <c r="C214" s="44"/>
-      <c r="D214" s="44"/>
-      <c r="E214" s="44"/>
-      <c r="F214" s="44"/>
-      <c r="G214" s="44"/>
-      <c r="H214" s="44"/>
+      <c r="A214" s="43"/>
+      <c r="B214" s="43"/>
+      <c r="C214" s="43"/>
+      <c r="D214" s="43"/>
+      <c r="E214" s="43"/>
+      <c r="F214" s="43"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
     </row>
     <row r="215" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A215" s="44"/>
-      <c r="B215" s="44"/>
-      <c r="C215" s="44"/>
-      <c r="D215" s="44"/>
-      <c r="E215" s="44"/>
-      <c r="F215" s="44"/>
-      <c r="G215" s="44"/>
-      <c r="H215" s="44"/>
+      <c r="A215" s="43"/>
+      <c r="B215" s="43"/>
+      <c r="C215" s="43"/>
+      <c r="D215" s="43"/>
+      <c r="E215" s="43"/>
+      <c r="F215" s="43"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
     </row>
     <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="5"/>
@@ -4808,140 +4805,140 @@
       <c r="H216" s="5"/>
     </row>
     <row r="217" spans="1:8" ht="12.75">
-      <c r="A217" s="43" t="s">
+      <c r="A217" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B217" s="46" t="s">
+      <c r="B217" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C217" s="44"/>
-      <c r="D217" s="44"/>
-      <c r="E217" s="44"/>
-      <c r="F217" s="44"/>
-      <c r="G217" s="44"/>
-      <c r="H217" s="44"/>
+      <c r="C217" s="43"/>
+      <c r="D217" s="43"/>
+      <c r="E217" s="43"/>
+      <c r="F217" s="43"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
     </row>
     <row r="218" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A218" s="44"/>
-      <c r="B218" s="44"/>
-      <c r="C218" s="44"/>
-      <c r="D218" s="44"/>
-      <c r="E218" s="44"/>
-      <c r="F218" s="44"/>
-      <c r="G218" s="44"/>
-      <c r="H218" s="44"/>
+      <c r="A218" s="43"/>
+      <c r="B218" s="43"/>
+      <c r="C218" s="43"/>
+      <c r="D218" s="43"/>
+      <c r="E218" s="43"/>
+      <c r="F218" s="43"/>
+      <c r="G218" s="43"/>
+      <c r="H218" s="43"/>
     </row>
     <row r="219" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A219" s="44"/>
-      <c r="B219" s="44"/>
-      <c r="C219" s="44"/>
-      <c r="D219" s="44"/>
-      <c r="E219" s="44"/>
-      <c r="F219" s="44"/>
-      <c r="G219" s="44"/>
-      <c r="H219" s="44"/>
+      <c r="A219" s="43"/>
+      <c r="B219" s="43"/>
+      <c r="C219" s="43"/>
+      <c r="D219" s="43"/>
+      <c r="E219" s="43"/>
+      <c r="F219" s="43"/>
+      <c r="G219" s="43"/>
+      <c r="H219" s="43"/>
     </row>
     <row r="220" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A220" s="44"/>
-      <c r="B220" s="44"/>
-      <c r="C220" s="44"/>
-      <c r="D220" s="44"/>
-      <c r="E220" s="44"/>
-      <c r="F220" s="44"/>
-      <c r="G220" s="44"/>
-      <c r="H220" s="44"/>
+      <c r="A220" s="43"/>
+      <c r="B220" s="43"/>
+      <c r="C220" s="43"/>
+      <c r="D220" s="43"/>
+      <c r="E220" s="43"/>
+      <c r="F220" s="43"/>
+      <c r="G220" s="43"/>
+      <c r="H220" s="43"/>
     </row>
     <row r="222" spans="1:8" ht="12.75">
-      <c r="A222" s="43" t="s">
+      <c r="A222" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B222" s="43" t="s">
+      <c r="B222" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C222" s="44"/>
-      <c r="D222" s="44"/>
-      <c r="E222" s="44"/>
-      <c r="F222" s="44"/>
-      <c r="G222" s="44"/>
-      <c r="H222" s="44"/>
+      <c r="C222" s="43"/>
+      <c r="D222" s="43"/>
+      <c r="E222" s="43"/>
+      <c r="F222" s="43"/>
+      <c r="G222" s="43"/>
+      <c r="H222" s="43"/>
     </row>
     <row r="223" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A223" s="44"/>
-      <c r="B223" s="44"/>
-      <c r="C223" s="44"/>
-      <c r="D223" s="44"/>
-      <c r="E223" s="44"/>
-      <c r="F223" s="44"/>
-      <c r="G223" s="44"/>
-      <c r="H223" s="44"/>
+      <c r="A223" s="43"/>
+      <c r="B223" s="43"/>
+      <c r="C223" s="43"/>
+      <c r="D223" s="43"/>
+      <c r="E223" s="43"/>
+      <c r="F223" s="43"/>
+      <c r="G223" s="43"/>
+      <c r="H223" s="43"/>
     </row>
     <row r="224" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A224" s="44"/>
-      <c r="B224" s="44"/>
-      <c r="C224" s="44"/>
-      <c r="D224" s="44"/>
-      <c r="E224" s="44"/>
-      <c r="F224" s="44"/>
-      <c r="G224" s="44"/>
-      <c r="H224" s="44"/>
+      <c r="A224" s="43"/>
+      <c r="B224" s="43"/>
+      <c r="C224" s="43"/>
+      <c r="D224" s="43"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="43"/>
+      <c r="G224" s="43"/>
+      <c r="H224" s="43"/>
     </row>
     <row r="225" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A225" s="44"/>
-      <c r="B225" s="44"/>
-      <c r="C225" s="44"/>
-      <c r="D225" s="44"/>
-      <c r="E225" s="44"/>
-      <c r="F225" s="44"/>
-      <c r="G225" s="44"/>
-      <c r="H225" s="44"/>
+      <c r="A225" s="43"/>
+      <c r="B225" s="43"/>
+      <c r="C225" s="43"/>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="43"/>
+      <c r="H225" s="43"/>
     </row>
     <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="8"/>
       <c r="B226" s="8"/>
     </row>
     <row r="227" spans="1:8" ht="12.75">
-      <c r="A227" s="43" t="s">
+      <c r="A227" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B227" s="43" t="s">
+      <c r="B227" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C227" s="44"/>
-      <c r="D227" s="44"/>
-      <c r="E227" s="44"/>
-      <c r="F227" s="44"/>
-      <c r="G227" s="44"/>
-      <c r="H227" s="44"/>
+      <c r="C227" s="43"/>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="43"/>
+      <c r="H227" s="43"/>
     </row>
     <row r="228" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A228" s="44"/>
-      <c r="B228" s="44"/>
-      <c r="C228" s="44"/>
-      <c r="D228" s="44"/>
-      <c r="E228" s="44"/>
-      <c r="F228" s="44"/>
-      <c r="G228" s="44"/>
-      <c r="H228" s="44"/>
+      <c r="A228" s="43"/>
+      <c r="B228" s="43"/>
+      <c r="C228" s="43"/>
+      <c r="D228" s="43"/>
+      <c r="E228" s="43"/>
+      <c r="F228" s="43"/>
+      <c r="G228" s="43"/>
+      <c r="H228" s="43"/>
     </row>
     <row r="229" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A229" s="44"/>
-      <c r="B229" s="44"/>
-      <c r="C229" s="44"/>
-      <c r="D229" s="44"/>
-      <c r="E229" s="44"/>
-      <c r="F229" s="44"/>
-      <c r="G229" s="44"/>
-      <c r="H229" s="44"/>
+      <c r="A229" s="43"/>
+      <c r="B229" s="43"/>
+      <c r="C229" s="43"/>
+      <c r="D229" s="43"/>
+      <c r="E229" s="43"/>
+      <c r="F229" s="43"/>
+      <c r="G229" s="43"/>
+      <c r="H229" s="43"/>
     </row>
     <row r="230" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A230" s="44"/>
-      <c r="B230" s="44"/>
-      <c r="C230" s="44"/>
-      <c r="D230" s="44"/>
-      <c r="E230" s="44"/>
-      <c r="F230" s="44"/>
-      <c r="G230" s="44"/>
-      <c r="H230" s="44"/>
+      <c r="A230" s="43"/>
+      <c r="B230" s="43"/>
+      <c r="C230" s="43"/>
+      <c r="D230" s="43"/>
+      <c r="E230" s="43"/>
+      <c r="F230" s="43"/>
+      <c r="G230" s="43"/>
+      <c r="H230" s="43"/>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="1" t="s">
@@ -4956,7 +4953,7 @@
       <c r="D232" s="5">
         <v>0.97797000000000001</v>
       </c>
-      <c r="E232" s="45" t="s">
+      <c r="E232" s="44" t="s">
         <v>2</v>
       </c>
       <c r="F232" s="3" t="s">
@@ -4976,7 +4973,7 @@
       <c r="D233" s="5">
         <v>0.97928999999999999</v>
       </c>
-      <c r="E233" s="44"/>
+      <c r="E233" s="43"/>
     </row>
     <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="5"/>
@@ -4991,48 +4988,48 @@
       <c r="H234" s="5"/>
     </row>
     <row r="235" spans="1:8" ht="12.75">
-      <c r="A235" s="46" t="s">
+      <c r="A235" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B235" s="46" t="s">
+      <c r="B235" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C235" s="44"/>
-      <c r="D235" s="44"/>
-      <c r="E235" s="44"/>
-      <c r="F235" s="44"/>
-      <c r="G235" s="44"/>
-      <c r="H235" s="44"/>
+      <c r="C235" s="43"/>
+      <c r="D235" s="43"/>
+      <c r="E235" s="43"/>
+      <c r="F235" s="43"/>
+      <c r="G235" s="43"/>
+      <c r="H235" s="43"/>
     </row>
     <row r="236" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A236" s="44"/>
-      <c r="B236" s="44"/>
-      <c r="C236" s="44"/>
-      <c r="D236" s="44"/>
-      <c r="E236" s="44"/>
-      <c r="F236" s="44"/>
-      <c r="G236" s="44"/>
-      <c r="H236" s="44"/>
+      <c r="A236" s="43"/>
+      <c r="B236" s="43"/>
+      <c r="C236" s="43"/>
+      <c r="D236" s="43"/>
+      <c r="E236" s="43"/>
+      <c r="F236" s="43"/>
+      <c r="G236" s="43"/>
+      <c r="H236" s="43"/>
     </row>
     <row r="237" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A237" s="44"/>
-      <c r="B237" s="44"/>
-      <c r="C237" s="44"/>
-      <c r="D237" s="44"/>
-      <c r="E237" s="44"/>
-      <c r="F237" s="44"/>
-      <c r="G237" s="44"/>
-      <c r="H237" s="44"/>
+      <c r="A237" s="43"/>
+      <c r="B237" s="43"/>
+      <c r="C237" s="43"/>
+      <c r="D237" s="43"/>
+      <c r="E237" s="43"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43"/>
+      <c r="H237" s="43"/>
     </row>
     <row r="238" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A238" s="44"/>
-      <c r="B238" s="44"/>
-      <c r="C238" s="44"/>
-      <c r="D238" s="44"/>
-      <c r="E238" s="44"/>
-      <c r="F238" s="44"/>
-      <c r="G238" s="44"/>
-      <c r="H238" s="44"/>
+      <c r="A238" s="43"/>
+      <c r="B238" s="43"/>
+      <c r="C238" s="43"/>
+      <c r="D238" s="43"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="43"/>
+      <c r="H238" s="43"/>
     </row>
     <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="5"/>
@@ -5045,140 +5042,140 @@
       <c r="H239" s="5"/>
     </row>
     <row r="240" spans="1:8" ht="12.75">
-      <c r="A240" s="43" t="s">
+      <c r="A240" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B240" s="46" t="s">
+      <c r="B240" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C240" s="44"/>
-      <c r="D240" s="44"/>
-      <c r="E240" s="44"/>
-      <c r="F240" s="44"/>
-      <c r="G240" s="44"/>
-      <c r="H240" s="44"/>
+      <c r="C240" s="43"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="43"/>
+      <c r="H240" s="43"/>
     </row>
     <row r="241" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A241" s="44"/>
-      <c r="B241" s="44"/>
-      <c r="C241" s="44"/>
-      <c r="D241" s="44"/>
-      <c r="E241" s="44"/>
-      <c r="F241" s="44"/>
-      <c r="G241" s="44"/>
-      <c r="H241" s="44"/>
+      <c r="A241" s="43"/>
+      <c r="B241" s="43"/>
+      <c r="C241" s="43"/>
+      <c r="D241" s="43"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="43"/>
+      <c r="H241" s="43"/>
     </row>
     <row r="242" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A242" s="44"/>
-      <c r="B242" s="44"/>
-      <c r="C242" s="44"/>
-      <c r="D242" s="44"/>
-      <c r="E242" s="44"/>
-      <c r="F242" s="44"/>
-      <c r="G242" s="44"/>
-      <c r="H242" s="44"/>
+      <c r="A242" s="43"/>
+      <c r="B242" s="43"/>
+      <c r="C242" s="43"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="43"/>
+      <c r="F242" s="43"/>
+      <c r="G242" s="43"/>
+      <c r="H242" s="43"/>
     </row>
     <row r="243" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A243" s="44"/>
-      <c r="B243" s="44"/>
-      <c r="C243" s="44"/>
-      <c r="D243" s="44"/>
-      <c r="E243" s="44"/>
-      <c r="F243" s="44"/>
-      <c r="G243" s="44"/>
-      <c r="H243" s="44"/>
+      <c r="A243" s="43"/>
+      <c r="B243" s="43"/>
+      <c r="C243" s="43"/>
+      <c r="D243" s="43"/>
+      <c r="E243" s="43"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="43"/>
+      <c r="H243" s="43"/>
     </row>
     <row r="245" spans="1:8" ht="12.75">
-      <c r="A245" s="43" t="s">
+      <c r="A245" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B245" s="43" t="s">
+      <c r="B245" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="C245" s="44"/>
-      <c r="D245" s="44"/>
-      <c r="E245" s="44"/>
-      <c r="F245" s="44"/>
-      <c r="G245" s="44"/>
-      <c r="H245" s="44"/>
+      <c r="C245" s="43"/>
+      <c r="D245" s="43"/>
+      <c r="E245" s="43"/>
+      <c r="F245" s="43"/>
+      <c r="G245" s="43"/>
+      <c r="H245" s="43"/>
     </row>
     <row r="246" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A246" s="44"/>
-      <c r="B246" s="44"/>
-      <c r="C246" s="44"/>
-      <c r="D246" s="44"/>
-      <c r="E246" s="44"/>
-      <c r="F246" s="44"/>
-      <c r="G246" s="44"/>
-      <c r="H246" s="44"/>
+      <c r="A246" s="43"/>
+      <c r="B246" s="43"/>
+      <c r="C246" s="43"/>
+      <c r="D246" s="43"/>
+      <c r="E246" s="43"/>
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+      <c r="H246" s="43"/>
     </row>
     <row r="247" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A247" s="44"/>
-      <c r="B247" s="44"/>
-      <c r="C247" s="44"/>
-      <c r="D247" s="44"/>
-      <c r="E247" s="44"/>
-      <c r="F247" s="44"/>
-      <c r="G247" s="44"/>
-      <c r="H247" s="44"/>
+      <c r="A247" s="43"/>
+      <c r="B247" s="43"/>
+      <c r="C247" s="43"/>
+      <c r="D247" s="43"/>
+      <c r="E247" s="43"/>
+      <c r="F247" s="43"/>
+      <c r="G247" s="43"/>
+      <c r="H247" s="43"/>
     </row>
     <row r="248" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A248" s="44"/>
-      <c r="B248" s="44"/>
-      <c r="C248" s="44"/>
-      <c r="D248" s="44"/>
-      <c r="E248" s="44"/>
-      <c r="F248" s="44"/>
-      <c r="G248" s="44"/>
-      <c r="H248" s="44"/>
+      <c r="A248" s="43"/>
+      <c r="B248" s="43"/>
+      <c r="C248" s="43"/>
+      <c r="D248" s="43"/>
+      <c r="E248" s="43"/>
+      <c r="F248" s="43"/>
+      <c r="G248" s="43"/>
+      <c r="H248" s="43"/>
     </row>
     <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
     </row>
     <row r="250" spans="1:8" ht="12.75">
-      <c r="A250" s="43" t="s">
+      <c r="A250" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B250" s="43" t="s">
+      <c r="B250" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C250" s="44"/>
-      <c r="D250" s="44"/>
-      <c r="E250" s="44"/>
-      <c r="F250" s="44"/>
-      <c r="G250" s="44"/>
-      <c r="H250" s="44"/>
+      <c r="C250" s="43"/>
+      <c r="D250" s="43"/>
+      <c r="E250" s="43"/>
+      <c r="F250" s="43"/>
+      <c r="G250" s="43"/>
+      <c r="H250" s="43"/>
     </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A251" s="44"/>
-      <c r="B251" s="44"/>
-      <c r="C251" s="44"/>
-      <c r="D251" s="44"/>
-      <c r="E251" s="44"/>
-      <c r="F251" s="44"/>
-      <c r="G251" s="44"/>
-      <c r="H251" s="44"/>
+      <c r="A251" s="43"/>
+      <c r="B251" s="43"/>
+      <c r="C251" s="43"/>
+      <c r="D251" s="43"/>
+      <c r="E251" s="43"/>
+      <c r="F251" s="43"/>
+      <c r="G251" s="43"/>
+      <c r="H251" s="43"/>
     </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A252" s="44"/>
-      <c r="B252" s="44"/>
-      <c r="C252" s="44"/>
-      <c r="D252" s="44"/>
-      <c r="E252" s="44"/>
-      <c r="F252" s="44"/>
-      <c r="G252" s="44"/>
-      <c r="H252" s="44"/>
+      <c r="A252" s="43"/>
+      <c r="B252" s="43"/>
+      <c r="C252" s="43"/>
+      <c r="D252" s="43"/>
+      <c r="E252" s="43"/>
+      <c r="F252" s="43"/>
+      <c r="G252" s="43"/>
+      <c r="H252" s="43"/>
     </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A253" s="44"/>
-      <c r="B253" s="44"/>
-      <c r="C253" s="44"/>
-      <c r="D253" s="44"/>
-      <c r="E253" s="44"/>
-      <c r="F253" s="44"/>
-      <c r="G253" s="44"/>
-      <c r="H253" s="44"/>
+      <c r="A253" s="43"/>
+      <c r="B253" s="43"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="43"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="43"/>
+      <c r="H253" s="43"/>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
@@ -5193,7 +5190,7 @@
       <c r="D255" s="5">
         <v>143.184</v>
       </c>
-      <c r="E255" s="45" t="s">
+      <c r="E255" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5210,7 +5207,7 @@
       <c r="D256" s="5">
         <v>143.18899999999999</v>
       </c>
-      <c r="E256" s="44"/>
+      <c r="E256" s="43"/>
     </row>
     <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="5"/>
@@ -5225,48 +5222,48 @@
       <c r="H257" s="5"/>
     </row>
     <row r="258" spans="1:8" ht="12.75">
-      <c r="A258" s="46" t="s">
+      <c r="A258" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B258" s="46" t="s">
+      <c r="B258" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C258" s="44"/>
-      <c r="D258" s="44"/>
-      <c r="E258" s="44"/>
-      <c r="F258" s="44"/>
-      <c r="G258" s="44"/>
-      <c r="H258" s="44"/>
+      <c r="C258" s="43"/>
+      <c r="D258" s="43"/>
+      <c r="E258" s="43"/>
+      <c r="F258" s="43"/>
+      <c r="G258" s="43"/>
+      <c r="H258" s="43"/>
     </row>
     <row r="259" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A259" s="44"/>
-      <c r="B259" s="44"/>
-      <c r="C259" s="44"/>
-      <c r="D259" s="44"/>
-      <c r="E259" s="44"/>
-      <c r="F259" s="44"/>
-      <c r="G259" s="44"/>
-      <c r="H259" s="44"/>
+      <c r="A259" s="43"/>
+      <c r="B259" s="43"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="43"/>
+      <c r="E259" s="43"/>
+      <c r="F259" s="43"/>
+      <c r="G259" s="43"/>
+      <c r="H259" s="43"/>
     </row>
     <row r="260" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A260" s="44"/>
-      <c r="B260" s="44"/>
-      <c r="C260" s="44"/>
-      <c r="D260" s="44"/>
-      <c r="E260" s="44"/>
-      <c r="F260" s="44"/>
-      <c r="G260" s="44"/>
-      <c r="H260" s="44"/>
+      <c r="A260" s="43"/>
+      <c r="B260" s="43"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="43"/>
+      <c r="E260" s="43"/>
+      <c r="F260" s="43"/>
+      <c r="G260" s="43"/>
+      <c r="H260" s="43"/>
     </row>
     <row r="261" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A261" s="44"/>
-      <c r="B261" s="44"/>
-      <c r="C261" s="44"/>
-      <c r="D261" s="44"/>
-      <c r="E261" s="44"/>
-      <c r="F261" s="44"/>
-      <c r="G261" s="44"/>
-      <c r="H261" s="44"/>
+      <c r="A261" s="43"/>
+      <c r="B261" s="43"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="43"/>
+      <c r="E261" s="43"/>
+      <c r="F261" s="43"/>
+      <c r="G261" s="43"/>
+      <c r="H261" s="43"/>
     </row>
     <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="5"/>
@@ -5279,140 +5276,140 @@
       <c r="H262" s="5"/>
     </row>
     <row r="263" spans="1:8" ht="12.75">
-      <c r="A263" s="43" t="s">
+      <c r="A263" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B263" s="46" t="s">
+      <c r="B263" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C263" s="44"/>
-      <c r="D263" s="44"/>
-      <c r="E263" s="44"/>
-      <c r="F263" s="44"/>
-      <c r="G263" s="44"/>
-      <c r="H263" s="44"/>
+      <c r="C263" s="43"/>
+      <c r="D263" s="43"/>
+      <c r="E263" s="43"/>
+      <c r="F263" s="43"/>
+      <c r="G263" s="43"/>
+      <c r="H263" s="43"/>
     </row>
     <row r="264" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A264" s="44"/>
-      <c r="B264" s="44"/>
-      <c r="C264" s="44"/>
-      <c r="D264" s="44"/>
-      <c r="E264" s="44"/>
-      <c r="F264" s="44"/>
-      <c r="G264" s="44"/>
-      <c r="H264" s="44"/>
+      <c r="A264" s="43"/>
+      <c r="B264" s="43"/>
+      <c r="C264" s="43"/>
+      <c r="D264" s="43"/>
+      <c r="E264" s="43"/>
+      <c r="F264" s="43"/>
+      <c r="G264" s="43"/>
+      <c r="H264" s="43"/>
     </row>
     <row r="265" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A265" s="44"/>
-      <c r="B265" s="44"/>
-      <c r="C265" s="44"/>
-      <c r="D265" s="44"/>
-      <c r="E265" s="44"/>
-      <c r="F265" s="44"/>
-      <c r="G265" s="44"/>
-      <c r="H265" s="44"/>
+      <c r="A265" s="43"/>
+      <c r="B265" s="43"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="43"/>
+      <c r="E265" s="43"/>
+      <c r="F265" s="43"/>
+      <c r="G265" s="43"/>
+      <c r="H265" s="43"/>
     </row>
     <row r="266" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A266" s="44"/>
-      <c r="B266" s="44"/>
-      <c r="C266" s="44"/>
-      <c r="D266" s="44"/>
-      <c r="E266" s="44"/>
-      <c r="F266" s="44"/>
-      <c r="G266" s="44"/>
-      <c r="H266" s="44"/>
+      <c r="A266" s="43"/>
+      <c r="B266" s="43"/>
+      <c r="C266" s="43"/>
+      <c r="D266" s="43"/>
+      <c r="E266" s="43"/>
+      <c r="F266" s="43"/>
+      <c r="G266" s="43"/>
+      <c r="H266" s="43"/>
     </row>
     <row r="268" spans="1:8" ht="12.75">
-      <c r="A268" s="43" t="s">
+      <c r="A268" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="43" t="s">
+      <c r="B268" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C268" s="44"/>
-      <c r="D268" s="44"/>
-      <c r="E268" s="44"/>
-      <c r="F268" s="44"/>
-      <c r="G268" s="44"/>
-      <c r="H268" s="44"/>
+      <c r="C268" s="43"/>
+      <c r="D268" s="43"/>
+      <c r="E268" s="43"/>
+      <c r="F268" s="43"/>
+      <c r="G268" s="43"/>
+      <c r="H268" s="43"/>
     </row>
     <row r="269" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A269" s="44"/>
-      <c r="B269" s="44"/>
-      <c r="C269" s="44"/>
-      <c r="D269" s="44"/>
-      <c r="E269" s="44"/>
-      <c r="F269" s="44"/>
-      <c r="G269" s="44"/>
-      <c r="H269" s="44"/>
+      <c r="A269" s="43"/>
+      <c r="B269" s="43"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="43"/>
+      <c r="E269" s="43"/>
+      <c r="F269" s="43"/>
+      <c r="G269" s="43"/>
+      <c r="H269" s="43"/>
     </row>
     <row r="270" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A270" s="44"/>
-      <c r="B270" s="44"/>
-      <c r="C270" s="44"/>
-      <c r="D270" s="44"/>
-      <c r="E270" s="44"/>
-      <c r="F270" s="44"/>
-      <c r="G270" s="44"/>
-      <c r="H270" s="44"/>
+      <c r="A270" s="43"/>
+      <c r="B270" s="43"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="43"/>
+      <c r="E270" s="43"/>
+      <c r="F270" s="43"/>
+      <c r="G270" s="43"/>
+      <c r="H270" s="43"/>
     </row>
     <row r="271" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A271" s="44"/>
-      <c r="B271" s="44"/>
-      <c r="C271" s="44"/>
-      <c r="D271" s="44"/>
-      <c r="E271" s="44"/>
-      <c r="F271" s="44"/>
-      <c r="G271" s="44"/>
-      <c r="H271" s="44"/>
+      <c r="A271" s="43"/>
+      <c r="B271" s="43"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
+      <c r="E271" s="43"/>
+      <c r="F271" s="43"/>
+      <c r="G271" s="43"/>
+      <c r="H271" s="43"/>
     </row>
     <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
     </row>
     <row r="273" spans="1:8" ht="12.75">
-      <c r="A273" s="43" t="s">
+      <c r="A273" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B273" s="43" t="s">
+      <c r="B273" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C273" s="44"/>
-      <c r="D273" s="44"/>
-      <c r="E273" s="44"/>
-      <c r="F273" s="44"/>
-      <c r="G273" s="44"/>
-      <c r="H273" s="44"/>
+      <c r="C273" s="43"/>
+      <c r="D273" s="43"/>
+      <c r="E273" s="43"/>
+      <c r="F273" s="43"/>
+      <c r="G273" s="43"/>
+      <c r="H273" s="43"/>
     </row>
     <row r="274" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A274" s="44"/>
-      <c r="B274" s="44"/>
-      <c r="C274" s="44"/>
-      <c r="D274" s="44"/>
-      <c r="E274" s="44"/>
-      <c r="F274" s="44"/>
-      <c r="G274" s="44"/>
-      <c r="H274" s="44"/>
+      <c r="A274" s="43"/>
+      <c r="B274" s="43"/>
+      <c r="C274" s="43"/>
+      <c r="D274" s="43"/>
+      <c r="E274" s="43"/>
+      <c r="F274" s="43"/>
+      <c r="G274" s="43"/>
+      <c r="H274" s="43"/>
     </row>
     <row r="275" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A275" s="44"/>
-      <c r="B275" s="44"/>
-      <c r="C275" s="44"/>
-      <c r="D275" s="44"/>
-      <c r="E275" s="44"/>
-      <c r="F275" s="44"/>
-      <c r="G275" s="44"/>
-      <c r="H275" s="44"/>
+      <c r="A275" s="43"/>
+      <c r="B275" s="43"/>
+      <c r="C275" s="43"/>
+      <c r="D275" s="43"/>
+      <c r="E275" s="43"/>
+      <c r="F275" s="43"/>
+      <c r="G275" s="43"/>
+      <c r="H275" s="43"/>
     </row>
     <row r="276" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A276" s="44"/>
-      <c r="B276" s="44"/>
-      <c r="C276" s="44"/>
-      <c r="D276" s="44"/>
-      <c r="E276" s="44"/>
-      <c r="F276" s="44"/>
-      <c r="G276" s="44"/>
-      <c r="H276" s="44"/>
+      <c r="A276" s="43"/>
+      <c r="B276" s="43"/>
+      <c r="C276" s="43"/>
+      <c r="D276" s="43"/>
+      <c r="E276" s="43"/>
+      <c r="F276" s="43"/>
+      <c r="G276" s="43"/>
+      <c r="H276" s="43"/>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="1" t="s">
@@ -5427,7 +5424,7 @@
       <c r="D278" s="5">
         <v>1.3729100000000001</v>
       </c>
-      <c r="E278" s="45" t="s">
+      <c r="E278" s="44" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5444,7 +5441,7 @@
       <c r="D279" s="5">
         <v>1.3728899999999999</v>
       </c>
-      <c r="E279" s="44"/>
+      <c r="E279" s="43"/>
     </row>
     <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="5"/>
@@ -5459,48 +5456,48 @@
       <c r="H280" s="5"/>
     </row>
     <row r="281" spans="1:8" ht="12.75">
-      <c r="A281" s="46" t="s">
+      <c r="A281" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B281" s="46" t="s">
+      <c r="B281" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C281" s="44"/>
-      <c r="D281" s="44"/>
-      <c r="E281" s="44"/>
-      <c r="F281" s="44"/>
-      <c r="G281" s="44"/>
-      <c r="H281" s="44"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
+      <c r="E281" s="43"/>
+      <c r="F281" s="43"/>
+      <c r="G281" s="43"/>
+      <c r="H281" s="43"/>
     </row>
     <row r="282" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A282" s="44"/>
-      <c r="B282" s="44"/>
-      <c r="C282" s="44"/>
-      <c r="D282" s="44"/>
-      <c r="E282" s="44"/>
-      <c r="F282" s="44"/>
-      <c r="G282" s="44"/>
-      <c r="H282" s="44"/>
+      <c r="A282" s="43"/>
+      <c r="B282" s="43"/>
+      <c r="C282" s="43"/>
+      <c r="D282" s="43"/>
+      <c r="E282" s="43"/>
+      <c r="F282" s="43"/>
+      <c r="G282" s="43"/>
+      <c r="H282" s="43"/>
     </row>
     <row r="283" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A283" s="44"/>
-      <c r="B283" s="44"/>
-      <c r="C283" s="44"/>
-      <c r="D283" s="44"/>
-      <c r="E283" s="44"/>
-      <c r="F283" s="44"/>
-      <c r="G283" s="44"/>
-      <c r="H283" s="44"/>
+      <c r="A283" s="43"/>
+      <c r="B283" s="43"/>
+      <c r="C283" s="43"/>
+      <c r="D283" s="43"/>
+      <c r="E283" s="43"/>
+      <c r="F283" s="43"/>
+      <c r="G283" s="43"/>
+      <c r="H283" s="43"/>
     </row>
     <row r="284" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A284" s="44"/>
-      <c r="B284" s="44"/>
-      <c r="C284" s="44"/>
-      <c r="D284" s="44"/>
-      <c r="E284" s="44"/>
-      <c r="F284" s="44"/>
-      <c r="G284" s="44"/>
-      <c r="H284" s="44"/>
+      <c r="A284" s="43"/>
+      <c r="B284" s="43"/>
+      <c r="C284" s="43"/>
+      <c r="D284" s="43"/>
+      <c r="E284" s="43"/>
+      <c r="F284" s="43"/>
+      <c r="G284" s="43"/>
+      <c r="H284" s="43"/>
     </row>
     <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="5"/>
@@ -5513,140 +5510,140 @@
       <c r="H285" s="5"/>
     </row>
     <row r="286" spans="1:8" ht="12.75">
-      <c r="A286" s="43" t="s">
+      <c r="A286" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B286" s="46" t="s">
+      <c r="B286" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C286" s="44"/>
-      <c r="D286" s="44"/>
-      <c r="E286" s="44"/>
-      <c r="F286" s="44"/>
-      <c r="G286" s="44"/>
-      <c r="H286" s="44"/>
+      <c r="C286" s="43"/>
+      <c r="D286" s="43"/>
+      <c r="E286" s="43"/>
+      <c r="F286" s="43"/>
+      <c r="G286" s="43"/>
+      <c r="H286" s="43"/>
     </row>
     <row r="287" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A287" s="44"/>
-      <c r="B287" s="44"/>
-      <c r="C287" s="44"/>
-      <c r="D287" s="44"/>
-      <c r="E287" s="44"/>
-      <c r="F287" s="44"/>
-      <c r="G287" s="44"/>
-      <c r="H287" s="44"/>
+      <c r="A287" s="43"/>
+      <c r="B287" s="43"/>
+      <c r="C287" s="43"/>
+      <c r="D287" s="43"/>
+      <c r="E287" s="43"/>
+      <c r="F287" s="43"/>
+      <c r="G287" s="43"/>
+      <c r="H287" s="43"/>
     </row>
     <row r="288" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A288" s="44"/>
-      <c r="B288" s="44"/>
-      <c r="C288" s="44"/>
-      <c r="D288" s="44"/>
-      <c r="E288" s="44"/>
-      <c r="F288" s="44"/>
-      <c r="G288" s="44"/>
-      <c r="H288" s="44"/>
+      <c r="A288" s="43"/>
+      <c r="B288" s="43"/>
+      <c r="C288" s="43"/>
+      <c r="D288" s="43"/>
+      <c r="E288" s="43"/>
+      <c r="F288" s="43"/>
+      <c r="G288" s="43"/>
+      <c r="H288" s="43"/>
     </row>
     <row r="289" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A289" s="44"/>
-      <c r="B289" s="44"/>
-      <c r="C289" s="44"/>
-      <c r="D289" s="44"/>
-      <c r="E289" s="44"/>
-      <c r="F289" s="44"/>
-      <c r="G289" s="44"/>
-      <c r="H289" s="44"/>
+      <c r="A289" s="43"/>
+      <c r="B289" s="43"/>
+      <c r="C289" s="43"/>
+      <c r="D289" s="43"/>
+      <c r="E289" s="43"/>
+      <c r="F289" s="43"/>
+      <c r="G289" s="43"/>
+      <c r="H289" s="43"/>
     </row>
     <row r="291" spans="1:25" ht="12.75">
-      <c r="A291" s="43" t="s">
+      <c r="A291" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B291" s="43" t="s">
+      <c r="B291" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C291" s="44"/>
-      <c r="D291" s="44"/>
-      <c r="E291" s="44"/>
-      <c r="F291" s="44"/>
-      <c r="G291" s="44"/>
-      <c r="H291" s="44"/>
+      <c r="C291" s="43"/>
+      <c r="D291" s="43"/>
+      <c r="E291" s="43"/>
+      <c r="F291" s="43"/>
+      <c r="G291" s="43"/>
+      <c r="H291" s="43"/>
     </row>
     <row r="292" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A292" s="44"/>
-      <c r="B292" s="44"/>
-      <c r="C292" s="44"/>
-      <c r="D292" s="44"/>
-      <c r="E292" s="44"/>
-      <c r="F292" s="44"/>
-      <c r="G292" s="44"/>
-      <c r="H292" s="44"/>
+      <c r="A292" s="43"/>
+      <c r="B292" s="43"/>
+      <c r="C292" s="43"/>
+      <c r="D292" s="43"/>
+      <c r="E292" s="43"/>
+      <c r="F292" s="43"/>
+      <c r="G292" s="43"/>
+      <c r="H292" s="43"/>
     </row>
     <row r="293" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A293" s="44"/>
-      <c r="B293" s="44"/>
-      <c r="C293" s="44"/>
-      <c r="D293" s="44"/>
-      <c r="E293" s="44"/>
-      <c r="F293" s="44"/>
-      <c r="G293" s="44"/>
-      <c r="H293" s="44"/>
+      <c r="A293" s="43"/>
+      <c r="B293" s="43"/>
+      <c r="C293" s="43"/>
+      <c r="D293" s="43"/>
+      <c r="E293" s="43"/>
+      <c r="F293" s="43"/>
+      <c r="G293" s="43"/>
+      <c r="H293" s="43"/>
     </row>
     <row r="294" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A294" s="44"/>
-      <c r="B294" s="44"/>
-      <c r="C294" s="44"/>
-      <c r="D294" s="44"/>
-      <c r="E294" s="44"/>
-      <c r="F294" s="44"/>
-      <c r="G294" s="44"/>
-      <c r="H294" s="44"/>
+      <c r="A294" s="43"/>
+      <c r="B294" s="43"/>
+      <c r="C294" s="43"/>
+      <c r="D294" s="43"/>
+      <c r="E294" s="43"/>
+      <c r="F294" s="43"/>
+      <c r="G294" s="43"/>
+      <c r="H294" s="43"/>
     </row>
     <row r="295" spans="1:25" ht="12.75">
       <c r="A295" s="8"/>
       <c r="B295" s="8"/>
     </row>
     <row r="296" spans="1:25" ht="12.75">
-      <c r="A296" s="43" t="s">
+      <c r="A296" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B296" s="43" t="s">
+      <c r="B296" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C296" s="44"/>
-      <c r="D296" s="44"/>
-      <c r="E296" s="44"/>
-      <c r="F296" s="44"/>
-      <c r="G296" s="44"/>
-      <c r="H296" s="44"/>
+      <c r="C296" s="43"/>
+      <c r="D296" s="43"/>
+      <c r="E296" s="43"/>
+      <c r="F296" s="43"/>
+      <c r="G296" s="43"/>
+      <c r="H296" s="43"/>
     </row>
     <row r="297" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A297" s="44"/>
-      <c r="B297" s="44"/>
-      <c r="C297" s="44"/>
-      <c r="D297" s="44"/>
-      <c r="E297" s="44"/>
-      <c r="F297" s="44"/>
-      <c r="G297" s="44"/>
-      <c r="H297" s="44"/>
+      <c r="A297" s="43"/>
+      <c r="B297" s="43"/>
+      <c r="C297" s="43"/>
+      <c r="D297" s="43"/>
+      <c r="E297" s="43"/>
+      <c r="F297" s="43"/>
+      <c r="G297" s="43"/>
+      <c r="H297" s="43"/>
     </row>
     <row r="298" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A298" s="44"/>
-      <c r="B298" s="44"/>
-      <c r="C298" s="44"/>
-      <c r="D298" s="44"/>
-      <c r="E298" s="44"/>
-      <c r="F298" s="44"/>
-      <c r="G298" s="44"/>
-      <c r="H298" s="44"/>
+      <c r="A298" s="43"/>
+      <c r="B298" s="43"/>
+      <c r="C298" s="43"/>
+      <c r="D298" s="43"/>
+      <c r="E298" s="43"/>
+      <c r="F298" s="43"/>
+      <c r="G298" s="43"/>
+      <c r="H298" s="43"/>
     </row>
     <row r="299" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A299" s="44"/>
-      <c r="B299" s="44"/>
-      <c r="C299" s="44"/>
-      <c r="D299" s="44"/>
-      <c r="E299" s="44"/>
-      <c r="F299" s="44"/>
-      <c r="G299" s="44"/>
-      <c r="H299" s="44"/>
+      <c r="A299" s="43"/>
+      <c r="B299" s="43"/>
+      <c r="C299" s="43"/>
+      <c r="D299" s="43"/>
+      <c r="E299" s="43"/>
+      <c r="F299" s="43"/>
+      <c r="G299" s="43"/>
+      <c r="H299" s="43"/>
     </row>
     <row r="301" spans="1:25">
       <c r="A301" s="13" t="s">
@@ -5661,7 +5658,7 @@
       <c r="D301" s="16">
         <v>0.89771000000000001</v>
       </c>
-      <c r="E301" s="48" t="s">
+      <c r="E301" s="47" t="s">
         <v>2</v>
       </c>
       <c r="F301" s="15"/>
@@ -5698,7 +5695,7 @@
       <c r="D302" s="16">
         <v>0.90005000000000002</v>
       </c>
-      <c r="E302" s="44"/>
+      <c r="E302" s="43"/>
       <c r="F302" s="15"/>
       <c r="G302" s="15"/>
       <c r="H302" s="15"/>
@@ -5750,18 +5747,18 @@
       <c r="Y303" s="15"/>
     </row>
     <row r="304" spans="1:25" ht="12.75">
-      <c r="A304" s="49" t="s">
+      <c r="A304" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B304" s="49" t="s">
+      <c r="B304" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C304" s="44"/>
-      <c r="D304" s="44"/>
-      <c r="E304" s="44"/>
-      <c r="F304" s="44"/>
-      <c r="G304" s="44"/>
-      <c r="H304" s="44"/>
+      <c r="C304" s="43"/>
+      <c r="D304" s="43"/>
+      <c r="E304" s="43"/>
+      <c r="F304" s="43"/>
+      <c r="G304" s="43"/>
+      <c r="H304" s="43"/>
       <c r="I304" s="15"/>
       <c r="J304" s="15"/>
       <c r="K304" s="15"/>
@@ -5781,14 +5778,14 @@
       <c r="Y304" s="15"/>
     </row>
     <row r="305" spans="1:25" ht="12.75">
-      <c r="A305" s="44"/>
-      <c r="B305" s="44"/>
-      <c r="C305" s="44"/>
-      <c r="D305" s="44"/>
-      <c r="E305" s="44"/>
-      <c r="F305" s="44"/>
-      <c r="G305" s="44"/>
-      <c r="H305" s="44"/>
+      <c r="A305" s="43"/>
+      <c r="B305" s="43"/>
+      <c r="C305" s="43"/>
+      <c r="D305" s="43"/>
+      <c r="E305" s="43"/>
+      <c r="F305" s="43"/>
+      <c r="G305" s="43"/>
+      <c r="H305" s="43"/>
       <c r="I305" s="15"/>
       <c r="J305" s="15"/>
       <c r="K305" s="15"/>
@@ -5808,14 +5805,14 @@
       <c r="Y305" s="15"/>
     </row>
     <row r="306" spans="1:25" ht="12.75">
-      <c r="A306" s="44"/>
-      <c r="B306" s="44"/>
-      <c r="C306" s="44"/>
-      <c r="D306" s="44"/>
-      <c r="E306" s="44"/>
-      <c r="F306" s="44"/>
-      <c r="G306" s="44"/>
-      <c r="H306" s="44"/>
+      <c r="A306" s="43"/>
+      <c r="B306" s="43"/>
+      <c r="C306" s="43"/>
+      <c r="D306" s="43"/>
+      <c r="E306" s="43"/>
+      <c r="F306" s="43"/>
+      <c r="G306" s="43"/>
+      <c r="H306" s="43"/>
       <c r="I306" s="15"/>
       <c r="J306" s="15"/>
       <c r="K306" s="15"/>
@@ -5835,14 +5832,14 @@
       <c r="Y306" s="15"/>
     </row>
     <row r="307" spans="1:25" ht="12.75">
-      <c r="A307" s="44"/>
-      <c r="B307" s="44"/>
-      <c r="C307" s="44"/>
-      <c r="D307" s="44"/>
-      <c r="E307" s="44"/>
-      <c r="F307" s="44"/>
-      <c r="G307" s="44"/>
-      <c r="H307" s="44"/>
+      <c r="A307" s="43"/>
+      <c r="B307" s="43"/>
+      <c r="C307" s="43"/>
+      <c r="D307" s="43"/>
+      <c r="E307" s="43"/>
+      <c r="F307" s="43"/>
+      <c r="G307" s="43"/>
+      <c r="H307" s="43"/>
       <c r="I307" s="15"/>
       <c r="J307" s="15"/>
       <c r="K307" s="15"/>
@@ -5889,18 +5886,18 @@
       <c r="Y308" s="15"/>
     </row>
     <row r="309" spans="1:25" ht="12.75">
-      <c r="A309" s="49" t="s">
+      <c r="A309" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B309" s="49" t="s">
+      <c r="B309" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C309" s="44"/>
-      <c r="D309" s="44"/>
-      <c r="E309" s="44"/>
-      <c r="F309" s="44"/>
-      <c r="G309" s="44"/>
-      <c r="H309" s="44"/>
+      <c r="C309" s="43"/>
+      <c r="D309" s="43"/>
+      <c r="E309" s="43"/>
+      <c r="F309" s="43"/>
+      <c r="G309" s="43"/>
+      <c r="H309" s="43"/>
       <c r="I309" s="15"/>
       <c r="J309" s="15"/>
       <c r="K309" s="15"/>
@@ -5920,14 +5917,14 @@
       <c r="Y309" s="15"/>
     </row>
     <row r="310" spans="1:25" ht="12.75">
-      <c r="A310" s="44"/>
-      <c r="B310" s="44"/>
-      <c r="C310" s="44"/>
-      <c r="D310" s="44"/>
-      <c r="E310" s="44"/>
-      <c r="F310" s="44"/>
-      <c r="G310" s="44"/>
-      <c r="H310" s="44"/>
+      <c r="A310" s="43"/>
+      <c r="B310" s="43"/>
+      <c r="C310" s="43"/>
+      <c r="D310" s="43"/>
+      <c r="E310" s="43"/>
+      <c r="F310" s="43"/>
+      <c r="G310" s="43"/>
+      <c r="H310" s="43"/>
       <c r="I310" s="15"/>
       <c r="J310" s="15"/>
       <c r="K310" s="15"/>
@@ -5947,14 +5944,14 @@
       <c r="Y310" s="15"/>
     </row>
     <row r="311" spans="1:25" ht="12.75">
-      <c r="A311" s="44"/>
-      <c r="B311" s="44"/>
-      <c r="C311" s="44"/>
-      <c r="D311" s="44"/>
-      <c r="E311" s="44"/>
-      <c r="F311" s="44"/>
-      <c r="G311" s="44"/>
-      <c r="H311" s="44"/>
+      <c r="A311" s="43"/>
+      <c r="B311" s="43"/>
+      <c r="C311" s="43"/>
+      <c r="D311" s="43"/>
+      <c r="E311" s="43"/>
+      <c r="F311" s="43"/>
+      <c r="G311" s="43"/>
+      <c r="H311" s="43"/>
       <c r="I311" s="15"/>
       <c r="J311" s="15"/>
       <c r="K311" s="15"/>
@@ -5974,14 +5971,14 @@
       <c r="Y311" s="15"/>
     </row>
     <row r="312" spans="1:25" ht="12.75">
-      <c r="A312" s="44"/>
-      <c r="B312" s="44"/>
-      <c r="C312" s="44"/>
-      <c r="D312" s="44"/>
-      <c r="E312" s="44"/>
-      <c r="F312" s="44"/>
-      <c r="G312" s="44"/>
-      <c r="H312" s="44"/>
+      <c r="A312" s="43"/>
+      <c r="B312" s="43"/>
+      <c r="C312" s="43"/>
+      <c r="D312" s="43"/>
+      <c r="E312" s="43"/>
+      <c r="F312" s="43"/>
+      <c r="G312" s="43"/>
+      <c r="H312" s="43"/>
       <c r="I312" s="15"/>
       <c r="J312" s="15"/>
       <c r="K312" s="15"/>
@@ -6028,18 +6025,18 @@
       <c r="Y313" s="15"/>
     </row>
     <row r="314" spans="1:25" ht="12.75">
-      <c r="A314" s="49" t="s">
+      <c r="A314" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B314" s="49" t="s">
+      <c r="B314" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C314" s="44"/>
-      <c r="D314" s="44"/>
-      <c r="E314" s="44"/>
-      <c r="F314" s="44"/>
-      <c r="G314" s="44"/>
-      <c r="H314" s="44"/>
+      <c r="C314" s="43"/>
+      <c r="D314" s="43"/>
+      <c r="E314" s="43"/>
+      <c r="F314" s="43"/>
+      <c r="G314" s="43"/>
+      <c r="H314" s="43"/>
       <c r="I314" s="15"/>
       <c r="J314" s="15"/>
       <c r="K314" s="15"/>
@@ -6059,14 +6056,14 @@
       <c r="Y314" s="15"/>
     </row>
     <row r="315" spans="1:25" ht="12.75">
-      <c r="A315" s="44"/>
-      <c r="B315" s="44"/>
-      <c r="C315" s="44"/>
-      <c r="D315" s="44"/>
-      <c r="E315" s="44"/>
-      <c r="F315" s="44"/>
-      <c r="G315" s="44"/>
-      <c r="H315" s="44"/>
+      <c r="A315" s="43"/>
+      <c r="B315" s="43"/>
+      <c r="C315" s="43"/>
+      <c r="D315" s="43"/>
+      <c r="E315" s="43"/>
+      <c r="F315" s="43"/>
+      <c r="G315" s="43"/>
+      <c r="H315" s="43"/>
       <c r="I315" s="15"/>
       <c r="J315" s="15"/>
       <c r="K315" s="15"/>
@@ -6086,14 +6083,14 @@
       <c r="Y315" s="15"/>
     </row>
     <row r="316" spans="1:25" ht="12.75">
-      <c r="A316" s="44"/>
-      <c r="B316" s="44"/>
-      <c r="C316" s="44"/>
-      <c r="D316" s="44"/>
-      <c r="E316" s="44"/>
-      <c r="F316" s="44"/>
-      <c r="G316" s="44"/>
-      <c r="H316" s="44"/>
+      <c r="A316" s="43"/>
+      <c r="B316" s="43"/>
+      <c r="C316" s="43"/>
+      <c r="D316" s="43"/>
+      <c r="E316" s="43"/>
+      <c r="F316" s="43"/>
+      <c r="G316" s="43"/>
+      <c r="H316" s="43"/>
       <c r="I316" s="15"/>
       <c r="J316" s="15"/>
       <c r="K316" s="15"/>
@@ -6113,14 +6110,14 @@
       <c r="Y316" s="15"/>
     </row>
     <row r="317" spans="1:25" ht="12.75">
-      <c r="A317" s="44"/>
-      <c r="B317" s="44"/>
-      <c r="C317" s="44"/>
-      <c r="D317" s="44"/>
-      <c r="E317" s="44"/>
-      <c r="F317" s="44"/>
-      <c r="G317" s="44"/>
-      <c r="H317" s="44"/>
+      <c r="A317" s="43"/>
+      <c r="B317" s="43"/>
+      <c r="C317" s="43"/>
+      <c r="D317" s="43"/>
+      <c r="E317" s="43"/>
+      <c r="F317" s="43"/>
+      <c r="G317" s="43"/>
+      <c r="H317" s="43"/>
       <c r="I317" s="15"/>
       <c r="J317" s="15"/>
       <c r="K317" s="15"/>
@@ -6167,18 +6164,18 @@
       <c r="Y318" s="15"/>
     </row>
     <row r="319" spans="1:25" ht="12.75">
-      <c r="A319" s="49" t="s">
+      <c r="A319" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B319" s="49" t="s">
+      <c r="B319" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C319" s="44"/>
-      <c r="D319" s="44"/>
-      <c r="E319" s="44"/>
-      <c r="F319" s="44"/>
-      <c r="G319" s="44"/>
-      <c r="H319" s="44"/>
+      <c r="C319" s="43"/>
+      <c r="D319" s="43"/>
+      <c r="E319" s="43"/>
+      <c r="F319" s="43"/>
+      <c r="G319" s="43"/>
+      <c r="H319" s="43"/>
       <c r="I319" s="15"/>
       <c r="J319" s="15"/>
       <c r="K319" s="15"/>
@@ -6198,14 +6195,14 @@
       <c r="Y319" s="15"/>
     </row>
     <row r="320" spans="1:25" ht="12.75">
-      <c r="A320" s="44"/>
-      <c r="B320" s="44"/>
-      <c r="C320" s="44"/>
-      <c r="D320" s="44"/>
-      <c r="E320" s="44"/>
-      <c r="F320" s="44"/>
-      <c r="G320" s="44"/>
-      <c r="H320" s="44"/>
+      <c r="A320" s="43"/>
+      <c r="B320" s="43"/>
+      <c r="C320" s="43"/>
+      <c r="D320" s="43"/>
+      <c r="E320" s="43"/>
+      <c r="F320" s="43"/>
+      <c r="G320" s="43"/>
+      <c r="H320" s="43"/>
       <c r="I320" s="15"/>
       <c r="J320" s="15"/>
       <c r="K320" s="15"/>
@@ -6225,14 +6222,14 @@
       <c r="Y320" s="15"/>
     </row>
     <row r="321" spans="1:25" ht="12.75">
-      <c r="A321" s="44"/>
-      <c r="B321" s="44"/>
-      <c r="C321" s="44"/>
-      <c r="D321" s="44"/>
-      <c r="E321" s="44"/>
-      <c r="F321" s="44"/>
-      <c r="G321" s="44"/>
-      <c r="H321" s="44"/>
+      <c r="A321" s="43"/>
+      <c r="B321" s="43"/>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
+      <c r="E321" s="43"/>
+      <c r="F321" s="43"/>
+      <c r="G321" s="43"/>
+      <c r="H321" s="43"/>
       <c r="I321" s="15"/>
       <c r="J321" s="15"/>
       <c r="K321" s="15"/>
@@ -6252,14 +6249,14 @@
       <c r="Y321" s="15"/>
     </row>
     <row r="322" spans="1:25" ht="12.75">
-      <c r="A322" s="44"/>
-      <c r="B322" s="44"/>
-      <c r="C322" s="44"/>
-      <c r="D322" s="44"/>
-      <c r="E322" s="44"/>
-      <c r="F322" s="44"/>
-      <c r="G322" s="44"/>
-      <c r="H322" s="44"/>
+      <c r="A322" s="43"/>
+      <c r="B322" s="43"/>
+      <c r="C322" s="43"/>
+      <c r="D322" s="43"/>
+      <c r="E322" s="43"/>
+      <c r="F322" s="43"/>
+      <c r="G322" s="43"/>
+      <c r="H322" s="43"/>
       <c r="I322" s="15"/>
       <c r="J322" s="15"/>
       <c r="K322" s="15"/>
@@ -6291,7 +6288,7 @@
       <c r="D324" s="16">
         <v>0.99319999999999997</v>
       </c>
-      <c r="E324" s="48" t="s">
+      <c r="E324" s="47" t="s">
         <v>25</v>
       </c>
       <c r="F324" s="15"/>
@@ -6328,7 +6325,7 @@
       <c r="D325" s="16">
         <v>0.99321000000000004</v>
       </c>
-      <c r="E325" s="44"/>
+      <c r="E325" s="43"/>
       <c r="F325" s="15"/>
       <c r="G325" s="15"/>
       <c r="H325" s="15"/>
@@ -6380,18 +6377,18 @@
       <c r="Y326" s="15"/>
     </row>
     <row r="327" spans="1:25" ht="12.75">
-      <c r="A327" s="49" t="s">
+      <c r="A327" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B327" s="49" t="s">
+      <c r="B327" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C327" s="44"/>
-      <c r="D327" s="44"/>
-      <c r="E327" s="44"/>
-      <c r="F327" s="44"/>
-      <c r="G327" s="44"/>
-      <c r="H327" s="44"/>
+      <c r="C327" s="43"/>
+      <c r="D327" s="43"/>
+      <c r="E327" s="43"/>
+      <c r="F327" s="43"/>
+      <c r="G327" s="43"/>
+      <c r="H327" s="43"/>
       <c r="I327" s="15"/>
       <c r="J327" s="15"/>
       <c r="K327" s="15"/>
@@ -6411,14 +6408,14 @@
       <c r="Y327" s="15"/>
     </row>
     <row r="328" spans="1:25" ht="12.75">
-      <c r="A328" s="44"/>
-      <c r="B328" s="44"/>
-      <c r="C328" s="44"/>
-      <c r="D328" s="44"/>
-      <c r="E328" s="44"/>
-      <c r="F328" s="44"/>
-      <c r="G328" s="44"/>
-      <c r="H328" s="44"/>
+      <c r="A328" s="43"/>
+      <c r="B328" s="43"/>
+      <c r="C328" s="43"/>
+      <c r="D328" s="43"/>
+      <c r="E328" s="43"/>
+      <c r="F328" s="43"/>
+      <c r="G328" s="43"/>
+      <c r="H328" s="43"/>
       <c r="I328" s="15"/>
       <c r="J328" s="15"/>
       <c r="K328" s="15"/>
@@ -6438,14 +6435,14 @@
       <c r="Y328" s="15"/>
     </row>
     <row r="329" spans="1:25" ht="12.75">
-      <c r="A329" s="44"/>
-      <c r="B329" s="44"/>
-      <c r="C329" s="44"/>
-      <c r="D329" s="44"/>
-      <c r="E329" s="44"/>
-      <c r="F329" s="44"/>
-      <c r="G329" s="44"/>
-      <c r="H329" s="44"/>
+      <c r="A329" s="43"/>
+      <c r="B329" s="43"/>
+      <c r="C329" s="43"/>
+      <c r="D329" s="43"/>
+      <c r="E329" s="43"/>
+      <c r="F329" s="43"/>
+      <c r="G329" s="43"/>
+      <c r="H329" s="43"/>
       <c r="I329" s="15"/>
       <c r="J329" s="15"/>
       <c r="K329" s="15"/>
@@ -6465,14 +6462,14 @@
       <c r="Y329" s="15"/>
     </row>
     <row r="330" spans="1:25" ht="12.75">
-      <c r="A330" s="44"/>
-      <c r="B330" s="44"/>
-      <c r="C330" s="44"/>
-      <c r="D330" s="44"/>
-      <c r="E330" s="44"/>
-      <c r="F330" s="44"/>
-      <c r="G330" s="44"/>
-      <c r="H330" s="44"/>
+      <c r="A330" s="43"/>
+      <c r="B330" s="43"/>
+      <c r="C330" s="43"/>
+      <c r="D330" s="43"/>
+      <c r="E330" s="43"/>
+      <c r="F330" s="43"/>
+      <c r="G330" s="43"/>
+      <c r="H330" s="43"/>
       <c r="I330" s="15"/>
       <c r="J330" s="15"/>
       <c r="K330" s="15"/>
@@ -6519,18 +6516,18 @@
       <c r="Y331" s="15"/>
     </row>
     <row r="332" spans="1:25" ht="12.75">
-      <c r="A332" s="49" t="s">
+      <c r="A332" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B332" s="49" t="s">
+      <c r="B332" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C332" s="44"/>
-      <c r="D332" s="44"/>
-      <c r="E332" s="44"/>
-      <c r="F332" s="44"/>
-      <c r="G332" s="44"/>
-      <c r="H332" s="44"/>
+      <c r="C332" s="43"/>
+      <c r="D332" s="43"/>
+      <c r="E332" s="43"/>
+      <c r="F332" s="43"/>
+      <c r="G332" s="43"/>
+      <c r="H332" s="43"/>
       <c r="I332" s="15"/>
       <c r="J332" s="15"/>
       <c r="K332" s="15"/>
@@ -6550,14 +6547,14 @@
       <c r="Y332" s="15"/>
     </row>
     <row r="333" spans="1:25" ht="12.75">
-      <c r="A333" s="44"/>
-      <c r="B333" s="44"/>
-      <c r="C333" s="44"/>
-      <c r="D333" s="44"/>
-      <c r="E333" s="44"/>
-      <c r="F333" s="44"/>
-      <c r="G333" s="44"/>
-      <c r="H333" s="44"/>
+      <c r="A333" s="43"/>
+      <c r="B333" s="43"/>
+      <c r="C333" s="43"/>
+      <c r="D333" s="43"/>
+      <c r="E333" s="43"/>
+      <c r="F333" s="43"/>
+      <c r="G333" s="43"/>
+      <c r="H333" s="43"/>
       <c r="I333" s="15"/>
       <c r="J333" s="15"/>
       <c r="K333" s="15"/>
@@ -6577,14 +6574,14 @@
       <c r="Y333" s="15"/>
     </row>
     <row r="334" spans="1:25" ht="12.75">
-      <c r="A334" s="44"/>
-      <c r="B334" s="44"/>
-      <c r="C334" s="44"/>
-      <c r="D334" s="44"/>
-      <c r="E334" s="44"/>
-      <c r="F334" s="44"/>
-      <c r="G334" s="44"/>
-      <c r="H334" s="44"/>
+      <c r="A334" s="43"/>
+      <c r="B334" s="43"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
+      <c r="E334" s="43"/>
+      <c r="F334" s="43"/>
+      <c r="G334" s="43"/>
+      <c r="H334" s="43"/>
       <c r="I334" s="15"/>
       <c r="J334" s="15"/>
       <c r="K334" s="15"/>
@@ -6604,14 +6601,14 @@
       <c r="Y334" s="15"/>
     </row>
     <row r="335" spans="1:25" ht="12.75">
-      <c r="A335" s="44"/>
-      <c r="B335" s="44"/>
-      <c r="C335" s="44"/>
-      <c r="D335" s="44"/>
-      <c r="E335" s="44"/>
-      <c r="F335" s="44"/>
-      <c r="G335" s="44"/>
-      <c r="H335" s="44"/>
+      <c r="A335" s="43"/>
+      <c r="B335" s="43"/>
+      <c r="C335" s="43"/>
+      <c r="D335" s="43"/>
+      <c r="E335" s="43"/>
+      <c r="F335" s="43"/>
+      <c r="G335" s="43"/>
+      <c r="H335" s="43"/>
       <c r="I335" s="15"/>
       <c r="J335" s="15"/>
       <c r="K335" s="15"/>
@@ -6658,18 +6655,18 @@
       <c r="Y336" s="15"/>
     </row>
     <row r="337" spans="1:25" ht="12.75">
-      <c r="A337" s="49" t="s">
+      <c r="A337" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B337" s="49" t="s">
+      <c r="B337" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C337" s="44"/>
-      <c r="D337" s="44"/>
-      <c r="E337" s="44"/>
-      <c r="F337" s="44"/>
-      <c r="G337" s="44"/>
-      <c r="H337" s="44"/>
+      <c r="C337" s="43"/>
+      <c r="D337" s="43"/>
+      <c r="E337" s="43"/>
+      <c r="F337" s="43"/>
+      <c r="G337" s="43"/>
+      <c r="H337" s="43"/>
       <c r="I337" s="15"/>
       <c r="J337" s="15"/>
       <c r="K337" s="15"/>
@@ -6689,14 +6686,14 @@
       <c r="Y337" s="15"/>
     </row>
     <row r="338" spans="1:25" ht="12.75">
-      <c r="A338" s="44"/>
-      <c r="B338" s="44"/>
-      <c r="C338" s="44"/>
-      <c r="D338" s="44"/>
-      <c r="E338" s="44"/>
-      <c r="F338" s="44"/>
-      <c r="G338" s="44"/>
-      <c r="H338" s="44"/>
+      <c r="A338" s="43"/>
+      <c r="B338" s="43"/>
+      <c r="C338" s="43"/>
+      <c r="D338" s="43"/>
+      <c r="E338" s="43"/>
+      <c r="F338" s="43"/>
+      <c r="G338" s="43"/>
+      <c r="H338" s="43"/>
       <c r="I338" s="15"/>
       <c r="J338" s="15"/>
       <c r="K338" s="15"/>
@@ -6716,14 +6713,14 @@
       <c r="Y338" s="15"/>
     </row>
     <row r="339" spans="1:25" ht="12.75">
-      <c r="A339" s="44"/>
-      <c r="B339" s="44"/>
-      <c r="C339" s="44"/>
-      <c r="D339" s="44"/>
-      <c r="E339" s="44"/>
-      <c r="F339" s="44"/>
-      <c r="G339" s="44"/>
-      <c r="H339" s="44"/>
+      <c r="A339" s="43"/>
+      <c r="B339" s="43"/>
+      <c r="C339" s="43"/>
+      <c r="D339" s="43"/>
+      <c r="E339" s="43"/>
+      <c r="F339" s="43"/>
+      <c r="G339" s="43"/>
+      <c r="H339" s="43"/>
       <c r="I339" s="15"/>
       <c r="J339" s="15"/>
       <c r="K339" s="15"/>
@@ -6743,14 +6740,14 @@
       <c r="Y339" s="15"/>
     </row>
     <row r="340" spans="1:25" ht="12.75">
-      <c r="A340" s="44"/>
-      <c r="B340" s="44"/>
-      <c r="C340" s="44"/>
-      <c r="D340" s="44"/>
-      <c r="E340" s="44"/>
-      <c r="F340" s="44"/>
-      <c r="G340" s="44"/>
-      <c r="H340" s="44"/>
+      <c r="A340" s="43"/>
+      <c r="B340" s="43"/>
+      <c r="C340" s="43"/>
+      <c r="D340" s="43"/>
+      <c r="E340" s="43"/>
+      <c r="F340" s="43"/>
+      <c r="G340" s="43"/>
+      <c r="H340" s="43"/>
       <c r="I340" s="15"/>
       <c r="J340" s="15"/>
       <c r="K340" s="15"/>
@@ -6797,18 +6794,18 @@
       <c r="Y341" s="15"/>
     </row>
     <row r="342" spans="1:25" ht="12.75">
-      <c r="A342" s="49" t="s">
+      <c r="A342" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B342" s="49" t="s">
+      <c r="B342" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C342" s="44"/>
-      <c r="D342" s="44"/>
-      <c r="E342" s="44"/>
-      <c r="F342" s="44"/>
-      <c r="G342" s="44"/>
-      <c r="H342" s="44"/>
+      <c r="C342" s="43"/>
+      <c r="D342" s="43"/>
+      <c r="E342" s="43"/>
+      <c r="F342" s="43"/>
+      <c r="G342" s="43"/>
+      <c r="H342" s="43"/>
       <c r="I342" s="15"/>
       <c r="J342" s="15"/>
       <c r="K342" s="15"/>
@@ -6828,14 +6825,14 @@
       <c r="Y342" s="15"/>
     </row>
     <row r="343" spans="1:25" ht="12.75">
-      <c r="A343" s="44"/>
-      <c r="B343" s="44"/>
-      <c r="C343" s="44"/>
-      <c r="D343" s="44"/>
-      <c r="E343" s="44"/>
-      <c r="F343" s="44"/>
-      <c r="G343" s="44"/>
-      <c r="H343" s="44"/>
+      <c r="A343" s="43"/>
+      <c r="B343" s="43"/>
+      <c r="C343" s="43"/>
+      <c r="D343" s="43"/>
+      <c r="E343" s="43"/>
+      <c r="F343" s="43"/>
+      <c r="G343" s="43"/>
+      <c r="H343" s="43"/>
       <c r="I343" s="15"/>
       <c r="J343" s="15"/>
       <c r="K343" s="15"/>
@@ -6855,14 +6852,14 @@
       <c r="Y343" s="15"/>
     </row>
     <row r="344" spans="1:25" ht="12.75">
-      <c r="A344" s="44"/>
-      <c r="B344" s="44"/>
-      <c r="C344" s="44"/>
-      <c r="D344" s="44"/>
-      <c r="E344" s="44"/>
-      <c r="F344" s="44"/>
-      <c r="G344" s="44"/>
-      <c r="H344" s="44"/>
+      <c r="A344" s="43"/>
+      <c r="B344" s="43"/>
+      <c r="C344" s="43"/>
+      <c r="D344" s="43"/>
+      <c r="E344" s="43"/>
+      <c r="F344" s="43"/>
+      <c r="G344" s="43"/>
+      <c r="H344" s="43"/>
       <c r="I344" s="15"/>
       <c r="J344" s="15"/>
       <c r="K344" s="15"/>
@@ -6882,14 +6879,14 @@
       <c r="Y344" s="15"/>
     </row>
     <row r="345" spans="1:25" ht="12.75">
-      <c r="A345" s="44"/>
-      <c r="B345" s="44"/>
-      <c r="C345" s="44"/>
-      <c r="D345" s="44"/>
-      <c r="E345" s="44"/>
-      <c r="F345" s="44"/>
-      <c r="G345" s="44"/>
-      <c r="H345" s="44"/>
+      <c r="A345" s="43"/>
+      <c r="B345" s="43"/>
+      <c r="C345" s="43"/>
+      <c r="D345" s="43"/>
+      <c r="E345" s="43"/>
+      <c r="F345" s="43"/>
+      <c r="G345" s="43"/>
+      <c r="H345" s="43"/>
       <c r="I345" s="15"/>
       <c r="J345" s="15"/>
       <c r="K345" s="15"/>
